--- a/P1/Usability-review-Lambus.xlsx
+++ b/P1/Usability-review-Lambus.xlsx
@@ -822,7 +822,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="229">
   <si>
     <t xml:space="preserve">Usability review (Español)</t>
   </si>
@@ -1037,7 +1037,7 @@
     <t xml:space="preserve">Los usuarios pueden enviar comentarios (por ejemplo, por correo electrónico o mediante un formulario de comentarios / contacto en línea)</t>
   </si>
   <si>
-    <t xml:space="preserve">No se proporcina de un correo electrónico de contacto, pero sí que se dispone de un chat en línea con el soporte de la aplicación</t>
+    <t xml:space="preserve">Se proporcina un correo electrónico de contacto y se dispone de un chat en línea con el soporte de la aplicación, aunque éste útilmo no es eficiente debido a los largos tiempos de respuesta desde que se envía el mensaje.</t>
   </si>
   <si>
     <t xml:space="preserve">Forms</t>
@@ -1079,13 +1079,25 @@
     <t xml:space="preserve">Los errores son claros, fácilmente identificables y aparecen en la ubicación apropiada (por ejemplo, adyacente al campo de entrada de datos, adyacente al formulario, etc.).</t>
   </si>
   <si>
+    <t xml:space="preserve">En la mayoría de casos no se muestra un mensaje de error (como hacer una búsqueda de lugares del mundo o enviar mensajes sin conexión a internet ). Aunque sí muestra mensajes de error a la hora de importar un mapa o viaje de otro usuario.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Los mensajes de error son concisos, están escritos en un lenguaje fácil de entender y describen qué ocurrió y qué acción es necesaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los errores que se informan dan una explicación pobre al respecto, por ejemplo cuando se quiere importar un viaje de otro usuario sin conexión no se indica que el error producido ha sido por esto.</t>
   </si>
   <si>
     <t xml:space="preserve">Los errores de usuario comunes (por ejemplo, campos faltantes, formatos no válidos, selecciones no válidas) se han tenido en cuenta y, en la medida de lo posible, se han prevenido.</t>
   </si>
   <si>
+    <t xml:space="preserve">Se han prevenido no permitiendo al usuario continuar el proceso (véase crear un viaje sin definir un periodo de fechas).</t>
+  </si>
+  <si>
     <t xml:space="preserve">Los usuarios pueden recuperarse fácilmente (es decir, no tienen que comenzar de nuevo) de los errores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No hemos experimentado errores de los cuales el usuario necesite recuperarse.</t>
   </si>
   <si>
     <t xml:space="preserve">Content &amp; text</t>
@@ -1094,16 +1106,31 @@
     <t xml:space="preserve">El contenido disponible (por ejemplo, texto, imágenes, video) es apropiado y suficientemente relevante, y detallado para cumplir con los objetivos del usuario</t>
   </si>
   <si>
+    <t xml:space="preserve">El contenido ofrecido en determinadas secciones de la aplicación está desequilibrado con respecto al contenido que se debería ofrecer en otras, es decir. Hay secciones que resultan muy pobre en cuanto a texto, descripciones o imágenes, mientras que otras secciones secundarias están más completas.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Los enlaces a otros contenidos útiles y relevantes (por ejemplo, páginas relacionadas o sitios web externos) están disponibles y se muestran en contexto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No ofrece enlaces a contenido externo de relevancia, sólo ofrece información propia de la aplicación.</t>
   </si>
   <si>
     <t xml:space="preserve">El lenguaje, la terminología y el tono utilizados son apropiados y son fácilmente comprensibles para el público objetivo</t>
   </si>
   <si>
+    <t xml:space="preserve">El lenguaje utilizado en la aplicación es correcto, bien redactado y fácil de entender por la mayoría de los usuarios.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Los términos, el idioma y el tono utilizados son consistentes (por ejemplo, el mismo término se usa en todo)</t>
   </si>
   <si>
+    <t xml:space="preserve">Hay una serie de términos definidos que se utilizan consistentemente en todas las partes de la aplicación (como viaje, paradas o actividades). La traducción al castellano es parcial, hay aspectos de la aplicación que no están traducidos (como importar un viaje)</t>
+  </si>
+  <si>
     <t xml:space="preserve">El texto y el contenido son legibles y escaneables, con buena tipografía y contraste visual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación utiliza una tipografía clara y legible en color blanco sobre fondo negro (modo nocturno) o color negro sobre fondo blanco (modo diurno).</t>
   </si>
   <si>
     <t xml:space="preserve">Help</t>
@@ -1112,13 +1139,25 @@
     <t xml:space="preserve">Se proporciona ayuda en línea y contextual y es adecuada para la base de usuarios (por ejemplo, está escrita en un lenguaje fácil de entender y solo usa términos reconocidos). </t>
   </si>
   <si>
+    <t xml:space="preserve">La aplicación proporciona un chat en línea con atención al cliente, además de una sección de preguntas frecuentemente realizadas. No obstante, no ofrece un apartado de ayuda en cada contexto de la aplicación, sólo uno general en los ajustes.</t>
+  </si>
+  <si>
     <t xml:space="preserve">La ayuda en línea es concisa, fácil de leer y escrita en un lenguaje fácil de entender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El apartado de FAQ no está traducido al castellano, ni a ningún otro idioma, pero es concisa y fácil de leer. No obstante las preguntas aportadas no son muchas.</t>
   </si>
   <si>
     <t xml:space="preserve">El acceso a la ayuda en línea no impide a los usuarios (es decir, pueden reanudar el trabajo donde lo dejaron después de acceder a la ayuda)</t>
   </si>
   <si>
+    <t xml:space="preserve">No, el usuario ha de abandonar lo que estaba haciendo para acceder al menú específico de ayuda</t>
+  </si>
+  <si>
     <t xml:space="preserve">Los usuarios pueden obtener más ayuda fácilmente (por ejemplo, teléfono o dirección de correo electrónico)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El servicio de atención al cliente por el chat online es poco eficiente (se tarda en responder), aunque sí se aporta un correo electrónico de contacto.</t>
   </si>
   <si>
     <t xml:space="preserve">Performance</t>
@@ -1127,10 +1166,19 @@
     <t xml:space="preserve">El rendimiento del sitio o la aplicación no inhibe la experiencia del usuario (por ejemplo, descargas lentas de páginas, retrasos prolongados)</t>
   </si>
   <si>
+    <t xml:space="preserve">En general el rendimiento de la aplicación es bueno, aunque hay ciertos menús con una mayor cantidad de imágenes en los cuales la aplicación de ralentiza un poco.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Los errores y problemas de confiabilidad no inhiben la experiencia del usuario</t>
   </si>
   <si>
+    <t xml:space="preserve">No hemos experimentado errores relevantes durante el uso de la aplicación.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Se admiten posibles configuraciones de usuario (por ejemplo, navegadores, resoluciones, especificaciones de computadora)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para diferentes versiones de Android y tamaños de pantalla la aplicación se adapta correctamente.</t>
   </si>
   <si>
     <t xml:space="preserve">Overall usability score (out of 100) *</t>
@@ -2793,7 +2841,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2817,6 +2865,15 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false"/>
@@ -3195,16 +3252,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="12">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="ExtConditionalStyle_1 1" xfId="20"/>
-    <cellStyle name="ExtConditionalStyle_1 2" xfId="21"/>
-    <cellStyle name="ExtConditionalStyle_1" xfId="22"/>
+    <cellStyle name="ExtConditionalStyle_1 3" xfId="20"/>
+    <cellStyle name="ExtConditionalStyle_1 1" xfId="21"/>
+    <cellStyle name="ExtConditionalStyle_1 2" xfId="22"/>
+    <cellStyle name="ExtConditionalStyle_1 4" xfId="23"/>
+    <cellStyle name="ExtConditionalStyle_1 5" xfId="24"/>
+    <cellStyle name="ExtConditionalStyle_1" xfId="25"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -3216,11 +3276,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>304560</xdr:rowOff>
     </xdr:to>
@@ -3235,8 +3295,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="828360"/>
-          <a:ext cx="304560" cy="304560"/>
+          <a:off x="0" y="828720"/>
+          <a:ext cx="304200" cy="304200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3262,9 +3322,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>304560</xdr:rowOff>
+      <xdr:rowOff>304200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3278,7 +3338,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="828360"/>
-          <a:ext cx="304560" cy="304560"/>
+          <a:ext cx="304200" cy="304200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3300,11 +3360,11 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I75" activeCellId="0" sqref="I75"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.29"/>
@@ -5212,7 +5272,7 @@
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5" t="e">
@@ -5237,11 +5297,11 @@
       </c>
       <c r="M63" s="43" t="n">
         <f aca="false">VLOOKUP(D63,Q1:R9,2,FALSE())</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N63" s="43" t="n">
         <f aca="false">M63*L63</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="O63" s="43" t="n">
         <f aca="false">IF(M63=0,0,L63*MAX(R2:R8))</f>
@@ -5656,7 +5716,7 @@
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="39" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5" t="e">
@@ -5668,7 +5728,9 @@
         <v>#REF!</v>
       </c>
       <c r="H79" s="5"/>
-      <c r="I79" s="40"/>
+      <c r="I79" s="40" t="s">
+        <v>84</v>
+      </c>
       <c r="J79" s="5"/>
       <c r="K79" s="41" t="n">
         <v>4</v>
@@ -5679,15 +5741,15 @@
       </c>
       <c r="M79" s="43" t="n">
         <f aca="false">VLOOKUP(D79,Q1:R9,2,FALSE())</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N79" s="43" t="n">
         <f aca="false">M79*L79</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="O79" s="43" t="n">
         <f aca="false">IF(M79=0,0,L79*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5713,11 +5775,11 @@
         <v>31</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="39" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5" t="e">
@@ -5729,7 +5791,9 @@
         <v>#REF!</v>
       </c>
       <c r="H81" s="5"/>
-      <c r="I81" s="40"/>
+      <c r="I81" s="40" t="s">
+        <v>86</v>
+      </c>
       <c r="J81" s="5"/>
       <c r="K81" s="41" t="n">
         <v>3</v>
@@ -5740,15 +5804,15 @@
       </c>
       <c r="M81" s="43" t="n">
         <f aca="false">VLOOKUP(D81,Q1:R9,2,FALSE())</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N81" s="43" t="n">
         <f aca="false">M81*L81</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="O81" s="43" t="n">
         <f aca="false">IF(M81=0,0,L81*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5774,11 +5838,11 @@
         <v>32</v>
       </c>
       <c r="B83" s="38" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="39" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5" t="e">
@@ -5790,7 +5854,9 @@
         <v>#REF!</v>
       </c>
       <c r="H83" s="5"/>
-      <c r="I83" s="40"/>
+      <c r="I83" s="40" t="s">
+        <v>88</v>
+      </c>
       <c r="J83" s="5"/>
       <c r="K83" s="41" t="n">
         <v>3</v>
@@ -5801,15 +5867,15 @@
       </c>
       <c r="M83" s="43" t="n">
         <f aca="false">VLOOKUP(D83,Q1:R9,2,FALSE())</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N83" s="43" t="n">
         <f aca="false">M83*L83</f>
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O83" s="43" t="n">
         <f aca="false">IF(M83=0,0,L83*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5835,11 +5901,11 @@
         <v>33</v>
       </c>
       <c r="B85" s="38" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="39" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5" t="e">
@@ -5851,7 +5917,9 @@
         <v>#REF!</v>
       </c>
       <c r="H85" s="5"/>
-      <c r="I85" s="40"/>
+      <c r="I85" s="40" t="s">
+        <v>90</v>
+      </c>
       <c r="J85" s="5"/>
       <c r="K85" s="41" t="n">
         <v>3</v>
@@ -5891,7 +5959,7 @@
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="31" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C87" s="35"/>
       <c r="D87" s="54"/>
@@ -5923,17 +5991,17 @@
       <c r="N88" s="43"/>
       <c r="O88" s="43"/>
     </row>
-    <row r="89" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="47.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="37" t="n">
         <f aca="false">A85+1</f>
         <v>34</v>
       </c>
       <c r="B89" s="38" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="39" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5" t="e">
@@ -5945,7 +6013,9 @@
         <v>#REF!</v>
       </c>
       <c r="H89" s="5"/>
-      <c r="I89" s="40"/>
+      <c r="I89" s="40" t="s">
+        <v>93</v>
+      </c>
       <c r="J89" s="5"/>
       <c r="K89" s="41" t="n">
         <v>5</v>
@@ -5956,15 +6026,15 @@
       </c>
       <c r="M89" s="43" t="n">
         <f aca="false">VLOOKUP(D89,Q1:R9,2,FALSE())</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N89" s="43" t="n">
         <f aca="false">M89*L89</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O89" s="43" t="n">
         <f aca="false">IF(M89=0,0,L89*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5990,11 +6060,11 @@
         <v>35</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="39" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5" t="e">
@@ -6006,7 +6076,9 @@
         <v>#REF!</v>
       </c>
       <c r="H91" s="5"/>
-      <c r="I91" s="40"/>
+      <c r="I91" s="40" t="s">
+        <v>95</v>
+      </c>
       <c r="J91" s="5"/>
       <c r="K91" s="41" t="n">
         <v>2</v>
@@ -6017,15 +6089,15 @@
       </c>
       <c r="M91" s="43" t="n">
         <f aca="false">VLOOKUP(D91,Q1:R9,2,FALSE())</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N91" s="43" t="n">
         <f aca="false">M91*L91</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O91" s="43" t="n">
         <f aca="false">IF(M91=0,0,L91*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6051,11 +6123,11 @@
         <v>36</v>
       </c>
       <c r="B93" s="38" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="39" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5" t="e">
@@ -6067,7 +6139,9 @@
         <v>#REF!</v>
       </c>
       <c r="H93" s="5"/>
-      <c r="I93" s="40"/>
+      <c r="I93" s="40" t="s">
+        <v>97</v>
+      </c>
       <c r="J93" s="5"/>
       <c r="K93" s="41" t="n">
         <v>4</v>
@@ -6078,15 +6152,15 @@
       </c>
       <c r="M93" s="43" t="n">
         <f aca="false">VLOOKUP(D93,Q1:R9,2,FALSE())</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N93" s="43" t="n">
         <f aca="false">M93*L93</f>
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="O93" s="43" t="n">
         <f aca="false">IF(M93=0,0,L93*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6112,11 +6186,11 @@
         <v>37</v>
       </c>
       <c r="B95" s="38" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="39" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5" t="e">
@@ -6128,7 +6202,9 @@
         <v>#REF!</v>
       </c>
       <c r="H95" s="5"/>
-      <c r="I95" s="40"/>
+      <c r="I95" s="40" t="s">
+        <v>99</v>
+      </c>
       <c r="J95" s="5"/>
       <c r="K95" s="41" t="n">
         <v>3</v>
@@ -6139,15 +6215,15 @@
       </c>
       <c r="M95" s="43" t="n">
         <f aca="false">VLOOKUP(D95,Q1:R9,2,FALSE())</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N95" s="43" t="n">
         <f aca="false">M95*L95</f>
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="O95" s="43" t="n">
         <f aca="false">IF(M95=0,0,L95*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6173,11 +6249,11 @@
         <v>38</v>
       </c>
       <c r="B97" s="38" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="39" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5" t="e">
@@ -6189,7 +6265,9 @@
         <v>#REF!</v>
       </c>
       <c r="H97" s="5"/>
-      <c r="I97" s="40"/>
+      <c r="I97" s="40" t="s">
+        <v>101</v>
+      </c>
       <c r="J97" s="5"/>
       <c r="K97" s="41" t="n">
         <v>3</v>
@@ -6200,15 +6278,15 @@
       </c>
       <c r="M97" s="43" t="n">
         <f aca="false">VLOOKUP(D97,Q1:R9,2,FALSE())</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N97" s="43" t="n">
         <f aca="false">M97*L97</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O97" s="43" t="n">
         <f aca="false">IF(M97=0,0,L97*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6229,7 +6307,7 @@
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="31" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C99" s="35"/>
       <c r="D99" s="54"/>
@@ -6267,11 +6345,11 @@
         <v>39</v>
       </c>
       <c r="B101" s="38" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="39" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5" t="e">
@@ -6283,7 +6361,9 @@
         <v>#REF!</v>
       </c>
       <c r="H101" s="5"/>
-      <c r="I101" s="40"/>
+      <c r="I101" s="40" t="s">
+        <v>104</v>
+      </c>
       <c r="J101" s="5"/>
       <c r="K101" s="41" t="n">
         <v>4</v>
@@ -6294,15 +6374,15 @@
       </c>
       <c r="M101" s="43" t="n">
         <f aca="false">VLOOKUP(D101,Q1:R9,2,FALSE())</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N101" s="43" t="n">
         <f aca="false">M101*L101</f>
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="O101" s="43" t="n">
         <f aca="false">IF(M101=0,0,L101*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6328,11 +6408,11 @@
         <v>40</v>
       </c>
       <c r="B103" s="38" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="39" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5" t="e">
@@ -6344,7 +6424,9 @@
         <v>#REF!</v>
       </c>
       <c r="H103" s="5"/>
-      <c r="I103" s="40"/>
+      <c r="I103" s="40" t="s">
+        <v>106</v>
+      </c>
       <c r="J103" s="5"/>
       <c r="K103" s="41" t="n">
         <v>3</v>
@@ -6355,15 +6437,15 @@
       </c>
       <c r="M103" s="43" t="n">
         <f aca="false">VLOOKUP(D103,Q1:R9,2,FALSE())</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N103" s="43" t="n">
         <f aca="false">M103*L103</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="O103" s="43" t="n">
         <f aca="false">IF(M103=0,0,L103*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6389,11 +6471,11 @@
         <v>41</v>
       </c>
       <c r="B105" s="38" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="39" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5" t="e">
@@ -6405,7 +6487,9 @@
         <v>#REF!</v>
       </c>
       <c r="H105" s="5"/>
-      <c r="I105" s="40"/>
+      <c r="I105" s="40" t="s">
+        <v>108</v>
+      </c>
       <c r="J105" s="5"/>
       <c r="K105" s="41" t="n">
         <v>3</v>
@@ -6416,15 +6500,15 @@
       </c>
       <c r="M105" s="43" t="n">
         <f aca="false">VLOOKUP(D105,Q1:R9,2,FALSE())</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N105" s="43" t="n">
         <f aca="false">M105*L105</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="O105" s="43" t="n">
         <f aca="false">IF(M105=0,0,L105*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6450,11 +6534,11 @@
         <v>42</v>
       </c>
       <c r="B107" s="38" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="39" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5" t="e">
@@ -6466,7 +6550,9 @@
         <v>#REF!</v>
       </c>
       <c r="H107" s="5"/>
-      <c r="I107" s="40"/>
+      <c r="I107" s="40" t="s">
+        <v>110</v>
+      </c>
       <c r="J107" s="5"/>
       <c r="K107" s="41" t="n">
         <v>2</v>
@@ -6477,15 +6563,15 @@
       </c>
       <c r="M107" s="43" t="n">
         <f aca="false">VLOOKUP(D107,Q1:R9,2,FALSE())</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N107" s="43" t="n">
         <f aca="false">M107*L107</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="O107" s="43" t="n">
         <f aca="false">IF(M107=0,0,L107*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6506,7 +6592,7 @@
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="31" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C109" s="35"/>
       <c r="D109" s="54"/>
@@ -6544,11 +6630,11 @@
         <v>43</v>
       </c>
       <c r="B111" s="38" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C111" s="19"/>
       <c r="D111" s="39" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E111" s="19"/>
       <c r="F111" s="19" t="e">
@@ -6560,7 +6646,9 @@
         <v>#REF!</v>
       </c>
       <c r="H111" s="19"/>
-      <c r="I111" s="40"/>
+      <c r="I111" s="40" t="s">
+        <v>113</v>
+      </c>
       <c r="J111" s="19"/>
       <c r="K111" s="28" t="n">
         <v>4</v>
@@ -6571,15 +6659,15 @@
       </c>
       <c r="M111" s="57" t="n">
         <f aca="false">VLOOKUP(D111,Q1:R9,2,FALSE())</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N111" s="57" t="n">
         <f aca="false">M111*L111</f>
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="O111" s="57" t="n">
         <f aca="false">IF(M111=0,0,L111*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P111" s="19"/>
       <c r="Q111" s="19"/>
@@ -6627,11 +6715,11 @@
         <v>44</v>
       </c>
       <c r="B113" s="38" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="C113" s="19"/>
       <c r="D113" s="59" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E113" s="19"/>
       <c r="F113" s="19" t="e">
@@ -6643,7 +6731,9 @@
         <v>#REF!</v>
       </c>
       <c r="H113" s="19"/>
-      <c r="I113" s="40"/>
+      <c r="I113" s="40" t="s">
+        <v>115</v>
+      </c>
       <c r="J113" s="19"/>
       <c r="K113" s="28" t="n">
         <v>4</v>
@@ -6710,11 +6800,11 @@
         <v>45</v>
       </c>
       <c r="B115" s="38" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C115" s="19"/>
       <c r="D115" s="39" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E115" s="19"/>
       <c r="F115" s="19" t="e">
@@ -6726,7 +6816,9 @@
         <v>#REF!</v>
       </c>
       <c r="H115" s="19"/>
-      <c r="I115" s="40"/>
+      <c r="I115" s="40" t="s">
+        <v>117</v>
+      </c>
       <c r="J115" s="19"/>
       <c r="K115" s="28" t="n">
         <v>3</v>
@@ -6737,15 +6829,15 @@
       </c>
       <c r="M115" s="57" t="n">
         <f aca="false">VLOOKUP(D115,Q1:R9,2,FALSE())</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N115" s="57" t="n">
         <f aca="false">M115*L115</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O115" s="57" t="n">
         <f aca="false">IF(M115=0,0,L115*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P115" s="19"/>
       <c r="Q115" s="19"/>
@@ -6777,13 +6869,13 @@
     </row>
     <row r="117" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="63" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B117" s="64"/>
       <c r="C117" s="65"/>
       <c r="D117" s="66" t="n">
         <f aca="false">IF(ISERR((N117/O117)*100),"",(N117/O117)*100)</f>
-        <v>66.6666666666667</v>
+        <v>64.8818897637795</v>
       </c>
       <c r="E117" s="67"/>
       <c r="F117" s="67"/>
@@ -6798,7 +6890,7 @@
       </c>
       <c r="J117" s="6" t="n">
         <f aca="false">IF(D117="",0,D117)</f>
-        <v>66.6666666666667</v>
+        <v>64.8818897637795</v>
       </c>
       <c r="K117" s="61" t="n">
         <f aca="false">MAX(K9:K115)</f>
@@ -6808,11 +6900,11 @@
       <c r="M117" s="61"/>
       <c r="N117" s="62" t="n">
         <f aca="false">SUM(N9:N115)</f>
-        <v>54</v>
+        <v>82.4</v>
       </c>
       <c r="O117" s="62" t="n">
         <f aca="false">SUM(O9:O115)</f>
-        <v>81</v>
+        <v>127</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6931,10 +7023,10 @@
     </row>
     <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B125" s="74" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C125" s="75" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="D125" s="76"/>
       <c r="E125" s="5"/>
@@ -6951,7 +7043,7 @@
       <c r="A126" s="5"/>
       <c r="B126" s="77"/>
       <c r="C126" s="78" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="D126" s="79"/>
       <c r="E126" s="79"/>
@@ -17498,7 +17590,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{352467E0-C8A1-4812-B36F-D1EABA5BDA2A}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{BCAC7D8D-8010-43A0-9324-53FB781CFA87}">
             <xm:f>"Enter score"</xm:f>
             <x14:dxf>
               <fill>
@@ -17534,7 +17626,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.29"/>
@@ -17553,7 +17645,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -17610,7 +17702,7 @@
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="17"/>
@@ -17794,7 +17886,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="39" t="s">
@@ -17869,7 +17961,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="39" t="s">
@@ -17942,7 +18034,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="39" t="s">
@@ -18011,7 +18103,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="39" t="s">
@@ -18077,7 +18169,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="39" t="s">
@@ -18175,7 +18267,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="39" t="s">
@@ -18239,7 +18331,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="39" t="s">
@@ -18304,7 +18396,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="39" t="s">
@@ -18403,7 +18495,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="39" t="s">
@@ -18471,7 +18563,7 @@
         <v>10</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="39" t="s">
@@ -18532,7 +18624,7 @@
         <v>11</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="39" t="s">
@@ -18587,7 +18679,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="39" t="s">
@@ -18648,7 +18740,7 @@
         <v>13</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="39" t="s">
@@ -18709,7 +18801,7 @@
         <v>14</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="39" t="s">
@@ -18777,7 +18869,7 @@
         <v>15</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="39" t="s">
@@ -18838,7 +18930,7 @@
         <v>16</v>
       </c>
       <c r="B43" s="44" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="39" t="s">
@@ -18899,7 +18991,7 @@
         <v>17</v>
       </c>
       <c r="B45" s="44" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="39" t="s">
@@ -18993,7 +19085,7 @@
         <v>18</v>
       </c>
       <c r="B49" s="44" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="39" t="s">
@@ -19054,7 +19146,7 @@
         <v>19</v>
       </c>
       <c r="B51" s="44" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="39" t="s">
@@ -19115,7 +19207,7 @@
         <v>20</v>
       </c>
       <c r="B53" s="44" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="39" t="s">
@@ -19176,7 +19268,7 @@
         <v>21</v>
       </c>
       <c r="B55" s="44" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="39" t="s">
@@ -19270,7 +19362,7 @@
         <v>22</v>
       </c>
       <c r="B59" s="44" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="39" t="s">
@@ -19331,7 +19423,7 @@
         <v>23</v>
       </c>
       <c r="B61" s="44" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="39" t="s">
@@ -19392,7 +19484,7 @@
         <v>24</v>
       </c>
       <c r="B63" s="44" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="39" t="s">
@@ -19486,7 +19578,7 @@
         <v>25</v>
       </c>
       <c r="B67" s="44" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="39" t="s">
@@ -19547,7 +19639,7 @@
         <v>26</v>
       </c>
       <c r="B69" s="44" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="39" t="s">
@@ -19608,7 +19700,7 @@
         <v>27</v>
       </c>
       <c r="B71" s="44" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="39" t="s">
@@ -19669,7 +19761,7 @@
         <v>28</v>
       </c>
       <c r="B73" s="44" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="39" t="s">
@@ -19730,7 +19822,7 @@
         <v>29</v>
       </c>
       <c r="B75" s="44" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="39" t="s">
@@ -19824,7 +19916,7 @@
         <v>30</v>
       </c>
       <c r="B79" s="44" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="39" t="s">
@@ -19885,7 +19977,7 @@
         <v>31</v>
       </c>
       <c r="B81" s="44" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="39" t="s">
@@ -19946,7 +20038,7 @@
         <v>32</v>
       </c>
       <c r="B83" s="44" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="39" t="s">
@@ -20007,7 +20099,7 @@
         <v>33</v>
       </c>
       <c r="B85" s="44" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="39" t="s">
@@ -20063,7 +20155,7 @@
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="31" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C87" s="35"/>
       <c r="D87" s="54"/>
@@ -20101,7 +20193,7 @@
         <v>34</v>
       </c>
       <c r="B89" s="44" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="39" t="s">
@@ -20162,7 +20254,7 @@
         <v>35</v>
       </c>
       <c r="B91" s="44" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="39" t="s">
@@ -20223,7 +20315,7 @@
         <v>36</v>
       </c>
       <c r="B93" s="44" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="39" t="s">
@@ -20284,7 +20376,7 @@
         <v>37</v>
       </c>
       <c r="B95" s="44" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="39" t="s">
@@ -20345,7 +20437,7 @@
         <v>38</v>
       </c>
       <c r="B97" s="44" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="39" t="s">
@@ -20401,7 +20493,7 @@
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="31" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C99" s="35"/>
       <c r="D99" s="54"/>
@@ -20439,7 +20531,7 @@
         <v>39</v>
       </c>
       <c r="B101" s="44" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="39" t="s">
@@ -20500,7 +20592,7 @@
         <v>40</v>
       </c>
       <c r="B103" s="44" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="39" t="s">
@@ -20561,7 +20653,7 @@
         <v>41</v>
       </c>
       <c r="B105" s="44" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="39" t="s">
@@ -20622,7 +20714,7 @@
         <v>42</v>
       </c>
       <c r="B107" s="44" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="39" t="s">
@@ -20678,7 +20770,7 @@
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="31" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C109" s="35"/>
       <c r="D109" s="54"/>
@@ -20716,7 +20808,7 @@
         <v>43</v>
       </c>
       <c r="B111" s="44" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C111" s="19"/>
       <c r="D111" s="39" t="s">
@@ -20799,7 +20891,7 @@
         <v>44</v>
       </c>
       <c r="B113" s="44" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="C113" s="19"/>
       <c r="D113" s="39" t="s">
@@ -20882,7 +20974,7 @@
         <v>45</v>
       </c>
       <c r="B115" s="44" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="C115" s="19"/>
       <c r="D115" s="39" t="s">
@@ -20949,7 +21041,7 @@
     </row>
     <row r="117" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="63" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B117" s="64"/>
       <c r="C117" s="65"/>
@@ -31658,7 +31750,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{31A42298-49DE-4EEA-B7B1-65F154921D85}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{6729E0E7-42FD-4E8C-A7E5-D266B0248347}">
             <xm:f>"Enter score"</xm:f>
             <x14:dxf>
               <fill>
@@ -31694,7 +31786,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="103.58"/>
@@ -31704,7 +31796,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -31712,7 +31804,7 @@
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="60"/>
       <c r="C2" s="31" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31750,10 +31842,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="85" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="C4" s="86" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31762,10 +31854,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="85" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="C5" s="86" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31774,10 +31866,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="85" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="C6" s="86" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31786,10 +31878,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="85" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="C7" s="86" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31798,10 +31890,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="85" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C8" s="86" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31844,10 +31936,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="85" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="C11" s="86" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31856,10 +31948,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="85" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="C12" s="86" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31868,10 +31960,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="85" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="C13" s="86" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31914,10 +32006,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="85" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="C16" s="86" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31926,10 +32018,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="85" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="C17" s="86" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31938,10 +32030,10 @@
         <v>11</v>
       </c>
       <c r="B18" s="85" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="C18" s="86" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31950,10 +32042,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="85" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="C19" s="86" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31962,10 +32054,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="85" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="C20" s="86" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31974,10 +32066,10 @@
         <v>14</v>
       </c>
       <c r="B21" s="85" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="C21" s="86" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31986,10 +32078,10 @@
         <v>15</v>
       </c>
       <c r="B22" s="85" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="C22" s="86" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31998,10 +32090,10 @@
         <v>16</v>
       </c>
       <c r="B23" s="85" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="C23" s="86" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32010,10 +32102,10 @@
         <v>17</v>
       </c>
       <c r="B24" s="85" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="C24" s="86" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32056,10 +32148,10 @@
         <v>18</v>
       </c>
       <c r="B27" s="85" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="C27" s="86" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32068,10 +32160,10 @@
         <v>19</v>
       </c>
       <c r="B28" s="85" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="C28" s="86" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32080,10 +32172,10 @@
         <v>20</v>
       </c>
       <c r="B29" s="85" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="C29" s="86" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32092,10 +32184,10 @@
         <v>21</v>
       </c>
       <c r="B30" s="85" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="C30" s="86" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32138,10 +32230,10 @@
         <v>22</v>
       </c>
       <c r="B33" s="85" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="C33" s="86" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32150,10 +32242,10 @@
         <v>23</v>
       </c>
       <c r="B34" s="85" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="C34" s="86" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32162,10 +32254,10 @@
         <v>24</v>
       </c>
       <c r="B35" s="85" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="C35" s="86" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32208,10 +32300,10 @@
         <v>25</v>
       </c>
       <c r="B38" s="85" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="C38" s="86" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32220,10 +32312,10 @@
         <v>26</v>
       </c>
       <c r="B39" s="85" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="C39" s="86" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32232,10 +32324,10 @@
         <v>27</v>
       </c>
       <c r="B40" s="85" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="C40" s="86" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32244,10 +32336,10 @@
         <v>28</v>
       </c>
       <c r="B41" s="85" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="C41" s="86" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32256,10 +32348,10 @@
         <v>29</v>
       </c>
       <c r="B42" s="85" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="C42" s="86" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32302,10 +32394,10 @@
         <v>30</v>
       </c>
       <c r="B45" s="85" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="C45" s="86" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32314,10 +32406,10 @@
         <v>31</v>
       </c>
       <c r="B46" s="85" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="C46" s="86" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32326,10 +32418,10 @@
         <v>32</v>
       </c>
       <c r="B47" s="85" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="C47" s="86" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32338,10 +32430,10 @@
         <v>33</v>
       </c>
       <c r="B48" s="85" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C48" s="86" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32350,7 +32442,7 @@
     </row>
     <row r="50" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="83" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -32384,10 +32476,10 @@
         <v>34</v>
       </c>
       <c r="B51" s="85" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="C51" s="86" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32396,10 +32488,10 @@
         <v>35</v>
       </c>
       <c r="B52" s="85" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="C52" s="86" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32408,10 +32500,10 @@
         <v>36</v>
       </c>
       <c r="B53" s="85" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="C53" s="86" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32420,10 +32512,10 @@
         <v>37</v>
       </c>
       <c r="B54" s="85" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="C54" s="86" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32432,10 +32524,10 @@
         <v>38</v>
       </c>
       <c r="B55" s="85" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="C55" s="86" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32444,7 +32536,7 @@
     </row>
     <row r="57" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="83" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -32478,10 +32570,10 @@
         <v>39</v>
       </c>
       <c r="B58" s="85" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="C58" s="86" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32490,10 +32582,10 @@
         <v>40</v>
       </c>
       <c r="B59" s="85" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="C59" s="86" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32502,10 +32594,10 @@
         <v>41</v>
       </c>
       <c r="B60" s="85" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="C60" s="86" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32514,10 +32606,10 @@
         <v>42</v>
       </c>
       <c r="B61" s="85" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="C61" s="86" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32526,7 +32618,7 @@
     </row>
     <row r="63" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="83" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
@@ -32560,10 +32652,10 @@
         <v>43</v>
       </c>
       <c r="B64" s="85" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="C64" s="86" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32572,10 +32664,10 @@
         <v>44</v>
       </c>
       <c r="B65" s="85" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="C65" s="86" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32584,10 +32676,10 @@
         <v>45</v>
       </c>
       <c r="B66" s="85" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="C66" s="86" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36341,7 +36433,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{4929B6A5-3B7A-4381-99E9-8D9EE02732EE}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{728D4CDA-4372-4A74-B25F-38D4FFF588AB}">
             <xm:f>"Enter score"</xm:f>
             <x14:dxf>
               <fill>
@@ -36371,13 +36463,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.57"/>
@@ -36390,13 +36482,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="87" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="B1" s="87" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="C1" s="88" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="D1" s="88"/>
       <c r="E1" s="88"/>
@@ -36416,10 +36508,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="D3" s="91" t="n">
         <f aca="false">A4</f>
@@ -36434,14 +36526,14 @@
         <v>6</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="D4" s="91" t="n">
         <f aca="false">A4</f>
         <v>29</v>
       </c>
       <c r="E4" s="92" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="F4" s="91" t="n">
         <f aca="false">A5</f>
@@ -36456,14 +36548,14 @@
         <v>7</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="D5" s="91" t="n">
         <f aca="false">A5</f>
         <v>49</v>
       </c>
       <c r="E5" s="92" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="F5" s="91" t="n">
         <f aca="false">A6</f>
@@ -36478,14 +36570,14 @@
         <v>11</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="D6" s="91" t="n">
         <f aca="false">A6</f>
         <v>69</v>
       </c>
       <c r="E6" s="92" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="F6" s="91" t="n">
         <f aca="false">A7</f>
@@ -36500,7 +36592,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="D7" s="91" t="n">
         <f aca="false">A7</f>

--- a/P1/Usability-review-Lambus.xlsx
+++ b/P1/Usability-review-Lambus.xlsx
@@ -949,16 +949,16 @@
     <t xml:space="preserve">La estructura  de  la aplicación es clara, dando prioridad visualmente a los objetivos comunes del usuario como la creación de viajes,  gestión de gastos o planning.</t>
   </si>
   <si>
+    <t xml:space="preserve">El esquema de navegación (por ejemplo, el menú) es fácil de encontrar, intuitivo y consistente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El menú se mantiene fijo en la parte baja de la aplicación y es fácil de encontrar pero  el carecer de labels que indiquen la funcionalidad de sus botones hace que sea mucho menos intuitivo.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Los usuarios pueden volver fácilmente a la página de inicio o a un punto de inicio relevante.</t>
   </si>
   <si>
     <t xml:space="preserve">Generalmente se permite volver al inicio pulsando el botón correspondiente en el menú, pero hay determinados submenús que ocultan ese botón de inicio. De forma, que la vuelta al inicio en algunos casos no se muestra de forma directa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El esquema de navegación (por ejemplo, el menú) es fácil de encontrar, intuitivo y consistente.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El menú se mantiene fijo en la parte baja de la aplicación y es fácil de encontrar pero  el carecer de labels que indiquen la funcionalidad de sus botones hace que sea mucho menos intuitivo.</t>
   </si>
   <si>
     <t xml:space="preserve">La navegación tiene la flexibilidad suficiente para permitir que los usuarios naveguen por los medios deseados (por ejemplo, búsqueda, navegación por tipo, navegación por nombre, más reciente, etc.).</t>
@@ -1109,6 +1109,12 @@
     <t xml:space="preserve">La aplicación utiliza una tipografía clara y legible en color blanco sobre fondo negro (modo nocturno) o color negro sobre fondo blanco (modo diurno).</t>
   </si>
   <si>
+    <t xml:space="preserve">El contenido disponible (por ejemplo, texto, imágenes, video) es apropiado y suficientemente relevante, y detallado para cumplir con los objetivos del usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El contenido ofrecido en determinadas secciones de la aplicación está desequilibrado con respecto al contenido que se debería ofrecer en otras, es decir. Hay secciones que resultan muy pobre en cuanto a texto, descripciones o imágenes, mientras que otras secciones secundarias están más completas.</t>
+  </si>
+  <si>
     <t xml:space="preserve">El lenguaje, la terminología y el tono utilizados son apropiados y son fácilmente comprensibles para el público objetivo</t>
   </si>
   <si>
@@ -1121,12 +1127,6 @@
     <t xml:space="preserve">Hay una serie de términos definidos que se utilizan consistentemente en todas las partes de la aplicación (como viaje, paradas o actividades). La traducción al castellano es parcial, hay aspectos de la aplicación que no están traducidos (como importar un viaje)</t>
   </si>
   <si>
-    <t xml:space="preserve">El contenido disponible (por ejemplo, texto, imágenes, video) es apropiado y suficientemente relevante, y detallado para cumplir con los objetivos del usuario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El contenido ofrecido en determinadas secciones de la aplicación está desequilibrado con respecto al contenido que se debería ofrecer en otras, es decir. Hay secciones que resultan muy pobre en cuanto a texto, descripciones o imágenes, mientras que otras secciones secundarias están más completas.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Los enlaces a otros contenidos útiles y relevantes (por ejemplo, páginas relacionadas o sitios web externos) están disponibles y se muestran en contexto</t>
   </si>
   <si>
@@ -1136,16 +1136,16 @@
     <t xml:space="preserve">Help</t>
   </si>
   <si>
+    <t xml:space="preserve">Se proporciona ayuda en línea y contextual y es adecuada para la base de usuarios (por ejemplo, está escrita en un lenguaje fácil de entender y solo usa términos reconocidos). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación proporciona un chat en línea con atención al cliente, además de una sección de preguntas frecuentemente realizadas. No obstante, no ofrece un apartado de ayuda en cada contexto de la aplicación, sólo uno general en los ajustes.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Los usuarios pueden obtener más ayuda fácilmente (por ejemplo, teléfono o dirección de correo electrónico)</t>
   </si>
   <si>
     <t xml:space="preserve">El servicio de atención al cliente por el chat online es poco eficiente (se tarda en responder), aunque sí se aporta un correo electrónico de contacto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se proporciona ayuda en línea y contextual y es adecuada para la base de usuarios (por ejemplo, está escrita en un lenguaje fácil de entender y solo usa términos reconocidos). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación proporciona un chat en línea con atención al cliente, además de una sección de preguntas frecuentemente realizadas. No obstante, no ofrece un apartado de ayuda en cada contexto de la aplicación, sólo uno general en los ajustes.</t>
   </si>
   <si>
     <t xml:space="preserve">La ayuda en línea es concisa, fácil de leer y escrita en un lenguaje fácil de entender</t>
@@ -3056,20 +3056,20 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -3372,8 +3372,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B108" activeCellId="0" sqref="B108"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A95" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V111" activeCellId="0" sqref="V111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3659,15 +3659,28 @@
       <c r="K9" s="41" t="n">
         <v>5</v>
       </c>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="8"/>
+      <c r="L9" s="42" t="n">
+        <f aca="false">K9/K117</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="43" t="n">
+        <f aca="false">VLOOKUP(D9,Q1:R9,2,FALSE())</f>
+        <v>5</v>
+      </c>
+      <c r="N9" s="43" t="n">
+        <f aca="false">M9*L9</f>
+        <v>5</v>
+      </c>
+      <c r="O9" s="43" t="n">
+        <f aca="false">IF(M9=0,0,L9*MAX(R2:R8))</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="37"/>
-      <c r="B10" s="42"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="43"/>
+      <c r="D10" s="45"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -3675,10 +3688,10 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="41"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
       <c r="P10" s="46"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
@@ -3714,23 +3727,23 @@
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="41" t="n">
+        <v>4</v>
+      </c>
+      <c r="L11" s="42" t="n">
+        <f aca="false">K11/K117</f>
+        <v>0.8</v>
+      </c>
+      <c r="M11" s="43" t="n">
+        <f aca="false">VLOOKUP(D11,Q1:R9,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="L11" s="44" t="n">
-        <f aca="false">K11/K117</f>
-        <v>1</v>
-      </c>
-      <c r="M11" s="45" t="n">
-        <f aca="false">VLOOKUP(D9,Q1:R9,2,FALSE())</f>
-        <v>5</v>
-      </c>
-      <c r="N11" s="45" t="n">
+      <c r="N11" s="43" t="n">
         <f aca="false">M11*L11</f>
-        <v>5</v>
-      </c>
-      <c r="O11" s="45" t="n">
+        <v>4</v>
+      </c>
+      <c r="O11" s="43" t="n">
         <f aca="false">IF(M11=0,0,L11*MAX(R2:R8))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P11" s="46"/>
       <c r="S11" s="8"/>
@@ -3740,9 +3753,9 @@
     </row>
     <row r="12" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="37"/>
-      <c r="B12" s="42"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="43"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -3750,10 +3763,10 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="41"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
@@ -3789,23 +3802,23 @@
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="L13" s="42" t="n">
+        <f aca="false">K13/K117</f>
+        <v>1</v>
+      </c>
+      <c r="M13" s="43" t="n">
+        <f aca="false">VLOOKUP(D13,Q1:R9,2,FALSE())</f>
         <v>4</v>
       </c>
-      <c r="L13" s="44" t="n">
-        <f aca="false">K13/K117</f>
-        <v>0.8</v>
-      </c>
-      <c r="M13" s="45" t="n">
-        <f aca="false">VLOOKUP(D11,Q1:R9,2,FALSE())</f>
-        <v>5</v>
-      </c>
-      <c r="N13" s="45" t="n">
+      <c r="N13" s="43" t="n">
         <f aca="false">M13*L13</f>
         <v>4</v>
       </c>
-      <c r="O13" s="45" t="n">
+      <c r="O13" s="43" t="n">
         <f aca="false">IF(M13=0,0,L13*MAX(R2:R8))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
@@ -3817,9 +3830,9 @@
     </row>
     <row r="14" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="37"/>
-      <c r="B14" s="42"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="43"/>
+      <c r="D14" s="45"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -3827,11 +3840,11 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="41"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="S14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="S14" s="44"/>
     </row>
     <row r="15" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="37" t="n">
@@ -3866,11 +3879,11 @@
         <f aca="false">K15/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M15" s="45" t="n">
+      <c r="M15" s="43" t="n">
         <f aca="false">VLOOKUP(D15,Q1:R9,2,FALSE())</f>
         <v>2</v>
       </c>
-      <c r="N15" s="45" t="n">
+      <c r="N15" s="43" t="n">
         <f aca="false">M15*L15</f>
         <v>1.2</v>
       </c>
@@ -3884,9 +3897,9 @@
     </row>
     <row r="16" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="37"/>
-      <c r="B16" s="42"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="43"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -3894,11 +3907,11 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="41"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="S16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="S16" s="44"/>
       <c r="T16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3930,29 +3943,29 @@
       <c r="K17" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L17" s="44" t="n">
+      <c r="L17" s="42" t="n">
         <f aca="false">K17/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M17" s="45" t="n">
+      <c r="M17" s="43" t="n">
         <f aca="false">VLOOKUP(D17,Q1:R9,2,FALSE())</f>
         <v>2</v>
       </c>
-      <c r="N17" s="45" t="n">
+      <c r="N17" s="43" t="n">
         <f aca="false">M17*L17</f>
         <v>1.2</v>
       </c>
-      <c r="O17" s="45" t="n">
+      <c r="O17" s="43" t="n">
         <f aca="false">IF(M17=0,0,L17*MAX(R2:R8))</f>
         <v>3</v>
       </c>
-      <c r="S17" s="42"/>
+      <c r="S17" s="44"/>
       <c r="T17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="51"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="43"/>
+      <c r="D18" s="45"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -3960,11 +3973,11 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="41"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="S18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="S18" s="44"/>
       <c r="T18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3972,7 +3985,7 @@
         <v>29</v>
       </c>
       <c r="C19" s="35"/>
-      <c r="D19" s="43"/>
+      <c r="D19" s="45"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -3980,15 +3993,15 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="41"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="52"/>
       <c r="C20" s="35"/>
-      <c r="D20" s="43"/>
+      <c r="D20" s="45"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -3996,10 +4009,10 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="41"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
     </row>
     <row r="21" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="37" t="n">
@@ -4024,12 +4037,28 @@
       <c r="K21" s="41" t="n">
         <v>3</v>
       </c>
+      <c r="L21" s="42" t="n">
+        <f aca="false">K21/K117</f>
+        <v>0.6</v>
+      </c>
+      <c r="M21" s="43" t="n">
+        <f aca="false">VLOOKUP(D21,Q1:R9,2,FALSE())</f>
+        <v>5</v>
+      </c>
+      <c r="N21" s="43" t="n">
+        <f aca="false">M21*L21</f>
+        <v>3</v>
+      </c>
+      <c r="O21" s="43" t="n">
+        <f aca="false">IF(M21=0,0,L21*MAX(R2:R8))</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="37"/>
-      <c r="B22" s="42"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="43"/>
+      <c r="D22" s="45"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -4038,12 +4067,12 @@
       <c r="J22" s="5"/>
       <c r="K22" s="48"/>
       <c r="L22" s="49"/>
-      <c r="M22" s="45"/>
+      <c r="M22" s="43"/>
       <c r="N22" s="53"/>
       <c r="O22" s="53"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="42"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
     </row>
     <row r="23" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="37" t="n">
@@ -4072,32 +4101,32 @@
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="41" t="n">
-        <v>4</v>
-      </c>
-      <c r="L23" s="44" t="n">
+        <v>3</v>
+      </c>
+      <c r="L23" s="42" t="n">
         <f aca="false">K23/K117</f>
-        <v>0.8</v>
-      </c>
-      <c r="M23" s="45" t="n">
-        <f aca="false">VLOOKUP(D25,Q1:R9,2,FALSE())</f>
-        <v>2</v>
-      </c>
-      <c r="N23" s="45" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M23" s="43" t="n">
+        <f aca="false">VLOOKUP(D23,Q1:R9,2,FALSE())</f>
+        <v>3</v>
+      </c>
+      <c r="N23" s="43" t="n">
         <f aca="false">M23*L23</f>
-        <v>1.6</v>
-      </c>
-      <c r="O23" s="45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O23" s="43" t="n">
         <f aca="false">IF(M23=0,0,L23*MAX(R2:R8))</f>
-        <v>4</v>
-      </c>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
+        <v>3</v>
+      </c>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
     </row>
     <row r="24" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="37"/>
-      <c r="B24" s="42"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="43"/>
+      <c r="D24" s="45"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -4105,12 +4134,12 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="41"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
     </row>
     <row r="25" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="37" t="n">
@@ -4139,31 +4168,31 @@
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="41" t="n">
-        <v>3</v>
-      </c>
-      <c r="L25" s="44" t="n">
+        <v>4</v>
+      </c>
+      <c r="L25" s="42" t="n">
         <f aca="false">K25/K117</f>
-        <v>0.6</v>
-      </c>
-      <c r="M25" s="45" t="n">
-        <f aca="false">VLOOKUP(D21,Q1:R9,2,FALSE())</f>
-        <v>5</v>
-      </c>
-      <c r="N25" s="45" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M25" s="43" t="n">
+        <f aca="false">VLOOKUP(D25,Q1:R9,2,FALSE())</f>
+        <v>2</v>
+      </c>
+      <c r="N25" s="43" t="n">
         <f aca="false">M25*L25</f>
-        <v>3</v>
-      </c>
-      <c r="O25" s="45" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O25" s="43" t="n">
         <f aca="false">IF(M25=0,0,L25*MAX(R2:R8))</f>
-        <v>3</v>
-      </c>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
+        <v>4</v>
+      </c>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
     </row>
     <row r="26" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="51"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="43"/>
+      <c r="D26" s="45"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -4171,13 +4200,13 @@
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="41"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="31" t="s">
@@ -4192,13 +4221,13 @@
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="41"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="52"/>
@@ -4211,13 +4240,13 @@
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="41"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
     </row>
     <row r="29" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="37" t="n">
@@ -4248,31 +4277,31 @@
       <c r="K29" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="L29" s="44" t="n">
+      <c r="L29" s="42" t="n">
         <f aca="false">K29/K117</f>
         <v>0.4</v>
       </c>
-      <c r="M29" s="45" t="n">
+      <c r="M29" s="43" t="n">
         <f aca="false">VLOOKUP(D29,Q1:R9,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="N29" s="45" t="n">
+      <c r="N29" s="43" t="n">
         <f aca="false">M29*L29</f>
         <v>2</v>
       </c>
-      <c r="O29" s="45" t="n">
+      <c r="O29" s="43" t="n">
         <f aca="false">IF(M29=0,0,L29*MAX(R2:R8))</f>
         <v>2</v>
       </c>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="42"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
     </row>
     <row r="30" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="37"/>
-      <c r="B30" s="42"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="43"/>
+      <c r="D30" s="45"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -4281,7 +4310,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="48"/>
       <c r="L30" s="49"/>
-      <c r="M30" s="45"/>
+      <c r="M30" s="43"/>
       <c r="N30" s="55"/>
       <c r="O30" s="53"/>
       <c r="P30" s="13"/>
@@ -4316,14 +4345,30 @@
       </c>
       <c r="J31" s="5"/>
       <c r="K31" s="41" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="L31" s="42" t="n">
+        <f aca="false">K31/K117</f>
+        <v>1</v>
+      </c>
+      <c r="M31" s="43" t="n">
+        <f aca="false">VLOOKUP(D31,Q1:R9,2,FALSE())</f>
+        <v>5</v>
+      </c>
+      <c r="N31" s="43" t="n">
+        <f aca="false">M31*L31</f>
+        <v>5</v>
+      </c>
+      <c r="O31" s="43" t="n">
+        <f aca="false">IF(M31=0,0,L31*MAX(R2:R8))</f>
+        <v>5</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="37"/>
-      <c r="B32" s="42"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="43"/>
+      <c r="D32" s="45"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
@@ -4331,10 +4376,10 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="41"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
     </row>
     <row r="33" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="37" t="n">
@@ -4363,14 +4408,30 @@
       </c>
       <c r="J33" s="5"/>
       <c r="K33" s="41" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="L33" s="42" t="n">
+        <f aca="false">K33/K117</f>
+        <v>0.8</v>
+      </c>
+      <c r="M33" s="43" t="n">
+        <f aca="false">VLOOKUP(D33,Q1:R9,2,FALSE())</f>
+        <v>4</v>
+      </c>
+      <c r="N33" s="43" t="n">
+        <f aca="false">M33*L33</f>
+        <v>3.2</v>
+      </c>
+      <c r="O33" s="43" t="n">
+        <f aca="false">IF(M33=0,0,L33*MAX(R2:R8))</f>
+        <v>4</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="37"/>
-      <c r="B34" s="42"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="43"/>
+      <c r="D34" s="45"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -4378,10 +4439,10 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="41"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
     </row>
     <row r="35" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="37" t="n">
@@ -4410,30 +4471,30 @@
       </c>
       <c r="J35" s="5"/>
       <c r="K35" s="41" t="n">
-        <v>5</v>
-      </c>
-      <c r="L35" s="44" t="n">
+        <v>2</v>
+      </c>
+      <c r="L35" s="42" t="n">
         <f aca="false">K35/K117</f>
-        <v>1</v>
-      </c>
-      <c r="M35" s="45" t="n">
-        <f aca="false">VLOOKUP(D31,Q1:R9,2,FALSE())</f>
-        <v>5</v>
-      </c>
-      <c r="N35" s="45" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M35" s="43" t="n">
+        <f aca="false">VLOOKUP(D35,Q1:R9,2,FALSE())</f>
+        <v>4</v>
+      </c>
+      <c r="N35" s="43" t="n">
         <f aca="false">M35*L35</f>
-        <v>5</v>
-      </c>
-      <c r="O35" s="45" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O35" s="43" t="n">
         <f aca="false">IF(M35=0,0,L35*MAX(R2:R8))</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="37"/>
-      <c r="B36" s="42"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="43"/>
+      <c r="D36" s="45"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -4441,10 +4502,10 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="41"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
     </row>
     <row r="37" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="37" t="n">
@@ -4469,28 +4530,28 @@
       <c r="K37" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L37" s="44" t="n">
+      <c r="L37" s="42" t="n">
         <f aca="false">K37/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M37" s="45" t="n">
-        <f aca="false">VLOOKUP(D43,Q1:R9,2,FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="N37" s="45" t="n">
+      <c r="M37" s="43" t="n">
+        <f aca="false">VLOOKUP(D37,Q1:R9,2,FALSE())</f>
+        <v>3</v>
+      </c>
+      <c r="N37" s="43" t="n">
         <f aca="false">M37*L37</f>
-        <v>0</v>
-      </c>
-      <c r="O37" s="45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O37" s="43" t="n">
         <f aca="false">IF(M37=0,0,L37*MAX(R2:R8))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="37"/>
-      <c r="B38" s="42"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="43"/>
+      <c r="D38" s="45"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
@@ -4498,10 +4559,10 @@
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="41"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="45"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
     </row>
     <row r="39" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="37" t="n">
@@ -4530,33 +4591,30 @@
       </c>
       <c r="J39" s="5"/>
       <c r="K39" s="41" t="n">
-        <v>4</v>
-      </c>
-      <c r="L39" s="44" t="n">
+        <v>2</v>
+      </c>
+      <c r="L39" s="42" t="n">
         <f aca="false">K39/K117</f>
+        <v>0.4</v>
+      </c>
+      <c r="M39" s="43" t="n">
+        <f aca="false">VLOOKUP(D39,Q1:R9,2,FALSE())</f>
+        <v>2</v>
+      </c>
+      <c r="N39" s="43" t="n">
+        <f aca="false">M39*L39</f>
         <v>0.8</v>
       </c>
-      <c r="M39" s="45" t="n">
-        <f aca="false">VLOOKUP(D41,Q1:R9,2,FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="N39" s="45" t="n">
-        <f aca="false">M39*L39</f>
-        <v>0</v>
-      </c>
-      <c r="O39" s="45" t="n">
+      <c r="O39" s="43" t="n">
         <f aca="false">IF(M39=0,0,L39*MAX(R2:R8))</f>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="42"/>
-      <c r="R39" s="42"/>
-      <c r="S39" s="42"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="37"/>
-      <c r="B40" s="42"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="43"/>
+      <c r="D40" s="45"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
@@ -4565,7 +4623,7 @@
       <c r="J40" s="5"/>
       <c r="K40" s="48"/>
       <c r="L40" s="49"/>
-      <c r="M40" s="45"/>
+      <c r="M40" s="43"/>
       <c r="N40" s="55"/>
       <c r="O40" s="53"/>
       <c r="P40" s="13"/>
@@ -4599,12 +4657,31 @@
         <v>50</v>
       </c>
       <c r="J41" s="5"/>
+      <c r="K41" s="41" t="n">
+        <v>4</v>
+      </c>
+      <c r="L41" s="42" t="n">
+        <f aca="false">K41/K117</f>
+        <v>0.8</v>
+      </c>
+      <c r="M41" s="43" t="n">
+        <f aca="false">VLOOKUP(D41,Q1:R9,2,FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="43" t="n">
+        <f aca="false">M41*L41</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="43" t="n">
+        <f aca="false">IF(M41=0,0,L41*MAX(R2:R8))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="37"/>
-      <c r="B42" s="42"/>
+      <c r="B42" s="44"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="43"/>
+      <c r="D42" s="45"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
@@ -4612,10 +4689,10 @@
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="41"/>
-      <c r="L42" s="44"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="43"/>
     </row>
     <row r="43" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="37" t="n">
@@ -4644,30 +4721,30 @@
       </c>
       <c r="J43" s="5"/>
       <c r="K43" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="L43" s="44" t="n">
+        <v>3</v>
+      </c>
+      <c r="L43" s="42" t="n">
         <f aca="false">K43/K117</f>
-        <v>0.4</v>
-      </c>
-      <c r="M43" s="45" t="n">
-        <f aca="false">VLOOKUP(D33,Q1:R9,2,FALSE())</f>
-        <v>4</v>
-      </c>
-      <c r="N43" s="45" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M43" s="43" t="n">
+        <f aca="false">VLOOKUP(D43,Q1:R9,2,FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="43" t="n">
         <f aca="false">M43*L43</f>
-        <v>1.6</v>
-      </c>
-      <c r="O43" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" s="43" t="n">
         <f aca="false">IF(M43=0,0,L43*MAX(R2:R8))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="37"/>
-      <c r="B44" s="42"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="43"/>
+      <c r="D44" s="45"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -4675,10 +4752,10 @@
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="41"/>
-      <c r="L44" s="44"/>
-      <c r="M44" s="45"/>
-      <c r="N44" s="45"/>
-      <c r="O44" s="45"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="43"/>
     </row>
     <row r="45" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="37" t="n">
@@ -4709,19 +4786,19 @@
       <c r="K45" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="L45" s="44" t="n">
+      <c r="L45" s="42" t="n">
         <f aca="false">K45/K117</f>
         <v>0.2</v>
       </c>
-      <c r="M45" s="45" t="n">
+      <c r="M45" s="43" t="n">
         <f aca="false">VLOOKUP(D45,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N45" s="45" t="n">
+      <c r="N45" s="43" t="n">
         <f aca="false">M45*L45</f>
         <v>0</v>
       </c>
-      <c r="O45" s="45" t="n">
+      <c r="O45" s="43" t="n">
         <f aca="false">IF(M45=0,0,L45*MAX(R2:R8))</f>
         <v>0</v>
       </c>
@@ -4729,7 +4806,7 @@
     <row r="46" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="51"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="43"/>
+      <c r="D46" s="45"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -4737,10 +4814,10 @@
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="41"/>
-      <c r="L46" s="44"/>
-      <c r="M46" s="45"/>
-      <c r="N46" s="45"/>
-      <c r="O46" s="45"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="43"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="31" t="s">
@@ -4755,10 +4832,10 @@
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="41"/>
-      <c r="L47" s="44"/>
-      <c r="M47" s="45"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="45"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="43"/>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="52"/>
@@ -4771,10 +4848,10 @@
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="41"/>
-      <c r="L48" s="44"/>
-      <c r="M48" s="45"/>
-      <c r="N48" s="45"/>
-      <c r="O48" s="45"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="43"/>
     </row>
     <row r="49" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="37" t="n">
@@ -4802,12 +4879,31 @@
         <v>57</v>
       </c>
       <c r="J49" s="5"/>
+      <c r="K49" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="L49" s="42" t="n">
+        <f aca="false">K49/K117</f>
+        <v>0.4</v>
+      </c>
+      <c r="M49" s="43" t="n">
+        <f aca="false">VLOOKUP(D49,Q1:R9,2,FALSE())</f>
+        <v>4</v>
+      </c>
+      <c r="N49" s="43" t="n">
+        <f aca="false">M49*L49</f>
+        <v>1.6</v>
+      </c>
+      <c r="O49" s="43" t="n">
+        <f aca="false">IF(M49=0,0,L49*MAX(R2:R8))</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="37"/>
-      <c r="B50" s="42"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="43"/>
+      <c r="D50" s="45"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
@@ -4815,10 +4911,10 @@
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="41"/>
-      <c r="L50" s="44"/>
-      <c r="M50" s="45"/>
-      <c r="N50" s="45"/>
-      <c r="O50" s="45"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="43"/>
     </row>
     <row r="51" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="37" t="n">
@@ -4849,28 +4945,28 @@
       <c r="K51" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="L51" s="44" t="n">
+      <c r="L51" s="42" t="n">
         <f aca="false">K51/K117</f>
         <v>0.8</v>
       </c>
-      <c r="M51" s="45" t="n">
+      <c r="M51" s="43" t="n">
         <f aca="false">VLOOKUP(D51,Q1:R9,2,FALSE())</f>
         <v>3</v>
       </c>
-      <c r="N51" s="45" t="n">
+      <c r="N51" s="43" t="n">
         <f aca="false">M51*L51</f>
         <v>2.4</v>
       </c>
-      <c r="O51" s="45" t="n">
+      <c r="O51" s="43" t="n">
         <f aca="false">IF(M51=0,0,L51*MAX(R2:R8))</f>
         <v>4</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="37"/>
-      <c r="B52" s="42"/>
+      <c r="B52" s="44"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="43"/>
+      <c r="D52" s="45"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
@@ -4878,10 +4974,10 @@
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="41"/>
-      <c r="L52" s="44"/>
-      <c r="M52" s="45"/>
-      <c r="N52" s="45"/>
-      <c r="O52" s="45"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="43"/>
     </row>
     <row r="53" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="37" t="n">
@@ -4910,30 +5006,30 @@
       </c>
       <c r="J53" s="5"/>
       <c r="K53" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="L53" s="44" t="n">
+        <v>4</v>
+      </c>
+      <c r="L53" s="42" t="n">
         <f aca="false">K53/K117</f>
-        <v>0.4</v>
-      </c>
-      <c r="M53" s="45" t="n">
-        <f aca="false">VLOOKUP(D49,Q1:R9,2,FALSE())</f>
+        <v>0.8</v>
+      </c>
+      <c r="M53" s="43" t="n">
+        <f aca="false">VLOOKUP(D53,Q1:R9,2,FALSE())</f>
+        <v>3</v>
+      </c>
+      <c r="N53" s="43" t="n">
+        <f aca="false">M53*L53</f>
+        <v>2.4</v>
+      </c>
+      <c r="O53" s="43" t="n">
+        <f aca="false">IF(M53=0,0,L53*MAX(R2:R8))</f>
         <v>4</v>
-      </c>
-      <c r="N53" s="45" t="n">
-        <f aca="false">M53*L53</f>
-        <v>1.6</v>
-      </c>
-      <c r="O53" s="45" t="n">
-        <f aca="false">IF(M53=0,0,L53*MAX(R2:R8))</f>
-        <v>2</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="37"/>
-      <c r="B54" s="42"/>
+      <c r="B54" s="44"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="43"/>
+      <c r="D54" s="45"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
@@ -4941,10 +5037,10 @@
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="41"/>
-      <c r="L54" s="44"/>
-      <c r="M54" s="45"/>
-      <c r="N54" s="45"/>
-      <c r="O54" s="45"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="43"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="43"/>
     </row>
     <row r="55" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="37" t="n">
@@ -4975,19 +5071,19 @@
       <c r="K55" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="L55" s="44" t="n">
+      <c r="L55" s="42" t="n">
         <f aca="false">K55/K117</f>
         <v>0.8</v>
       </c>
-      <c r="M55" s="45" t="n">
-        <f aca="false">VLOOKUP(D53,Q1:R9,2,FALSE())</f>
-        <v>3</v>
-      </c>
-      <c r="N55" s="45" t="n">
+      <c r="M55" s="43" t="n">
+        <f aca="false">VLOOKUP(D55,Q1:R9,2,FALSE())</f>
+        <v>2</v>
+      </c>
+      <c r="N55" s="43" t="n">
         <f aca="false">M55*L55</f>
-        <v>2.4</v>
-      </c>
-      <c r="O55" s="45" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O55" s="43" t="n">
         <f aca="false">IF(M55=0,0,L55*MAX(R2:R8))</f>
         <v>4</v>
       </c>
@@ -4995,7 +5091,7 @@
     <row r="56" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="51"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="43"/>
+      <c r="D56" s="45"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
@@ -5003,10 +5099,10 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="41"/>
-      <c r="L56" s="44"/>
-      <c r="M56" s="45"/>
-      <c r="N56" s="45"/>
-      <c r="O56" s="45"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="43"/>
+      <c r="N56" s="43"/>
+      <c r="O56" s="43"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="31" t="s">
@@ -5021,10 +5117,10 @@
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="41"/>
-      <c r="L57" s="44"/>
-      <c r="M57" s="45"/>
-      <c r="N57" s="45"/>
-      <c r="O57" s="45"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="43"/>
+      <c r="O57" s="43"/>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="52"/>
@@ -5037,10 +5133,10 @@
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="41"/>
-      <c r="L58" s="44"/>
-      <c r="M58" s="45"/>
-      <c r="N58" s="45"/>
-      <c r="O58" s="45"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="43"/>
+      <c r="N58" s="43"/>
+      <c r="O58" s="43"/>
     </row>
     <row r="59" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="37" t="n">
@@ -5069,14 +5165,30 @@
       </c>
       <c r="J59" s="5"/>
       <c r="K59" s="41" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="L59" s="42" t="n">
+        <f aca="false">K59/K117</f>
+        <v>0.2</v>
+      </c>
+      <c r="M59" s="43" t="n">
+        <f aca="false">VLOOKUP(D59,Q1:R9,2,FALSE())</f>
+        <v>3</v>
+      </c>
+      <c r="N59" s="43" t="n">
+        <f aca="false">M59*L59</f>
+        <v>0.6</v>
+      </c>
+      <c r="O59" s="43" t="n">
+        <f aca="false">IF(M59=0,0,L59*MAX(R2:R8))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="37"/>
-      <c r="B60" s="42"/>
+      <c r="B60" s="44"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="43"/>
+      <c r="D60" s="45"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -5084,10 +5196,10 @@
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="41"/>
-      <c r="L60" s="44"/>
-      <c r="M60" s="45"/>
-      <c r="N60" s="45"/>
-      <c r="O60" s="45"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="43"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="43"/>
     </row>
     <row r="61" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="37" t="n">
@@ -5118,28 +5230,28 @@
       <c r="K61" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L61" s="44" t="n">
+      <c r="L61" s="42" t="n">
         <f aca="false">K61/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M61" s="45" t="n">
+      <c r="M61" s="43" t="n">
         <f aca="false">VLOOKUP(D61,Q1:R9,2,FALSE())</f>
         <v>1</v>
       </c>
-      <c r="N61" s="45" t="n">
+      <c r="N61" s="43" t="n">
         <f aca="false">M61*L61</f>
         <v>0.6</v>
       </c>
-      <c r="O61" s="45" t="n">
+      <c r="O61" s="43" t="n">
         <f aca="false">IF(M61=0,0,L61*MAX(R2:R8))</f>
         <v>3</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="37"/>
-      <c r="B62" s="42"/>
+      <c r="B62" s="44"/>
       <c r="C62" s="5"/>
-      <c r="D62" s="43"/>
+      <c r="D62" s="45"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
@@ -5147,10 +5259,10 @@
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="41"/>
-      <c r="L62" s="44"/>
-      <c r="M62" s="45"/>
-      <c r="N62" s="45"/>
-      <c r="O62" s="45"/>
+      <c r="L62" s="42"/>
+      <c r="M62" s="43"/>
+      <c r="N62" s="43"/>
+      <c r="O62" s="43"/>
     </row>
     <row r="63" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="37" t="n">
@@ -5179,29 +5291,29 @@
       </c>
       <c r="J63" s="5"/>
       <c r="K63" s="41" t="n">
+        <v>4</v>
+      </c>
+      <c r="L63" s="42" t="n">
+        <f aca="false">K63/K117</f>
+        <v>0.8</v>
+      </c>
+      <c r="M63" s="43" t="n">
+        <f aca="false">VLOOKUP(D63,Q1:R9,2,FALSE())</f>
         <v>1</v>
       </c>
-      <c r="L63" s="44" t="n">
-        <f aca="false">K63/K117</f>
-        <v>0.2</v>
-      </c>
-      <c r="M63" s="45" t="n">
-        <f aca="false">VLOOKUP(D59,Q1:R9,2,FALSE())</f>
-        <v>3</v>
-      </c>
-      <c r="N63" s="45" t="n">
+      <c r="N63" s="43" t="n">
         <f aca="false">M63*L63</f>
-        <v>0.6</v>
-      </c>
-      <c r="O63" s="45" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O63" s="43" t="n">
         <f aca="false">IF(M63=0,0,L63*MAX(R2:R8))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="26"/>
       <c r="C64" s="5"/>
-      <c r="D64" s="43"/>
+      <c r="D64" s="45"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
@@ -5209,10 +5321,10 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="41"/>
-      <c r="L64" s="44"/>
-      <c r="M64" s="45"/>
-      <c r="N64" s="45"/>
-      <c r="O64" s="45"/>
+      <c r="L64" s="42"/>
+      <c r="M64" s="43"/>
+      <c r="N64" s="43"/>
+      <c r="O64" s="43"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="31" t="s">
@@ -5227,10 +5339,10 @@
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="41"/>
-      <c r="L65" s="44"/>
-      <c r="M65" s="45"/>
-      <c r="N65" s="45"/>
-      <c r="O65" s="45"/>
+      <c r="L65" s="42"/>
+      <c r="M65" s="43"/>
+      <c r="N65" s="43"/>
+      <c r="O65" s="43"/>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="52"/>
@@ -5243,10 +5355,10 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="41"/>
-      <c r="L66" s="44"/>
-      <c r="M66" s="45"/>
-      <c r="N66" s="45"/>
-      <c r="O66" s="45"/>
+      <c r="L66" s="42"/>
+      <c r="M66" s="43"/>
+      <c r="N66" s="43"/>
+      <c r="O66" s="43"/>
     </row>
     <row r="67" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="37" t="n">
@@ -5277,28 +5389,28 @@
       <c r="K67" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L67" s="44" t="n">
+      <c r="L67" s="42" t="n">
         <f aca="false">K67/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M67" s="45" t="n">
-        <f aca="false">VLOOKUP(D69,Q1:R9,2,FALSE())</f>
-        <v>4</v>
-      </c>
-      <c r="N67" s="45" t="n">
+      <c r="M67" s="43" t="n">
+        <f aca="false">VLOOKUP(D67,Q1:R9,2,FALSE())</f>
+        <v>5</v>
+      </c>
+      <c r="N67" s="43" t="n">
         <f aca="false">M67*L67</f>
-        <v>2.4</v>
-      </c>
-      <c r="O67" s="45" t="n">
+        <v>3</v>
+      </c>
+      <c r="O67" s="43" t="n">
         <f aca="false">IF(M67=0,0,L67*MAX(R2:R8))</f>
         <v>3</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="37"/>
-      <c r="B68" s="42"/>
+      <c r="B68" s="44"/>
       <c r="C68" s="5"/>
-      <c r="D68" s="43"/>
+      <c r="D68" s="45"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
@@ -5306,10 +5418,10 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="41"/>
-      <c r="L68" s="44"/>
-      <c r="M68" s="45"/>
-      <c r="N68" s="45"/>
-      <c r="O68" s="45"/>
+      <c r="L68" s="42"/>
+      <c r="M68" s="43"/>
+      <c r="N68" s="43"/>
+      <c r="O68" s="43"/>
     </row>
     <row r="69" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="37" t="n">
@@ -5338,18 +5450,30 @@
       </c>
       <c r="J69" s="5"/>
       <c r="K69" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="L69" s="44" t="n">
+        <v>3</v>
+      </c>
+      <c r="L69" s="42" t="n">
         <f aca="false">K69/K117</f>
-        <v>0.4</v>
+        <v>0.6</v>
+      </c>
+      <c r="M69" s="43" t="n">
+        <f aca="false">VLOOKUP(D69,Q1:R9,2,FALSE())</f>
+        <v>4</v>
+      </c>
+      <c r="N69" s="43" t="n">
+        <f aca="false">M69*L69</f>
+        <v>2.4</v>
+      </c>
+      <c r="O69" s="43" t="n">
+        <f aca="false">IF(M69=0,0,L69*MAX(R2:R8))</f>
+        <v>3</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="37"/>
-      <c r="B70" s="42"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="5"/>
-      <c r="D70" s="43"/>
+      <c r="D70" s="45"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
@@ -5357,10 +5481,10 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="41"/>
-      <c r="L70" s="44"/>
-      <c r="M70" s="45"/>
-      <c r="N70" s="45"/>
-      <c r="O70" s="45"/>
+      <c r="L70" s="42"/>
+      <c r="M70" s="43"/>
+      <c r="N70" s="43"/>
+      <c r="O70" s="43"/>
     </row>
     <row r="71" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="37" t="n">
@@ -5389,30 +5513,30 @@
       </c>
       <c r="J71" s="5"/>
       <c r="K71" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="L71" s="44" t="n">
+        <v>3</v>
+      </c>
+      <c r="L71" s="42" t="n">
         <f aca="false">K71/K117</f>
-        <v>0.4</v>
-      </c>
-      <c r="M71" s="45" t="n">
-        <f aca="false">VLOOKUP(D73,Q1:R9,2,FALSE())</f>
-        <v>2</v>
-      </c>
-      <c r="N71" s="45" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M71" s="43" t="n">
+        <f aca="false">VLOOKUP(D71,Q1:R9,2,FALSE())</f>
+        <v>3</v>
+      </c>
+      <c r="N71" s="43" t="n">
         <f aca="false">M71*L71</f>
-        <v>0.8</v>
-      </c>
-      <c r="O71" s="45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O71" s="43" t="n">
         <f aca="false">IF(M71=0,0,L71*MAX(R2:R8))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="37"/>
-      <c r="B72" s="42"/>
+      <c r="B72" s="44"/>
       <c r="C72" s="5"/>
-      <c r="D72" s="43"/>
+      <c r="D72" s="45"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
@@ -5420,10 +5544,10 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="41"/>
-      <c r="L72" s="44"/>
-      <c r="M72" s="45"/>
-      <c r="N72" s="45"/>
-      <c r="O72" s="45"/>
+      <c r="L72" s="42"/>
+      <c r="M72" s="43"/>
+      <c r="N72" s="43"/>
+      <c r="O72" s="43"/>
     </row>
     <row r="73" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="37" t="n">
@@ -5452,30 +5576,30 @@
       </c>
       <c r="J73" s="5"/>
       <c r="K73" s="41" t="n">
-        <v>3</v>
-      </c>
-      <c r="L73" s="44" t="n">
+        <v>2</v>
+      </c>
+      <c r="L73" s="42" t="n">
         <f aca="false">K73/K117</f>
-        <v>0.6</v>
-      </c>
-      <c r="M73" s="45" t="n">
-        <f aca="false">VLOOKUP(D67,Q1:R9,2,FALSE())</f>
-        <v>5</v>
-      </c>
-      <c r="N73" s="45" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M73" s="43" t="n">
+        <f aca="false">VLOOKUP(D73,Q1:R9,2,FALSE())</f>
+        <v>2</v>
+      </c>
+      <c r="N73" s="43" t="n">
         <f aca="false">M73*L73</f>
-        <v>3</v>
-      </c>
-      <c r="O73" s="45" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O73" s="43" t="n">
         <f aca="false">IF(M73=0,0,L73*MAX(R2:R8))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="37"/>
-      <c r="B74" s="42"/>
+      <c r="B74" s="44"/>
       <c r="C74" s="5"/>
-      <c r="D74" s="43"/>
+      <c r="D74" s="45"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
@@ -5483,10 +5607,10 @@
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="41"/>
-      <c r="L74" s="44"/>
-      <c r="M74" s="45"/>
-      <c r="N74" s="45"/>
-      <c r="O74" s="45"/>
+      <c r="L74" s="42"/>
+      <c r="M74" s="43"/>
+      <c r="N74" s="43"/>
+      <c r="O74" s="43"/>
     </row>
     <row r="75" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="37" t="n">
@@ -5515,29 +5639,29 @@
       </c>
       <c r="J75" s="5"/>
       <c r="K75" s="41" t="n">
-        <v>3</v>
-      </c>
-      <c r="L75" s="44" t="n">
+        <v>2</v>
+      </c>
+      <c r="L75" s="42" t="n">
         <f aca="false">K75/K117</f>
-        <v>0.6</v>
-      </c>
-      <c r="M75" s="45" t="n">
-        <f aca="false">VLOOKUP(D71,Q1:R9,2,FALSE())</f>
-        <v>3</v>
-      </c>
-      <c r="N75" s="45" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M75" s="43" t="n">
+        <f aca="false">VLOOKUP(D75,Q1:R9,2,FALSE())</f>
+        <v>0</v>
+      </c>
+      <c r="N75" s="43" t="n">
         <f aca="false">M75*L75</f>
-        <v>1.8</v>
-      </c>
-      <c r="O75" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="43" t="n">
         <f aca="false">IF(M75=0,0,L75*MAX(R2:R8))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="51"/>
       <c r="C76" s="5"/>
-      <c r="D76" s="43"/>
+      <c r="D76" s="45"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
@@ -5545,10 +5669,10 @@
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="41"/>
-      <c r="L76" s="44"/>
-      <c r="M76" s="45"/>
-      <c r="N76" s="45"/>
-      <c r="O76" s="45"/>
+      <c r="L76" s="42"/>
+      <c r="M76" s="43"/>
+      <c r="N76" s="43"/>
+      <c r="O76" s="43"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="31" t="s">
@@ -5563,10 +5687,10 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="41"/>
-      <c r="L77" s="44"/>
-      <c r="M77" s="45"/>
-      <c r="N77" s="45"/>
-      <c r="O77" s="45"/>
+      <c r="L77" s="42"/>
+      <c r="M77" s="43"/>
+      <c r="N77" s="43"/>
+      <c r="O77" s="43"/>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="52"/>
@@ -5579,10 +5703,10 @@
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="41"/>
-      <c r="L78" s="44"/>
-      <c r="M78" s="45"/>
-      <c r="N78" s="45"/>
-      <c r="O78" s="45"/>
+      <c r="L78" s="42"/>
+      <c r="M78" s="43"/>
+      <c r="N78" s="43"/>
+      <c r="O78" s="43"/>
     </row>
     <row r="79" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="37" t="n">
@@ -5610,12 +5734,31 @@
         <v>84</v>
       </c>
       <c r="J79" s="5"/>
+      <c r="K79" s="41" t="n">
+        <v>3</v>
+      </c>
+      <c r="L79" s="42" t="n">
+        <f aca="false">K79/K117</f>
+        <v>0.6</v>
+      </c>
+      <c r="M79" s="43" t="n">
+        <f aca="false">VLOOKUP(D79,Q1:R9,2,FALSE())</f>
+        <v>3</v>
+      </c>
+      <c r="N79" s="43" t="n">
+        <f aca="false">M79*L79</f>
+        <v>1.8</v>
+      </c>
+      <c r="O79" s="43" t="n">
+        <f aca="false">IF(M79=0,0,L79*MAX(R2:R8))</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="37"/>
-      <c r="B80" s="42"/>
+      <c r="B80" s="44"/>
       <c r="C80" s="5"/>
-      <c r="D80" s="43"/>
+      <c r="D80" s="45"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
@@ -5623,10 +5766,10 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="41"/>
-      <c r="L80" s="44"/>
-      <c r="M80" s="45"/>
-      <c r="N80" s="45"/>
-      <c r="O80" s="45"/>
+      <c r="L80" s="42"/>
+      <c r="M80" s="43"/>
+      <c r="N80" s="43"/>
+      <c r="O80" s="43"/>
     </row>
     <row r="81" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="37" t="n">
@@ -5657,28 +5800,28 @@
       <c r="K81" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L81" s="44" t="n">
+      <c r="L81" s="42" t="n">
         <f aca="false">K81/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M81" s="45" t="n">
+      <c r="M81" s="43" t="n">
         <f aca="false">VLOOKUP(D81,Q1:R9,2,FALSE())</f>
         <v>2</v>
       </c>
-      <c r="N81" s="45" t="n">
+      <c r="N81" s="43" t="n">
         <f aca="false">M81*L81</f>
         <v>1.2</v>
       </c>
-      <c r="O81" s="45" t="n">
+      <c r="O81" s="43" t="n">
         <f aca="false">IF(M81=0,0,L81*MAX(R2:R8))</f>
         <v>3</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="37"/>
-      <c r="B82" s="42"/>
+      <c r="B82" s="44"/>
       <c r="C82" s="5"/>
-      <c r="D82" s="43"/>
+      <c r="D82" s="45"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
@@ -5686,10 +5829,10 @@
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="41"/>
-      <c r="L82" s="44"/>
-      <c r="M82" s="45"/>
-      <c r="N82" s="45"/>
-      <c r="O82" s="45"/>
+      <c r="L82" s="42"/>
+      <c r="M82" s="43"/>
+      <c r="N82" s="43"/>
+      <c r="O82" s="43"/>
     </row>
     <row r="83" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="37" t="n">
@@ -5718,30 +5861,30 @@
       </c>
       <c r="J83" s="5"/>
       <c r="K83" s="41" t="n">
-        <v>3</v>
-      </c>
-      <c r="L83" s="44" t="n">
+        <v>4</v>
+      </c>
+      <c r="L83" s="42" t="n">
         <f aca="false">K83/K117</f>
-        <v>0.6</v>
-      </c>
-      <c r="M83" s="45" t="n">
-        <f aca="false">VLOOKUP(D79,Q1:R9,2,FALSE())</f>
-        <v>3</v>
-      </c>
-      <c r="N83" s="45" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M83" s="43" t="n">
+        <f aca="false">VLOOKUP(D83,Q1:R9,2,FALSE())</f>
+        <v>2</v>
+      </c>
+      <c r="N83" s="43" t="n">
         <f aca="false">M83*L83</f>
-        <v>1.8</v>
-      </c>
-      <c r="O83" s="45" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O83" s="43" t="n">
         <f aca="false">IF(M83=0,0,L83*MAX(R2:R8))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="37"/>
-      <c r="B84" s="42"/>
+      <c r="B84" s="44"/>
       <c r="C84" s="5"/>
-      <c r="D84" s="43"/>
+      <c r="D84" s="45"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
@@ -5749,10 +5892,10 @@
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="41"/>
-      <c r="L84" s="44"/>
-      <c r="M84" s="45"/>
-      <c r="N84" s="45"/>
-      <c r="O84" s="45"/>
+      <c r="L84" s="42"/>
+      <c r="M84" s="43"/>
+      <c r="N84" s="43"/>
+      <c r="O84" s="43"/>
     </row>
     <row r="85" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="37" t="n">
@@ -5783,19 +5926,19 @@
       <c r="K85" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L85" s="44" t="n">
+      <c r="L85" s="42" t="n">
         <f aca="false">K85/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M85" s="45" t="n">
+      <c r="M85" s="43" t="n">
         <f aca="false">VLOOKUP(D85,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N85" s="45" t="n">
+      <c r="N85" s="43" t="n">
         <f aca="false">M85*L85</f>
         <v>0</v>
       </c>
-      <c r="O85" s="45" t="n">
+      <c r="O85" s="43" t="n">
         <f aca="false">IF(M85=0,0,L85*MAX(R2:R8))</f>
         <v>0</v>
       </c>
@@ -5803,7 +5946,7 @@
     <row r="86" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B86" s="51"/>
       <c r="C86" s="5"/>
-      <c r="D86" s="43"/>
+      <c r="D86" s="45"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
@@ -5811,10 +5954,10 @@
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="41"/>
-      <c r="L86" s="44"/>
-      <c r="M86" s="45"/>
-      <c r="N86" s="45"/>
-      <c r="O86" s="45"/>
+      <c r="L86" s="42"/>
+      <c r="M86" s="43"/>
+      <c r="N86" s="43"/>
+      <c r="O86" s="43"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="31" t="s">
@@ -5829,10 +5972,10 @@
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
       <c r="K87" s="41"/>
-      <c r="L87" s="44"/>
-      <c r="M87" s="45"/>
-      <c r="N87" s="45"/>
-      <c r="O87" s="45"/>
+      <c r="L87" s="42"/>
+      <c r="M87" s="43"/>
+      <c r="N87" s="43"/>
+      <c r="O87" s="43"/>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B88" s="52"/>
@@ -5845,10 +5988,10 @@
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
       <c r="K88" s="41"/>
-      <c r="L88" s="44"/>
-      <c r="M88" s="45"/>
-      <c r="N88" s="45"/>
-      <c r="O88" s="45"/>
+      <c r="L88" s="42"/>
+      <c r="M88" s="43"/>
+      <c r="N88" s="43"/>
+      <c r="O88" s="43"/>
     </row>
     <row r="89" customFormat="false" ht="47.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="37" t="n">
@@ -5877,30 +6020,30 @@
       </c>
       <c r="J89" s="5"/>
       <c r="K89" s="41" t="n">
+        <v>3</v>
+      </c>
+      <c r="L89" s="42" t="n">
+        <f aca="false">K89/K117</f>
+        <v>0.6</v>
+      </c>
+      <c r="M89" s="43" t="n">
+        <f aca="false">VLOOKUP(D89,Q1:R9,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="L89" s="44" t="n">
-        <f aca="false">K89/K117</f>
-        <v>1</v>
-      </c>
-      <c r="M89" s="45" t="n">
-        <f aca="false">VLOOKUP(D95,Q1:R9,2,FALSE())</f>
-        <v>3</v>
-      </c>
-      <c r="N89" s="45" t="n">
+      <c r="N89" s="43" t="n">
         <f aca="false">M89*L89</f>
         <v>3</v>
       </c>
-      <c r="O89" s="45" t="n">
+      <c r="O89" s="43" t="n">
         <f aca="false">IF(M89=0,0,L89*MAX(R2:R8))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="37"/>
-      <c r="B90" s="42"/>
+      <c r="B90" s="44"/>
       <c r="C90" s="5"/>
-      <c r="D90" s="43"/>
+      <c r="D90" s="45"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
@@ -5908,10 +6051,10 @@
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
       <c r="K90" s="41"/>
-      <c r="L90" s="44"/>
-      <c r="M90" s="45"/>
-      <c r="N90" s="45"/>
-      <c r="O90" s="45"/>
+      <c r="L90" s="42"/>
+      <c r="M90" s="43"/>
+      <c r="N90" s="43"/>
+      <c r="O90" s="43"/>
     </row>
     <row r="91" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="37" t="n">
@@ -5923,7 +6066,7 @@
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="39" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5" t="e">
@@ -5940,30 +6083,30 @@
       </c>
       <c r="J91" s="5"/>
       <c r="K91" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="L91" s="44" t="n">
+        <v>5</v>
+      </c>
+      <c r="L91" s="42" t="n">
         <f aca="false">K91/K117</f>
-        <v>0.4</v>
-      </c>
-      <c r="M91" s="45" t="n">
-        <f aca="false">VLOOKUP(D97,Q1:R9,2,FALSE())</f>
         <v>1</v>
       </c>
-      <c r="N91" s="45" t="n">
+      <c r="M91" s="43" t="n">
+        <f aca="false">VLOOKUP(D91,Q1:R9,2,FALSE())</f>
+        <v>3</v>
+      </c>
+      <c r="N91" s="43" t="n">
         <f aca="false">M91*L91</f>
-        <v>0.4</v>
-      </c>
-      <c r="O91" s="45" t="n">
+        <v>3</v>
+      </c>
+      <c r="O91" s="43" t="n">
         <f aca="false">IF(M91=0,0,L91*MAX(R2:R8))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="37"/>
-      <c r="B92" s="42"/>
+      <c r="B92" s="44"/>
       <c r="C92" s="5"/>
-      <c r="D92" s="43"/>
+      <c r="D92" s="45"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
@@ -5971,10 +6114,10 @@
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="K92" s="41"/>
-      <c r="L92" s="44"/>
-      <c r="M92" s="45"/>
-      <c r="N92" s="45"/>
-      <c r="O92" s="45"/>
+      <c r="L92" s="42"/>
+      <c r="M92" s="43"/>
+      <c r="N92" s="43"/>
+      <c r="O92" s="43"/>
     </row>
     <row r="93" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="37" t="n">
@@ -6005,28 +6148,28 @@
       <c r="K93" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="L93" s="44" t="n">
+      <c r="L93" s="42" t="n">
         <f aca="false">K93/K117</f>
         <v>0.8</v>
       </c>
-      <c r="M93" s="45" t="n">
-        <f aca="false">VLOOKUP(D91,Q1:R9,2,FALSE())</f>
+      <c r="M93" s="43" t="n">
+        <f aca="false">VLOOKUP(D93,Q1:R9,2,FALSE())</f>
         <v>4</v>
       </c>
-      <c r="N93" s="45" t="n">
+      <c r="N93" s="43" t="n">
         <f aca="false">M93*L93</f>
         <v>3.2</v>
       </c>
-      <c r="O93" s="45" t="n">
+      <c r="O93" s="43" t="n">
         <f aca="false">IF(M93=0,0,L93*MAX(R2:R8))</f>
         <v>4</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="37"/>
-      <c r="B94" s="42"/>
+      <c r="B94" s="44"/>
       <c r="C94" s="5"/>
-      <c r="D94" s="43"/>
+      <c r="D94" s="45"/>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
@@ -6034,10 +6177,10 @@
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
       <c r="K94" s="41"/>
-      <c r="L94" s="44"/>
-      <c r="M94" s="45"/>
-      <c r="N94" s="45"/>
-      <c r="O94" s="45"/>
+      <c r="L94" s="42"/>
+      <c r="M94" s="43"/>
+      <c r="N94" s="43"/>
+      <c r="O94" s="43"/>
     </row>
     <row r="95" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="37" t="n">
@@ -6049,7 +6192,7 @@
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="39" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5" t="e">
@@ -6068,28 +6211,28 @@
       <c r="K95" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L95" s="44" t="n">
+      <c r="L95" s="42" t="n">
         <f aca="false">K95/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M95" s="45" t="n">
-        <f aca="false">VLOOKUP(D93,Q1:R9,2,FALSE())</f>
+      <c r="M95" s="43" t="n">
+        <f aca="false">VLOOKUP(D95,Q1:R9,2,FALSE())</f>
         <v>4</v>
       </c>
-      <c r="N95" s="45" t="n">
+      <c r="N95" s="43" t="n">
         <f aca="false">M95*L95</f>
         <v>2.4</v>
       </c>
-      <c r="O95" s="45" t="n">
+      <c r="O95" s="43" t="n">
         <f aca="false">IF(M95=0,0,L95*MAX(R2:R8))</f>
         <v>3</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="37"/>
-      <c r="B96" s="42"/>
+      <c r="B96" s="44"/>
       <c r="C96" s="5"/>
-      <c r="D96" s="43"/>
+      <c r="D96" s="45"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
@@ -6097,10 +6240,10 @@
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
       <c r="K96" s="41"/>
-      <c r="L96" s="44"/>
-      <c r="M96" s="45"/>
-      <c r="N96" s="45"/>
-      <c r="O96" s="45"/>
+      <c r="L96" s="42"/>
+      <c r="M96" s="43"/>
+      <c r="N96" s="43"/>
+      <c r="O96" s="43"/>
     </row>
     <row r="97" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="37" t="n">
@@ -6128,11 +6271,30 @@
         <v>101</v>
       </c>
       <c r="J97" s="5"/>
+      <c r="K97" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="L97" s="42" t="n">
+        <f aca="false">K97/K117</f>
+        <v>0.4</v>
+      </c>
+      <c r="M97" s="43" t="n">
+        <f aca="false">VLOOKUP(D97,Q1:R9,2,FALSE())</f>
+        <v>1</v>
+      </c>
+      <c r="N97" s="43" t="n">
+        <f aca="false">M97*L97</f>
+        <v>0.4</v>
+      </c>
+      <c r="O97" s="43" t="n">
+        <f aca="false">IF(M97=0,0,L97*MAX(R2:R8))</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B98" s="51"/>
       <c r="C98" s="5"/>
-      <c r="D98" s="43"/>
+      <c r="D98" s="45"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
@@ -6140,10 +6302,10 @@
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="K98" s="41"/>
-      <c r="L98" s="44"/>
-      <c r="M98" s="45"/>
-      <c r="N98" s="45"/>
-      <c r="O98" s="45"/>
+      <c r="L98" s="42"/>
+      <c r="M98" s="43"/>
+      <c r="N98" s="43"/>
+      <c r="O98" s="43"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="31" t="s">
@@ -6158,10 +6320,10 @@
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
       <c r="K99" s="41"/>
-      <c r="L99" s="44"/>
-      <c r="M99" s="45"/>
-      <c r="N99" s="45"/>
-      <c r="O99" s="45"/>
+      <c r="L99" s="42"/>
+      <c r="M99" s="43"/>
+      <c r="N99" s="43"/>
+      <c r="O99" s="43"/>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B100" s="52"/>
@@ -6174,10 +6336,10 @@
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
       <c r="K100" s="41"/>
-      <c r="L100" s="44"/>
-      <c r="M100" s="45"/>
-      <c r="N100" s="45"/>
-      <c r="O100" s="45"/>
+      <c r="L100" s="42"/>
+      <c r="M100" s="43"/>
+      <c r="N100" s="43"/>
+      <c r="O100" s="43"/>
     </row>
     <row r="101" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="37" t="n">
@@ -6208,28 +6370,28 @@
       <c r="K101" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="L101" s="44" t="n">
+      <c r="L101" s="42" t="n">
         <f aca="false">K101/K117</f>
         <v>0.8</v>
       </c>
-      <c r="M101" s="45" t="n">
-        <f aca="false">VLOOKUP(D103,Q1:R9,2,FALSE())</f>
+      <c r="M101" s="43" t="n">
+        <f aca="false">VLOOKUP(D101,Q1:R9,2,FALSE())</f>
         <v>3</v>
       </c>
-      <c r="N101" s="45" t="n">
+      <c r="N101" s="43" t="n">
         <f aca="false">M101*L101</f>
         <v>2.4</v>
       </c>
-      <c r="O101" s="45" t="n">
+      <c r="O101" s="43" t="n">
         <f aca="false">IF(M101=0,0,L101*MAX(R2:R8))</f>
         <v>4</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="37"/>
-      <c r="B102" s="42"/>
+      <c r="B102" s="44"/>
       <c r="C102" s="5"/>
-      <c r="D102" s="43"/>
+      <c r="D102" s="45"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
@@ -6237,10 +6399,10 @@
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
       <c r="K102" s="41"/>
-      <c r="L102" s="44"/>
-      <c r="M102" s="45"/>
-      <c r="N102" s="45"/>
-      <c r="O102" s="45"/>
+      <c r="L102" s="42"/>
+      <c r="M102" s="43"/>
+      <c r="N102" s="43"/>
+      <c r="O102" s="43"/>
     </row>
     <row r="103" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="37" t="n">
@@ -6269,30 +6431,30 @@
       </c>
       <c r="J103" s="5"/>
       <c r="K103" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="L103" s="42" t="n">
+        <f aca="false">K103/K117</f>
+        <v>0.4</v>
+      </c>
+      <c r="M103" s="43" t="n">
+        <f aca="false">VLOOKUP(D103,Q1:R9,2,FALSE())</f>
         <v>3</v>
       </c>
-      <c r="L103" s="44" t="n">
-        <f aca="false">K103/K117</f>
-        <v>0.6</v>
-      </c>
-      <c r="M103" s="45" t="n">
-        <f aca="false">VLOOKUP(D105,Q1:R9,2,FALSE())</f>
-        <v>2</v>
-      </c>
-      <c r="N103" s="45" t="n">
+      <c r="N103" s="43" t="n">
         <f aca="false">M103*L103</f>
         <v>1.2</v>
       </c>
-      <c r="O103" s="45" t="n">
+      <c r="O103" s="43" t="n">
         <f aca="false">IF(M103=0,0,L103*MAX(R2:R8))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="37"/>
-      <c r="B104" s="42"/>
+      <c r="B104" s="44"/>
       <c r="C104" s="5"/>
-      <c r="D104" s="43"/>
+      <c r="D104" s="45"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
@@ -6300,10 +6462,10 @@
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
       <c r="K104" s="41"/>
-      <c r="L104" s="44"/>
-      <c r="M104" s="45"/>
-      <c r="N104" s="45"/>
-      <c r="O104" s="45"/>
+      <c r="L104" s="42"/>
+      <c r="M104" s="43"/>
+      <c r="N104" s="43"/>
+      <c r="O104" s="43"/>
     </row>
     <row r="105" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="37" t="n">
@@ -6334,28 +6496,28 @@
       <c r="K105" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L105" s="44" t="n">
+      <c r="L105" s="42" t="n">
         <f aca="false">K105/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M105" s="45" t="n">
-        <f aca="false">VLOOKUP(D107,Q1:R9,2,FALSE())</f>
-        <v>1</v>
-      </c>
-      <c r="N105" s="45" t="n">
+      <c r="M105" s="43" t="n">
+        <f aca="false">VLOOKUP(D105,Q1:R9,2,FALSE())</f>
+        <v>2</v>
+      </c>
+      <c r="N105" s="43" t="n">
         <f aca="false">M105*L105</f>
-        <v>0.6</v>
-      </c>
-      <c r="O105" s="45" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O105" s="43" t="n">
         <f aca="false">IF(M105=0,0,L105*MAX(R2:R8))</f>
         <v>3</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="37"/>
-      <c r="B106" s="42"/>
+      <c r="B106" s="44"/>
       <c r="C106" s="5"/>
-      <c r="D106" s="43"/>
+      <c r="D106" s="45"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
@@ -6363,10 +6525,10 @@
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
       <c r="K106" s="41"/>
-      <c r="L106" s="44"/>
-      <c r="M106" s="45"/>
-      <c r="N106" s="45"/>
-      <c r="O106" s="45"/>
+      <c r="L106" s="42"/>
+      <c r="M106" s="43"/>
+      <c r="N106" s="43"/>
+      <c r="O106" s="43"/>
     </row>
     <row r="107" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="37" t="n">
@@ -6394,11 +6556,30 @@
         <v>110</v>
       </c>
       <c r="J107" s="5"/>
+      <c r="K107" s="41" t="n">
+        <v>3</v>
+      </c>
+      <c r="L107" s="42" t="n">
+        <f aca="false">K107/K117</f>
+        <v>0.6</v>
+      </c>
+      <c r="M107" s="43" t="n">
+        <f aca="false">VLOOKUP(D107,Q1:R9,2,FALSE())</f>
+        <v>1</v>
+      </c>
+      <c r="N107" s="43" t="n">
+        <f aca="false">M107*L107</f>
+        <v>0.6</v>
+      </c>
+      <c r="O107" s="43" t="n">
+        <f aca="false">IF(M107=0,0,L107*MAX(R2:R8))</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B108" s="51"/>
       <c r="C108" s="5"/>
-      <c r="D108" s="43"/>
+      <c r="D108" s="45"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
@@ -6406,10 +6587,10 @@
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="41"/>
-      <c r="L108" s="44"/>
-      <c r="M108" s="45"/>
-      <c r="N108" s="45"/>
-      <c r="O108" s="45"/>
+      <c r="L108" s="42"/>
+      <c r="M108" s="43"/>
+      <c r="N108" s="43"/>
+      <c r="O108" s="43"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="31" t="s">
@@ -6424,10 +6605,10 @@
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="41"/>
-      <c r="L109" s="44"/>
-      <c r="M109" s="45"/>
-      <c r="N109" s="45"/>
-      <c r="O109" s="45"/>
+      <c r="L109" s="42"/>
+      <c r="M109" s="43"/>
+      <c r="N109" s="43"/>
+      <c r="O109" s="43"/>
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B110" s="52"/>
@@ -6440,10 +6621,10 @@
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="41"/>
-      <c r="L110" s="44"/>
-      <c r="M110" s="45"/>
-      <c r="N110" s="45"/>
-      <c r="O110" s="45"/>
+      <c r="L110" s="42"/>
+      <c r="M110" s="43"/>
+      <c r="N110" s="43"/>
+      <c r="O110" s="43"/>
     </row>
     <row r="111" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="37" t="n">
@@ -6472,23 +6653,23 @@
       </c>
       <c r="J111" s="19"/>
       <c r="K111" s="28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L111" s="56" t="n">
         <f aca="false">K111/K117</f>
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="M111" s="57" t="n">
-        <f aca="false">VLOOKUP(D113,Q1:R9,2,FALSE())</f>
-        <v>4</v>
+        <f aca="false">VLOOKUP(D111,Q1:R9,2,FALSE())</f>
+        <v>5</v>
       </c>
       <c r="N111" s="57" t="n">
         <f aca="false">M111*L111</f>
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O111" s="57" t="n">
         <f aca="false">IF(M111=0,0,L111*MAX(R2:R8))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P111" s="19"/>
       <c r="Q111" s="19"/>
@@ -6504,7 +6685,7 @@
     </row>
     <row r="112" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="37"/>
-      <c r="B112" s="42"/>
+      <c r="B112" s="44"/>
       <c r="C112" s="19"/>
       <c r="D112" s="58"/>
       <c r="E112" s="19"/>
@@ -6556,18 +6737,29 @@
         <v>115</v>
       </c>
       <c r="J113" s="19"/>
-      <c r="S113" s="19"/>
-      <c r="T113" s="19"/>
-      <c r="U113" s="19"/>
-      <c r="V113" s="19"/>
-      <c r="W113" s="19"/>
-      <c r="X113" s="19"/>
-      <c r="Y113" s="19"/>
-      <c r="Z113" s="19"/>
+      <c r="K113" s="28" t="n">
+        <v>4</v>
+      </c>
+      <c r="L113" s="56" t="n">
+        <f aca="false">K113/K117</f>
+        <v>0.8</v>
+      </c>
+      <c r="M113" s="57" t="n">
+        <f aca="false">VLOOKUP(D113,Q1:R9,2,FALSE())</f>
+        <v>4</v>
+      </c>
+      <c r="N113" s="57" t="n">
+        <f aca="false">M113*L113</f>
+        <v>3.2</v>
+      </c>
+      <c r="O113" s="57" t="n">
+        <f aca="false">IF(M113=0,0,L113*MAX(R2:R8))</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="37"/>
-      <c r="B114" s="42"/>
+      <c r="B114" s="44"/>
       <c r="C114" s="19"/>
       <c r="D114" s="58"/>
       <c r="E114" s="19"/>
@@ -6620,23 +6812,23 @@
       </c>
       <c r="J115" s="19"/>
       <c r="K115" s="28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L115" s="56" t="n">
         <f aca="false">K115/K117</f>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="M115" s="57" t="n">
-        <f aca="false">VLOOKUP(D111,Q1:R9,2,FALSE())</f>
-        <v>5</v>
+        <f aca="false">VLOOKUP(D115,Q1:R9,2,FALSE())</f>
+        <v>0</v>
       </c>
       <c r="N115" s="57" t="n">
         <f aca="false">M115*L115</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O115" s="57" t="n">
         <f aca="false">IF(M115=0,0,L115*MAX(R2:R8))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P115" s="19"/>
       <c r="Q115" s="19"/>
@@ -6653,7 +6845,7 @@
     <row r="116" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B116" s="60"/>
       <c r="C116" s="5"/>
-      <c r="D116" s="43"/>
+      <c r="D116" s="45"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
@@ -6674,7 +6866,7 @@
       <c r="C117" s="65"/>
       <c r="D117" s="66" t="n">
         <f aca="false">IF(ISERR((N117/O117)*100),"",(N117/O117)*100)</f>
-        <v>67.3118279569893</v>
+        <v>64.8818897637795</v>
       </c>
       <c r="E117" s="67"/>
       <c r="F117" s="67"/>
@@ -6689,7 +6881,7 @@
       </c>
       <c r="J117" s="6" t="n">
         <f aca="false">IF(D117="",0,D117)</f>
-        <v>67.3118279569893</v>
+        <v>64.8818897637795</v>
       </c>
       <c r="K117" s="61" t="n">
         <f aca="false">MAX(K9:K115)</f>
@@ -6699,11 +6891,11 @@
       <c r="M117" s="61"/>
       <c r="N117" s="62" t="n">
         <f aca="false">SUM(N9:N115)</f>
-        <v>62.6</v>
+        <v>82.4</v>
       </c>
       <c r="O117" s="62" t="n">
         <f aca="false">SUM(O9:O115)</f>
-        <v>93</v>
+        <v>127</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17389,7 +17581,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{AECE3580-D77C-44A5-8DCA-5CDBA0C07F9C}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{96FA1A76-209C-49C9-9DE8-EA286B13F358}">
             <xm:f>"Enter score"</xm:f>
             <x14:dxf>
               <fill>
@@ -17406,7 +17598,7 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D81 D85 D61 D51 D29 D45 D31:D33 D23:D25 D17 D15 D9 D11 D13 D21 D35 D43 D41 D39 D37 D49 D53 D55 D59 D63 D69 D67 D73 D71 D75 D79 D83 D97 D91 D93 D95 D89 D107 D105 D103 D101 D113 D111 D115</xm:sqref>
+          <xm:sqref>D101 D93 D95 D81 D85 D61 D51 D29 D45 D31:D33 D23:D25 D17 D15 D9 D11 D13 D21 D35 D43 D37 D39 D41 D49 D53 D55 D63 D59 D67 D73 D71 D75 D69 D79 D83 D89 D97 D91 D103 D107 D105 D113 D111 D115</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -17421,7 +17613,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -17706,19 +17898,19 @@
       <c r="K9" s="41" t="n">
         <v>5</v>
       </c>
-      <c r="L9" s="44" t="n">
+      <c r="L9" s="42" t="n">
         <f aca="false">K9/K117</f>
         <v>1</v>
       </c>
-      <c r="M9" s="45" t="n">
+      <c r="M9" s="43" t="n">
         <f aca="false">VLOOKUP(D9,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N9" s="45" t="n">
+      <c r="N9" s="43" t="n">
         <f aca="false">M9*L9</f>
         <v>0</v>
       </c>
-      <c r="O9" s="45" t="n">
+      <c r="O9" s="43" t="n">
         <f aca="false">IF(M9=0,0,L9*MAX(R2:R8))</f>
         <v>0</v>
       </c>
@@ -17734,7 +17926,7 @@
       <c r="A10" s="37"/>
       <c r="B10" s="38"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="43"/>
+      <c r="D10" s="45"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -17742,10 +17934,10 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="41"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
       <c r="P10" s="46"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
@@ -17781,19 +17973,19 @@
       <c r="K11" s="41" t="n">
         <v>5</v>
       </c>
-      <c r="L11" s="44" t="n">
+      <c r="L11" s="42" t="n">
         <f aca="false">K11/K117</f>
         <v>1</v>
       </c>
-      <c r="M11" s="45" t="n">
+      <c r="M11" s="43" t="n">
         <f aca="false">VLOOKUP(D11,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N11" s="45" t="n">
+      <c r="N11" s="43" t="n">
         <f aca="false">M11*L11</f>
         <v>0</v>
       </c>
-      <c r="O11" s="45" t="n">
+      <c r="O11" s="43" t="n">
         <f aca="false">IF(M11=0,0,L11*MAX(R2:R8))</f>
         <v>0</v>
       </c>
@@ -17807,7 +17999,7 @@
       <c r="A12" s="37"/>
       <c r="B12" s="38"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="43"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -17815,10 +18007,10 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="41"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
@@ -17854,19 +18046,19 @@
       <c r="K13" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="L13" s="44" t="n">
+      <c r="L13" s="42" t="n">
         <f aca="false">K13/K117</f>
         <v>0.8</v>
       </c>
-      <c r="M13" s="45" t="n">
+      <c r="M13" s="43" t="n">
         <f aca="false">VLOOKUP(D13,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N13" s="45" t="n">
+      <c r="N13" s="43" t="n">
         <f aca="false">M13*L13</f>
         <v>0</v>
       </c>
-      <c r="O13" s="45" t="n">
+      <c r="O13" s="43" t="n">
         <f aca="false">IF(M13=0,0,L13*MAX(R2:R8))</f>
         <v>0</v>
       </c>
@@ -17882,7 +18074,7 @@
       <c r="A14" s="37"/>
       <c r="B14" s="38"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="43"/>
+      <c r="D14" s="45"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -17890,11 +18082,11 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="41"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="S14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="S14" s="44"/>
     </row>
     <row r="15" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="37" t="n">
@@ -17927,11 +18119,11 @@
         <f aca="false">K15/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M15" s="45" t="n">
+      <c r="M15" s="43" t="n">
         <f aca="false">VLOOKUP(D15,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N15" s="45" t="n">
+      <c r="N15" s="43" t="n">
         <f aca="false">M15*L15</f>
         <v>0</v>
       </c>
@@ -17947,7 +18139,7 @@
       <c r="A16" s="37"/>
       <c r="B16" s="38"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="43"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -17955,11 +18147,11 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="41"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="S16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="S16" s="44"/>
       <c r="T16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17989,29 +18181,29 @@
       <c r="K17" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L17" s="44" t="n">
+      <c r="L17" s="42" t="n">
         <f aca="false">K17/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M17" s="45" t="n">
+      <c r="M17" s="43" t="n">
         <f aca="false">VLOOKUP(D17,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N17" s="45" t="n">
+      <c r="N17" s="43" t="n">
         <f aca="false">M17*L17</f>
         <v>0</v>
       </c>
-      <c r="O17" s="45" t="n">
+      <c r="O17" s="43" t="n">
         <f aca="false">IF(M17=0,0,L17*MAX(R2:R8))</f>
         <v>0</v>
       </c>
-      <c r="S17" s="42"/>
+      <c r="S17" s="44"/>
       <c r="T17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="82"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="43"/>
+      <c r="D18" s="45"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -18019,11 +18211,11 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="41"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="S18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="S18" s="44"/>
       <c r="T18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18031,7 +18223,7 @@
         <v>29</v>
       </c>
       <c r="C19" s="35"/>
-      <c r="D19" s="43"/>
+      <c r="D19" s="45"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -18039,15 +18231,15 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="41"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="52"/>
       <c r="C20" s="35"/>
-      <c r="D20" s="43"/>
+      <c r="D20" s="45"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -18055,10 +18247,10 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="41"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
     </row>
     <row r="21" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="37" t="n">
@@ -18087,19 +18279,19 @@
       <c r="K21" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L21" s="44" t="n">
+      <c r="L21" s="42" t="n">
         <f aca="false">K21/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M21" s="45" t="n">
+      <c r="M21" s="43" t="n">
         <f aca="false">VLOOKUP(D21,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N21" s="45" t="n">
+      <c r="N21" s="43" t="n">
         <f aca="false">M21*L21</f>
         <v>0</v>
       </c>
-      <c r="O21" s="45" t="n">
+      <c r="O21" s="43" t="n">
         <f aca="false">IF(M21=0,0,L21*MAX(R2:R8))</f>
         <v>0</v>
       </c>
@@ -18108,7 +18300,7 @@
       <c r="A22" s="37"/>
       <c r="B22" s="38"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="43"/>
+      <c r="D22" s="45"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -18117,12 +18309,12 @@
       <c r="J22" s="5"/>
       <c r="K22" s="48"/>
       <c r="L22" s="49"/>
-      <c r="M22" s="45"/>
+      <c r="M22" s="43"/>
       <c r="N22" s="53"/>
       <c r="O22" s="53"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="42"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
     </row>
     <row r="23" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="37" t="n">
@@ -18151,30 +18343,30 @@
       <c r="K23" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="L23" s="44" t="n">
+      <c r="L23" s="42" t="n">
         <f aca="false">K23/K117</f>
         <v>0.8</v>
       </c>
-      <c r="M23" s="45" t="n">
+      <c r="M23" s="43" t="n">
         <f aca="false">VLOOKUP(D23,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N23" s="45" t="n">
+      <c r="N23" s="43" t="n">
         <f aca="false">M23*L23</f>
         <v>0</v>
       </c>
-      <c r="O23" s="45" t="n">
+      <c r="O23" s="43" t="n">
         <f aca="false">IF(M23=0,0,L23*MAX(R2:R8))</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
     </row>
     <row r="24" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="37"/>
       <c r="B24" s="38"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="43"/>
+      <c r="D24" s="45"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -18182,12 +18374,12 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="41"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
     </row>
     <row r="25" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="37" t="n">
@@ -18210,29 +18402,29 @@
       <c r="K25" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L25" s="44" t="n">
+      <c r="L25" s="42" t="n">
         <f aca="false">K25/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M25" s="45" t="n">
+      <c r="M25" s="43" t="n">
         <f aca="false">VLOOKUP(D25,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N25" s="45" t="n">
+      <c r="N25" s="43" t="n">
         <f aca="false">M25*L25</f>
         <v>0</v>
       </c>
-      <c r="O25" s="45" t="n">
+      <c r="O25" s="43" t="n">
         <f aca="false">IF(M25=0,0,L25*MAX(R2:R8))</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
     </row>
     <row r="26" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="51"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="43"/>
+      <c r="D26" s="45"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -18240,13 +18432,13 @@
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="41"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="31" t="s">
@@ -18261,13 +18453,13 @@
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="41"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="52"/>
@@ -18280,20 +18472,20 @@
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="41"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
     </row>
     <row r="29" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="37" t="n">
         <f aca="false">A25+1</f>
         <v>9</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="44" t="s">
         <v>132</v>
       </c>
       <c r="C29" s="5"/>
@@ -18315,31 +18507,31 @@
       <c r="K29" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="L29" s="44" t="n">
+      <c r="L29" s="42" t="n">
         <f aca="false">K29/K117</f>
         <v>0.4</v>
       </c>
-      <c r="M29" s="45" t="n">
+      <c r="M29" s="43" t="n">
         <f aca="false">VLOOKUP(D29,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N29" s="45" t="n">
+      <c r="N29" s="43" t="n">
         <f aca="false">M29*L29</f>
         <v>0</v>
       </c>
-      <c r="O29" s="45" t="n">
+      <c r="O29" s="43" t="n">
         <f aca="false">IF(M29=0,0,L29*MAX(R2:R8))</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="42"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
     </row>
     <row r="30" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="37"/>
-      <c r="B30" s="42"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="43"/>
+      <c r="D30" s="45"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -18348,7 +18540,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="48"/>
       <c r="L30" s="49"/>
-      <c r="M30" s="45"/>
+      <c r="M30" s="43"/>
       <c r="N30" s="55"/>
       <c r="O30" s="53"/>
       <c r="P30" s="13"/>
@@ -18361,7 +18553,7 @@
         <f aca="false">A29+1</f>
         <v>10</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="44" t="s">
         <v>133</v>
       </c>
       <c r="C31" s="5"/>
@@ -18383,28 +18575,28 @@
       <c r="K31" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="L31" s="44" t="n">
+      <c r="L31" s="42" t="n">
         <f aca="false">K31/K117</f>
         <v>0.8</v>
       </c>
-      <c r="M31" s="45" t="n">
+      <c r="M31" s="43" t="n">
         <f aca="false">VLOOKUP(D31,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N31" s="45" t="n">
+      <c r="N31" s="43" t="n">
         <f aca="false">M31*L31</f>
         <v>0</v>
       </c>
-      <c r="O31" s="45" t="n">
+      <c r="O31" s="43" t="n">
         <f aca="false">IF(M31=0,0,L31*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="37"/>
-      <c r="B32" s="42"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="43"/>
+      <c r="D32" s="45"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
@@ -18412,17 +18604,17 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="41"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
     </row>
     <row r="33" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="37" t="n">
         <f aca="false">A31+1</f>
         <v>11</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="44" t="s">
         <v>134</v>
       </c>
       <c r="C33" s="5"/>
@@ -18438,28 +18630,28 @@
       <c r="K33" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L33" s="44" t="n">
+      <c r="L33" s="42" t="n">
         <f aca="false">K33/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M33" s="45" t="n">
+      <c r="M33" s="43" t="n">
         <f aca="false">VLOOKUP(D33,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N33" s="45" t="n">
+      <c r="N33" s="43" t="n">
         <f aca="false">M33*L33</f>
         <v>0</v>
       </c>
-      <c r="O33" s="45" t="n">
+      <c r="O33" s="43" t="n">
         <f aca="false">IF(M33=0,0,L33*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="37"/>
-      <c r="B34" s="42"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="43"/>
+      <c r="D34" s="45"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -18467,17 +18659,17 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="41"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
     </row>
     <row r="35" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="37" t="n">
         <f aca="false">A33+1</f>
         <v>12</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="44" t="s">
         <v>135</v>
       </c>
       <c r="C35" s="5"/>
@@ -18499,28 +18691,28 @@
       <c r="K35" s="41" t="n">
         <v>5</v>
       </c>
-      <c r="L35" s="44" t="n">
+      <c r="L35" s="42" t="n">
         <f aca="false">K35/K117</f>
         <v>1</v>
       </c>
-      <c r="M35" s="45" t="n">
+      <c r="M35" s="43" t="n">
         <f aca="false">VLOOKUP(D35,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N35" s="45" t="n">
+      <c r="N35" s="43" t="n">
         <f aca="false">M35*L35</f>
         <v>0</v>
       </c>
-      <c r="O35" s="45" t="n">
+      <c r="O35" s="43" t="n">
         <f aca="false">IF(M35=0,0,L35*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="37"/>
-      <c r="B36" s="42"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="43"/>
+      <c r="D36" s="45"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -18528,17 +18720,17 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="41"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
     </row>
     <row r="37" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="37" t="n">
         <f aca="false">A35+1</f>
         <v>13</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="44" t="s">
         <v>136</v>
       </c>
       <c r="C37" s="5"/>
@@ -18560,28 +18752,28 @@
       <c r="K37" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L37" s="44" t="n">
+      <c r="L37" s="42" t="n">
         <f aca="false">K37/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M37" s="45" t="n">
+      <c r="M37" s="43" t="n">
         <f aca="false">VLOOKUP(D37,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N37" s="45" t="n">
+      <c r="N37" s="43" t="n">
         <f aca="false">M37*L37</f>
         <v>0</v>
       </c>
-      <c r="O37" s="45" t="n">
+      <c r="O37" s="43" t="n">
         <f aca="false">IF(M37=0,0,L37*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="37"/>
-      <c r="B38" s="42"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="43"/>
+      <c r="D38" s="45"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
@@ -18589,17 +18781,17 @@
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="41"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="45"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
     </row>
     <row r="39" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="37" t="n">
         <f aca="false">A37+1</f>
         <v>14</v>
       </c>
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="44" t="s">
         <v>137</v>
       </c>
       <c r="C39" s="5"/>
@@ -18621,31 +18813,31 @@
       <c r="K39" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="L39" s="44" t="n">
+      <c r="L39" s="42" t="n">
         <f aca="false">K39/K117</f>
         <v>0.8</v>
       </c>
-      <c r="M39" s="45" t="n">
+      <c r="M39" s="43" t="n">
         <f aca="false">VLOOKUP(D39,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N39" s="45" t="n">
+      <c r="N39" s="43" t="n">
         <f aca="false">M39*L39</f>
         <v>0</v>
       </c>
-      <c r="O39" s="45" t="n">
+      <c r="O39" s="43" t="n">
         <f aca="false">IF(M39=0,0,L39*MAX(R2:R8))</f>
         <v>0</v>
       </c>
-      <c r="Q39" s="42"/>
-      <c r="R39" s="42"/>
-      <c r="S39" s="42"/>
+      <c r="Q39" s="44"/>
+      <c r="R39" s="44"/>
+      <c r="S39" s="44"/>
     </row>
     <row r="40" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="37"/>
-      <c r="B40" s="42"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="43"/>
+      <c r="D40" s="45"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
@@ -18654,7 +18846,7 @@
       <c r="J40" s="5"/>
       <c r="K40" s="48"/>
       <c r="L40" s="49"/>
-      <c r="M40" s="45"/>
+      <c r="M40" s="43"/>
       <c r="N40" s="55"/>
       <c r="O40" s="53"/>
       <c r="P40" s="13"/>
@@ -18667,7 +18859,7 @@
         <f aca="false">A39+1</f>
         <v>15</v>
       </c>
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="44" t="s">
         <v>138</v>
       </c>
       <c r="C41" s="5"/>
@@ -18689,28 +18881,28 @@
       <c r="K41" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="L41" s="44" t="n">
+      <c r="L41" s="42" t="n">
         <f aca="false">K41/K117</f>
         <v>0.4</v>
       </c>
-      <c r="M41" s="45" t="n">
+      <c r="M41" s="43" t="n">
         <f aca="false">VLOOKUP(D41,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N41" s="45" t="n">
+      <c r="N41" s="43" t="n">
         <f aca="false">M41*L41</f>
         <v>0</v>
       </c>
-      <c r="O41" s="45" t="n">
+      <c r="O41" s="43" t="n">
         <f aca="false">IF(M41=0,0,L41*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="37"/>
-      <c r="B42" s="42"/>
+      <c r="B42" s="44"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="43"/>
+      <c r="D42" s="45"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
@@ -18718,17 +18910,17 @@
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="41"/>
-      <c r="L42" s="44"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="43"/>
     </row>
     <row r="43" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="37" t="n">
         <f aca="false">A41+1</f>
         <v>16</v>
       </c>
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="44" t="s">
         <v>139</v>
       </c>
       <c r="C43" s="5"/>
@@ -18750,28 +18942,28 @@
       <c r="K43" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="L43" s="44" t="n">
+      <c r="L43" s="42" t="n">
         <f aca="false">K43/K117</f>
         <v>0.4</v>
       </c>
-      <c r="M43" s="45" t="n">
+      <c r="M43" s="43" t="n">
         <f aca="false">VLOOKUP(D43,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N43" s="45" t="n">
+      <c r="N43" s="43" t="n">
         <f aca="false">M43*L43</f>
         <v>0</v>
       </c>
-      <c r="O43" s="45" t="n">
+      <c r="O43" s="43" t="n">
         <f aca="false">IF(M43=0,0,L43*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="37"/>
-      <c r="B44" s="42"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="43"/>
+      <c r="D44" s="45"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -18779,17 +18971,17 @@
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="41"/>
-      <c r="L44" s="44"/>
-      <c r="M44" s="45"/>
-      <c r="N44" s="45"/>
-      <c r="O44" s="45"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="43"/>
     </row>
     <row r="45" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="37" t="n">
         <f aca="false">A43+1</f>
         <v>17</v>
       </c>
-      <c r="B45" s="42" t="s">
+      <c r="B45" s="44" t="s">
         <v>140</v>
       </c>
       <c r="C45" s="5"/>
@@ -18811,19 +19003,19 @@
       <c r="K45" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="L45" s="44" t="n">
+      <c r="L45" s="42" t="n">
         <f aca="false">K45/K117</f>
         <v>0.2</v>
       </c>
-      <c r="M45" s="45" t="n">
+      <c r="M45" s="43" t="n">
         <f aca="false">VLOOKUP(D45,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N45" s="45" t="n">
+      <c r="N45" s="43" t="n">
         <f aca="false">M45*L45</f>
         <v>0</v>
       </c>
-      <c r="O45" s="45" t="n">
+      <c r="O45" s="43" t="n">
         <f aca="false">IF(M45=0,0,L45*MAX(R2:R8))</f>
         <v>0</v>
       </c>
@@ -18831,7 +19023,7 @@
     <row r="46" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="51"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="43"/>
+      <c r="D46" s="45"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -18839,10 +19031,10 @@
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="41"/>
-      <c r="L46" s="44"/>
-      <c r="M46" s="45"/>
-      <c r="N46" s="45"/>
-      <c r="O46" s="45"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="43"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="31" t="s">
@@ -18857,10 +19049,10 @@
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="41"/>
-      <c r="L47" s="44"/>
-      <c r="M47" s="45"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="45"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="43"/>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="52"/>
@@ -18873,17 +19065,17 @@
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="41"/>
-      <c r="L48" s="44"/>
-      <c r="M48" s="45"/>
-      <c r="N48" s="45"/>
-      <c r="O48" s="45"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="43"/>
     </row>
     <row r="49" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="37" t="n">
         <f aca="false">A45+1</f>
         <v>18</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="44" t="s">
         <v>141</v>
       </c>
       <c r="C49" s="5"/>
@@ -18905,28 +19097,28 @@
       <c r="K49" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="L49" s="44" t="n">
+      <c r="L49" s="42" t="n">
         <f aca="false">K49/K117</f>
         <v>0.8</v>
       </c>
-      <c r="M49" s="45" t="n">
+      <c r="M49" s="43" t="n">
         <f aca="false">VLOOKUP(D49,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N49" s="45" t="n">
+      <c r="N49" s="43" t="n">
         <f aca="false">M49*L49</f>
         <v>0</v>
       </c>
-      <c r="O49" s="45" t="n">
+      <c r="O49" s="43" t="n">
         <f aca="false">IF(M49=0,0,L49*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="37"/>
-      <c r="B50" s="42"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="43"/>
+      <c r="D50" s="45"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
@@ -18934,17 +19126,17 @@
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="41"/>
-      <c r="L50" s="44"/>
-      <c r="M50" s="45"/>
-      <c r="N50" s="45"/>
-      <c r="O50" s="45"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="43"/>
     </row>
     <row r="51" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="37" t="n">
         <f aca="false">A49+1</f>
         <v>19</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="44" t="s">
         <v>142</v>
       </c>
       <c r="C51" s="5"/>
@@ -18966,28 +19158,28 @@
       <c r="K51" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="L51" s="44" t="n">
+      <c r="L51" s="42" t="n">
         <f aca="false">K51/K117</f>
         <v>0.8</v>
       </c>
-      <c r="M51" s="45" t="n">
+      <c r="M51" s="43" t="n">
         <f aca="false">VLOOKUP(D51,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N51" s="45" t="n">
+      <c r="N51" s="43" t="n">
         <f aca="false">M51*L51</f>
         <v>0</v>
       </c>
-      <c r="O51" s="45" t="n">
+      <c r="O51" s="43" t="n">
         <f aca="false">IF(M51=0,0,L51*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="37"/>
-      <c r="B52" s="42"/>
+      <c r="B52" s="44"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="43"/>
+      <c r="D52" s="45"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
@@ -18995,17 +19187,17 @@
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="41"/>
-      <c r="L52" s="44"/>
-      <c r="M52" s="45"/>
-      <c r="N52" s="45"/>
-      <c r="O52" s="45"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="43"/>
     </row>
     <row r="53" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="37" t="n">
         <f aca="false">A51+1</f>
         <v>20</v>
       </c>
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="44" t="s">
         <v>143</v>
       </c>
       <c r="C53" s="5"/>
@@ -19027,28 +19219,28 @@
       <c r="K53" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="L53" s="44" t="n">
+      <c r="L53" s="42" t="n">
         <f aca="false">K53/K117</f>
         <v>0.4</v>
       </c>
-      <c r="M53" s="45" t="n">
+      <c r="M53" s="43" t="n">
         <f aca="false">VLOOKUP(D53,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N53" s="45" t="n">
+      <c r="N53" s="43" t="n">
         <f aca="false">M53*L53</f>
         <v>0</v>
       </c>
-      <c r="O53" s="45" t="n">
+      <c r="O53" s="43" t="n">
         <f aca="false">IF(M53=0,0,L53*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="37"/>
-      <c r="B54" s="42"/>
+      <c r="B54" s="44"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="43"/>
+      <c r="D54" s="45"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
@@ -19056,17 +19248,17 @@
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="41"/>
-      <c r="L54" s="44"/>
-      <c r="M54" s="45"/>
-      <c r="N54" s="45"/>
-      <c r="O54" s="45"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="43"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="43"/>
     </row>
     <row r="55" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="37" t="n">
         <f aca="false">A53+1</f>
         <v>21</v>
       </c>
-      <c r="B55" s="42" t="s">
+      <c r="B55" s="44" t="s">
         <v>144</v>
       </c>
       <c r="C55" s="5"/>
@@ -19088,19 +19280,19 @@
       <c r="K55" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="L55" s="44" t="n">
+      <c r="L55" s="42" t="n">
         <f aca="false">K55/K117</f>
         <v>0.8</v>
       </c>
-      <c r="M55" s="45" t="n">
+      <c r="M55" s="43" t="n">
         <f aca="false">VLOOKUP(D55,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N55" s="45" t="n">
+      <c r="N55" s="43" t="n">
         <f aca="false">M55*L55</f>
         <v>0</v>
       </c>
-      <c r="O55" s="45" t="n">
+      <c r="O55" s="43" t="n">
         <f aca="false">IF(M55=0,0,L55*MAX(R2:R8))</f>
         <v>0</v>
       </c>
@@ -19108,7 +19300,7 @@
     <row r="56" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="51"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="43"/>
+      <c r="D56" s="45"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
@@ -19116,10 +19308,10 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="41"/>
-      <c r="L56" s="44"/>
-      <c r="M56" s="45"/>
-      <c r="N56" s="45"/>
-      <c r="O56" s="45"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="43"/>
+      <c r="N56" s="43"/>
+      <c r="O56" s="43"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="31" t="s">
@@ -19134,10 +19326,10 @@
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="41"/>
-      <c r="L57" s="44"/>
-      <c r="M57" s="45"/>
-      <c r="N57" s="45"/>
-      <c r="O57" s="45"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="43"/>
+      <c r="O57" s="43"/>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="52"/>
@@ -19150,17 +19342,17 @@
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="41"/>
-      <c r="L58" s="44"/>
-      <c r="M58" s="45"/>
-      <c r="N58" s="45"/>
-      <c r="O58" s="45"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="43"/>
+      <c r="N58" s="43"/>
+      <c r="O58" s="43"/>
     </row>
     <row r="59" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="37" t="n">
         <f aca="false">A55+1</f>
         <v>22</v>
       </c>
-      <c r="B59" s="42" t="s">
+      <c r="B59" s="44" t="s">
         <v>145</v>
       </c>
       <c r="C59" s="5"/>
@@ -19182,28 +19374,28 @@
       <c r="K59" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="L59" s="44" t="n">
+      <c r="L59" s="42" t="n">
         <f aca="false">K59/K117</f>
         <v>0.8</v>
       </c>
-      <c r="M59" s="45" t="n">
+      <c r="M59" s="43" t="n">
         <f aca="false">VLOOKUP(D59,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N59" s="45" t="n">
+      <c r="N59" s="43" t="n">
         <f aca="false">M59*L59</f>
         <v>0</v>
       </c>
-      <c r="O59" s="45" t="n">
+      <c r="O59" s="43" t="n">
         <f aca="false">IF(M59=0,0,L59*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="37"/>
-      <c r="B60" s="42"/>
+      <c r="B60" s="44"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="43"/>
+      <c r="D60" s="45"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -19211,17 +19403,17 @@
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="41"/>
-      <c r="L60" s="44"/>
-      <c r="M60" s="45"/>
-      <c r="N60" s="45"/>
-      <c r="O60" s="45"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="43"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="43"/>
     </row>
     <row r="61" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="37" t="n">
         <f aca="false">A59+1</f>
         <v>23</v>
       </c>
-      <c r="B61" s="42" t="s">
+      <c r="B61" s="44" t="s">
         <v>146</v>
       </c>
       <c r="C61" s="5"/>
@@ -19243,28 +19435,28 @@
       <c r="K61" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L61" s="44" t="n">
+      <c r="L61" s="42" t="n">
         <f aca="false">K61/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M61" s="45" t="n">
+      <c r="M61" s="43" t="n">
         <f aca="false">VLOOKUP(D61,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N61" s="45" t="n">
+      <c r="N61" s="43" t="n">
         <f aca="false">M61*L61</f>
         <v>0</v>
       </c>
-      <c r="O61" s="45" t="n">
+      <c r="O61" s="43" t="n">
         <f aca="false">IF(M61=0,0,L61*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="37"/>
-      <c r="B62" s="42"/>
+      <c r="B62" s="44"/>
       <c r="C62" s="5"/>
-      <c r="D62" s="43"/>
+      <c r="D62" s="45"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
@@ -19272,17 +19464,17 @@
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="41"/>
-      <c r="L62" s="44"/>
-      <c r="M62" s="45"/>
-      <c r="N62" s="45"/>
-      <c r="O62" s="45"/>
+      <c r="L62" s="42"/>
+      <c r="M62" s="43"/>
+      <c r="N62" s="43"/>
+      <c r="O62" s="43"/>
     </row>
     <row r="63" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="37" t="n">
         <f aca="false">A61+1</f>
         <v>24</v>
       </c>
-      <c r="B63" s="42" t="s">
+      <c r="B63" s="44" t="s">
         <v>147</v>
       </c>
       <c r="C63" s="5"/>
@@ -19304,19 +19496,19 @@
       <c r="K63" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="L63" s="44" t="n">
+      <c r="L63" s="42" t="n">
         <f aca="false">K63/K117</f>
         <v>0.2</v>
       </c>
-      <c r="M63" s="45" t="n">
+      <c r="M63" s="43" t="n">
         <f aca="false">VLOOKUP(D63,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N63" s="45" t="n">
+      <c r="N63" s="43" t="n">
         <f aca="false">M63*L63</f>
         <v>0</v>
       </c>
-      <c r="O63" s="45" t="n">
+      <c r="O63" s="43" t="n">
         <f aca="false">IF(M63=0,0,L63*MAX(R2:R8))</f>
         <v>0</v>
       </c>
@@ -19324,7 +19516,7 @@
     <row r="64" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="26"/>
       <c r="C64" s="5"/>
-      <c r="D64" s="43"/>
+      <c r="D64" s="45"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
@@ -19332,10 +19524,10 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="41"/>
-      <c r="L64" s="44"/>
-      <c r="M64" s="45"/>
-      <c r="N64" s="45"/>
-      <c r="O64" s="45"/>
+      <c r="L64" s="42"/>
+      <c r="M64" s="43"/>
+      <c r="N64" s="43"/>
+      <c r="O64" s="43"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="31" t="s">
@@ -19350,10 +19542,10 @@
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="41"/>
-      <c r="L65" s="44"/>
-      <c r="M65" s="45"/>
-      <c r="N65" s="45"/>
-      <c r="O65" s="45"/>
+      <c r="L65" s="42"/>
+      <c r="M65" s="43"/>
+      <c r="N65" s="43"/>
+      <c r="O65" s="43"/>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="52"/>
@@ -19366,17 +19558,17 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="41"/>
-      <c r="L66" s="44"/>
-      <c r="M66" s="45"/>
-      <c r="N66" s="45"/>
-      <c r="O66" s="45"/>
+      <c r="L66" s="42"/>
+      <c r="M66" s="43"/>
+      <c r="N66" s="43"/>
+      <c r="O66" s="43"/>
     </row>
     <row r="67" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="37" t="n">
         <f aca="false">A63+1</f>
         <v>25</v>
       </c>
-      <c r="B67" s="42" t="s">
+      <c r="B67" s="44" t="s">
         <v>148</v>
       </c>
       <c r="C67" s="5"/>
@@ -19398,28 +19590,28 @@
       <c r="K67" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L67" s="44" t="n">
+      <c r="L67" s="42" t="n">
         <f aca="false">K67/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M67" s="45" t="n">
+      <c r="M67" s="43" t="n">
         <f aca="false">VLOOKUP(D67,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N67" s="45" t="n">
+      <c r="N67" s="43" t="n">
         <f aca="false">M67*L67</f>
         <v>0</v>
       </c>
-      <c r="O67" s="45" t="n">
+      <c r="O67" s="43" t="n">
         <f aca="false">IF(M67=0,0,L67*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="37"/>
-      <c r="B68" s="42"/>
+      <c r="B68" s="44"/>
       <c r="C68" s="5"/>
-      <c r="D68" s="43"/>
+      <c r="D68" s="45"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
@@ -19427,17 +19619,17 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="41"/>
-      <c r="L68" s="44"/>
-      <c r="M68" s="45"/>
-      <c r="N68" s="45"/>
-      <c r="O68" s="45"/>
+      <c r="L68" s="42"/>
+      <c r="M68" s="43"/>
+      <c r="N68" s="43"/>
+      <c r="O68" s="43"/>
     </row>
     <row r="69" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="37" t="n">
         <f aca="false">A67+1</f>
         <v>26</v>
       </c>
-      <c r="B69" s="42" t="s">
+      <c r="B69" s="44" t="s">
         <v>149</v>
       </c>
       <c r="C69" s="5"/>
@@ -19459,28 +19651,28 @@
       <c r="K69" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="L69" s="44" t="n">
+      <c r="L69" s="42" t="n">
         <f aca="false">K69/K117</f>
         <v>0.4</v>
       </c>
-      <c r="M69" s="45" t="n">
+      <c r="M69" s="43" t="n">
         <f aca="false">VLOOKUP(D69,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N69" s="45" t="n">
+      <c r="N69" s="43" t="n">
         <f aca="false">M69*L69</f>
         <v>0</v>
       </c>
-      <c r="O69" s="45" t="n">
+      <c r="O69" s="43" t="n">
         <f aca="false">IF(M69=0,0,L69*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="37"/>
-      <c r="B70" s="42"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="5"/>
-      <c r="D70" s="43"/>
+      <c r="D70" s="45"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
@@ -19488,17 +19680,17 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="41"/>
-      <c r="L70" s="44"/>
-      <c r="M70" s="45"/>
-      <c r="N70" s="45"/>
-      <c r="O70" s="45"/>
+      <c r="L70" s="42"/>
+      <c r="M70" s="43"/>
+      <c r="N70" s="43"/>
+      <c r="O70" s="43"/>
     </row>
     <row r="71" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="37" t="n">
         <f aca="false">A69+1</f>
         <v>27</v>
       </c>
-      <c r="B71" s="42" t="s">
+      <c r="B71" s="44" t="s">
         <v>150</v>
       </c>
       <c r="C71" s="5"/>
@@ -19520,28 +19712,28 @@
       <c r="K71" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="L71" s="44" t="n">
+      <c r="L71" s="42" t="n">
         <f aca="false">K71/K117</f>
         <v>0.4</v>
       </c>
-      <c r="M71" s="45" t="n">
+      <c r="M71" s="43" t="n">
         <f aca="false">VLOOKUP(D71,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N71" s="45" t="n">
+      <c r="N71" s="43" t="n">
         <f aca="false">M71*L71</f>
         <v>0</v>
       </c>
-      <c r="O71" s="45" t="n">
+      <c r="O71" s="43" t="n">
         <f aca="false">IF(M71=0,0,L71*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="37"/>
-      <c r="B72" s="42"/>
+      <c r="B72" s="44"/>
       <c r="C72" s="5"/>
-      <c r="D72" s="43"/>
+      <c r="D72" s="45"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
@@ -19549,17 +19741,17 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="41"/>
-      <c r="L72" s="44"/>
-      <c r="M72" s="45"/>
-      <c r="N72" s="45"/>
-      <c r="O72" s="45"/>
+      <c r="L72" s="42"/>
+      <c r="M72" s="43"/>
+      <c r="N72" s="43"/>
+      <c r="O72" s="43"/>
     </row>
     <row r="73" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="37" t="n">
         <f aca="false">A71+1</f>
         <v>28</v>
       </c>
-      <c r="B73" s="42" t="s">
+      <c r="B73" s="44" t="s">
         <v>151</v>
       </c>
       <c r="C73" s="5"/>
@@ -19581,28 +19773,28 @@
       <c r="K73" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L73" s="44" t="n">
+      <c r="L73" s="42" t="n">
         <f aca="false">K73/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M73" s="45" t="n">
+      <c r="M73" s="43" t="n">
         <f aca="false">VLOOKUP(D73,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N73" s="45" t="n">
+      <c r="N73" s="43" t="n">
         <f aca="false">M73*L73</f>
         <v>0</v>
       </c>
-      <c r="O73" s="45" t="n">
+      <c r="O73" s="43" t="n">
         <f aca="false">IF(M73=0,0,L73*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="37"/>
-      <c r="B74" s="42"/>
+      <c r="B74" s="44"/>
       <c r="C74" s="5"/>
-      <c r="D74" s="43"/>
+      <c r="D74" s="45"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
@@ -19610,17 +19802,17 @@
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="41"/>
-      <c r="L74" s="44"/>
-      <c r="M74" s="45"/>
-      <c r="N74" s="45"/>
-      <c r="O74" s="45"/>
+      <c r="L74" s="42"/>
+      <c r="M74" s="43"/>
+      <c r="N74" s="43"/>
+      <c r="O74" s="43"/>
     </row>
     <row r="75" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="37" t="n">
         <f aca="false">A73+1</f>
         <v>29</v>
       </c>
-      <c r="B75" s="42" t="s">
+      <c r="B75" s="44" t="s">
         <v>152</v>
       </c>
       <c r="C75" s="5"/>
@@ -19642,19 +19834,19 @@
       <c r="K75" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L75" s="44" t="n">
+      <c r="L75" s="42" t="n">
         <f aca="false">K75/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M75" s="45" t="n">
+      <c r="M75" s="43" t="n">
         <f aca="false">VLOOKUP(D75,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N75" s="45" t="n">
+      <c r="N75" s="43" t="n">
         <f aca="false">M75*L75</f>
         <v>0</v>
       </c>
-      <c r="O75" s="45" t="n">
+      <c r="O75" s="43" t="n">
         <f aca="false">IF(M75=0,0,L75*MAX(R2:R8))</f>
         <v>0</v>
       </c>
@@ -19662,7 +19854,7 @@
     <row r="76" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="51"/>
       <c r="C76" s="5"/>
-      <c r="D76" s="43"/>
+      <c r="D76" s="45"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
@@ -19670,10 +19862,10 @@
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="41"/>
-      <c r="L76" s="44"/>
-      <c r="M76" s="45"/>
-      <c r="N76" s="45"/>
-      <c r="O76" s="45"/>
+      <c r="L76" s="42"/>
+      <c r="M76" s="43"/>
+      <c r="N76" s="43"/>
+      <c r="O76" s="43"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="31" t="s">
@@ -19688,10 +19880,10 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="41"/>
-      <c r="L77" s="44"/>
-      <c r="M77" s="45"/>
-      <c r="N77" s="45"/>
-      <c r="O77" s="45"/>
+      <c r="L77" s="42"/>
+      <c r="M77" s="43"/>
+      <c r="N77" s="43"/>
+      <c r="O77" s="43"/>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="52"/>
@@ -19704,17 +19896,17 @@
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="41"/>
-      <c r="L78" s="44"/>
-      <c r="M78" s="45"/>
-      <c r="N78" s="45"/>
-      <c r="O78" s="45"/>
+      <c r="L78" s="42"/>
+      <c r="M78" s="43"/>
+      <c r="N78" s="43"/>
+      <c r="O78" s="43"/>
     </row>
     <row r="79" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="37" t="n">
         <f aca="false">A75+1</f>
         <v>30</v>
       </c>
-      <c r="B79" s="42" t="s">
+      <c r="B79" s="44" t="s">
         <v>153</v>
       </c>
       <c r="C79" s="5"/>
@@ -19736,28 +19928,28 @@
       <c r="K79" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="L79" s="44" t="n">
+      <c r="L79" s="42" t="n">
         <f aca="false">K79/K117</f>
         <v>0.8</v>
       </c>
-      <c r="M79" s="45" t="n">
+      <c r="M79" s="43" t="n">
         <f aca="false">VLOOKUP(D79,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N79" s="45" t="n">
+      <c r="N79" s="43" t="n">
         <f aca="false">M79*L79</f>
         <v>0</v>
       </c>
-      <c r="O79" s="45" t="n">
+      <c r="O79" s="43" t="n">
         <f aca="false">IF(M79=0,0,L79*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="37"/>
-      <c r="B80" s="42"/>
+      <c r="B80" s="44"/>
       <c r="C80" s="5"/>
-      <c r="D80" s="43"/>
+      <c r="D80" s="45"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
@@ -19765,17 +19957,17 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="41"/>
-      <c r="L80" s="44"/>
-      <c r="M80" s="45"/>
-      <c r="N80" s="45"/>
-      <c r="O80" s="45"/>
+      <c r="L80" s="42"/>
+      <c r="M80" s="43"/>
+      <c r="N80" s="43"/>
+      <c r="O80" s="43"/>
     </row>
     <row r="81" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="37" t="n">
         <f aca="false">A79+1</f>
         <v>31</v>
       </c>
-      <c r="B81" s="42" t="s">
+      <c r="B81" s="44" t="s">
         <v>154</v>
       </c>
       <c r="C81" s="5"/>
@@ -19797,28 +19989,28 @@
       <c r="K81" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L81" s="44" t="n">
+      <c r="L81" s="42" t="n">
         <f aca="false">K81/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M81" s="45" t="n">
+      <c r="M81" s="43" t="n">
         <f aca="false">VLOOKUP(D81,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N81" s="45" t="n">
+      <c r="N81" s="43" t="n">
         <f aca="false">M81*L81</f>
         <v>0</v>
       </c>
-      <c r="O81" s="45" t="n">
+      <c r="O81" s="43" t="n">
         <f aca="false">IF(M81=0,0,L81*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="37"/>
-      <c r="B82" s="42"/>
+      <c r="B82" s="44"/>
       <c r="C82" s="5"/>
-      <c r="D82" s="43"/>
+      <c r="D82" s="45"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
@@ -19826,17 +20018,17 @@
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="41"/>
-      <c r="L82" s="44"/>
-      <c r="M82" s="45"/>
-      <c r="N82" s="45"/>
-      <c r="O82" s="45"/>
+      <c r="L82" s="42"/>
+      <c r="M82" s="43"/>
+      <c r="N82" s="43"/>
+      <c r="O82" s="43"/>
     </row>
     <row r="83" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="37" t="n">
         <f aca="false">A81+1</f>
         <v>32</v>
       </c>
-      <c r="B83" s="42" t="s">
+      <c r="B83" s="44" t="s">
         <v>155</v>
       </c>
       <c r="C83" s="5"/>
@@ -19858,28 +20050,28 @@
       <c r="K83" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L83" s="44" t="n">
+      <c r="L83" s="42" t="n">
         <f aca="false">K83/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M83" s="45" t="n">
+      <c r="M83" s="43" t="n">
         <f aca="false">VLOOKUP(D83,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N83" s="45" t="n">
+      <c r="N83" s="43" t="n">
         <f aca="false">M83*L83</f>
         <v>0</v>
       </c>
-      <c r="O83" s="45" t="n">
+      <c r="O83" s="43" t="n">
         <f aca="false">IF(M83=0,0,L83*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="37"/>
-      <c r="B84" s="42"/>
+      <c r="B84" s="44"/>
       <c r="C84" s="5"/>
-      <c r="D84" s="43"/>
+      <c r="D84" s="45"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
@@ -19887,17 +20079,17 @@
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="41"/>
-      <c r="L84" s="44"/>
-      <c r="M84" s="45"/>
-      <c r="N84" s="45"/>
-      <c r="O84" s="45"/>
+      <c r="L84" s="42"/>
+      <c r="M84" s="43"/>
+      <c r="N84" s="43"/>
+      <c r="O84" s="43"/>
     </row>
     <row r="85" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="37" t="n">
         <f aca="false">A83+1</f>
         <v>33</v>
       </c>
-      <c r="B85" s="42" t="s">
+      <c r="B85" s="44" t="s">
         <v>156</v>
       </c>
       <c r="C85" s="5"/>
@@ -19919,19 +20111,19 @@
       <c r="K85" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L85" s="44" t="n">
+      <c r="L85" s="42" t="n">
         <f aca="false">K85/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M85" s="45" t="n">
+      <c r="M85" s="43" t="n">
         <f aca="false">VLOOKUP(D85,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N85" s="45" t="n">
+      <c r="N85" s="43" t="n">
         <f aca="false">M85*L85</f>
         <v>0</v>
       </c>
-      <c r="O85" s="45" t="n">
+      <c r="O85" s="43" t="n">
         <f aca="false">IF(M85=0,0,L85*MAX(R2:R8))</f>
         <v>0</v>
       </c>
@@ -19939,7 +20131,7 @@
     <row r="86" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B86" s="51"/>
       <c r="C86" s="5"/>
-      <c r="D86" s="43"/>
+      <c r="D86" s="45"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
@@ -19947,10 +20139,10 @@
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="41"/>
-      <c r="L86" s="44"/>
-      <c r="M86" s="45"/>
-      <c r="N86" s="45"/>
-      <c r="O86" s="45"/>
+      <c r="L86" s="42"/>
+      <c r="M86" s="43"/>
+      <c r="N86" s="43"/>
+      <c r="O86" s="43"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="31" t="s">
@@ -19965,10 +20157,10 @@
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
       <c r="K87" s="41"/>
-      <c r="L87" s="44"/>
-      <c r="M87" s="45"/>
-      <c r="N87" s="45"/>
-      <c r="O87" s="45"/>
+      <c r="L87" s="42"/>
+      <c r="M87" s="43"/>
+      <c r="N87" s="43"/>
+      <c r="O87" s="43"/>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B88" s="52"/>
@@ -19981,17 +20173,17 @@
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
       <c r="K88" s="41"/>
-      <c r="L88" s="44"/>
-      <c r="M88" s="45"/>
-      <c r="N88" s="45"/>
-      <c r="O88" s="45"/>
+      <c r="L88" s="42"/>
+      <c r="M88" s="43"/>
+      <c r="N88" s="43"/>
+      <c r="O88" s="43"/>
     </row>
     <row r="89" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="37" t="n">
         <f aca="false">A85+1</f>
         <v>34</v>
       </c>
-      <c r="B89" s="42" t="s">
+      <c r="B89" s="44" t="s">
         <v>157</v>
       </c>
       <c r="C89" s="5"/>
@@ -20013,28 +20205,28 @@
       <c r="K89" s="41" t="n">
         <v>5</v>
       </c>
-      <c r="L89" s="44" t="n">
+      <c r="L89" s="42" t="n">
         <f aca="false">K89/K117</f>
         <v>1</v>
       </c>
-      <c r="M89" s="45" t="n">
+      <c r="M89" s="43" t="n">
         <f aca="false">VLOOKUP(D89,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N89" s="45" t="n">
+      <c r="N89" s="43" t="n">
         <f aca="false">M89*L89</f>
         <v>0</v>
       </c>
-      <c r="O89" s="45" t="n">
+      <c r="O89" s="43" t="n">
         <f aca="false">IF(M89=0,0,L89*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="37"/>
-      <c r="B90" s="42"/>
+      <c r="B90" s="44"/>
       <c r="C90" s="5"/>
-      <c r="D90" s="43"/>
+      <c r="D90" s="45"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
@@ -20042,17 +20234,17 @@
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
       <c r="K90" s="41"/>
-      <c r="L90" s="44"/>
-      <c r="M90" s="45"/>
-      <c r="N90" s="45"/>
-      <c r="O90" s="45"/>
+      <c r="L90" s="42"/>
+      <c r="M90" s="43"/>
+      <c r="N90" s="43"/>
+      <c r="O90" s="43"/>
     </row>
     <row r="91" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="37" t="n">
         <f aca="false">A89+1</f>
         <v>35</v>
       </c>
-      <c r="B91" s="42" t="s">
+      <c r="B91" s="44" t="s">
         <v>158</v>
       </c>
       <c r="C91" s="5"/>
@@ -20074,28 +20266,28 @@
       <c r="K91" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="L91" s="44" t="n">
+      <c r="L91" s="42" t="n">
         <f aca="false">K91/K117</f>
         <v>0.4</v>
       </c>
-      <c r="M91" s="45" t="n">
+      <c r="M91" s="43" t="n">
         <f aca="false">VLOOKUP(D91,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N91" s="45" t="n">
+      <c r="N91" s="43" t="n">
         <f aca="false">M91*L91</f>
         <v>0</v>
       </c>
-      <c r="O91" s="45" t="n">
+      <c r="O91" s="43" t="n">
         <f aca="false">IF(M91=0,0,L91*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="37"/>
-      <c r="B92" s="42"/>
+      <c r="B92" s="44"/>
       <c r="C92" s="5"/>
-      <c r="D92" s="43"/>
+      <c r="D92" s="45"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
@@ -20103,17 +20295,17 @@
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="K92" s="41"/>
-      <c r="L92" s="44"/>
-      <c r="M92" s="45"/>
-      <c r="N92" s="45"/>
-      <c r="O92" s="45"/>
+      <c r="L92" s="42"/>
+      <c r="M92" s="43"/>
+      <c r="N92" s="43"/>
+      <c r="O92" s="43"/>
     </row>
     <row r="93" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="37" t="n">
         <f aca="false">A91+1</f>
         <v>36</v>
       </c>
-      <c r="B93" s="42" t="s">
+      <c r="B93" s="44" t="s">
         <v>159</v>
       </c>
       <c r="C93" s="5"/>
@@ -20135,28 +20327,28 @@
       <c r="K93" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="L93" s="44" t="n">
+      <c r="L93" s="42" t="n">
         <f aca="false">K93/K117</f>
         <v>0.8</v>
       </c>
-      <c r="M93" s="45" t="n">
+      <c r="M93" s="43" t="n">
         <f aca="false">VLOOKUP(D93,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N93" s="45" t="n">
+      <c r="N93" s="43" t="n">
         <f aca="false">M93*L93</f>
         <v>0</v>
       </c>
-      <c r="O93" s="45" t="n">
+      <c r="O93" s="43" t="n">
         <f aca="false">IF(M93=0,0,L93*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="37"/>
-      <c r="B94" s="42"/>
+      <c r="B94" s="44"/>
       <c r="C94" s="5"/>
-      <c r="D94" s="43"/>
+      <c r="D94" s="45"/>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
@@ -20164,17 +20356,17 @@
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
       <c r="K94" s="41"/>
-      <c r="L94" s="44"/>
-      <c r="M94" s="45"/>
-      <c r="N94" s="45"/>
-      <c r="O94" s="45"/>
+      <c r="L94" s="42"/>
+      <c r="M94" s="43"/>
+      <c r="N94" s="43"/>
+      <c r="O94" s="43"/>
     </row>
     <row r="95" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="37" t="n">
         <f aca="false">A93+1</f>
         <v>37</v>
       </c>
-      <c r="B95" s="42" t="s">
+      <c r="B95" s="44" t="s">
         <v>160</v>
       </c>
       <c r="C95" s="5"/>
@@ -20196,28 +20388,28 @@
       <c r="K95" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L95" s="44" t="n">
+      <c r="L95" s="42" t="n">
         <f aca="false">K95/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M95" s="45" t="n">
+      <c r="M95" s="43" t="n">
         <f aca="false">VLOOKUP(D95,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N95" s="45" t="n">
+      <c r="N95" s="43" t="n">
         <f aca="false">M95*L95</f>
         <v>0</v>
       </c>
-      <c r="O95" s="45" t="n">
+      <c r="O95" s="43" t="n">
         <f aca="false">IF(M95=0,0,L95*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="37"/>
-      <c r="B96" s="42"/>
+      <c r="B96" s="44"/>
       <c r="C96" s="5"/>
-      <c r="D96" s="43"/>
+      <c r="D96" s="45"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
@@ -20225,17 +20417,17 @@
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
       <c r="K96" s="41"/>
-      <c r="L96" s="44"/>
-      <c r="M96" s="45"/>
-      <c r="N96" s="45"/>
-      <c r="O96" s="45"/>
+      <c r="L96" s="42"/>
+      <c r="M96" s="43"/>
+      <c r="N96" s="43"/>
+      <c r="O96" s="43"/>
     </row>
     <row r="97" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="37" t="n">
         <f aca="false">A95+1</f>
         <v>38</v>
       </c>
-      <c r="B97" s="42" t="s">
+      <c r="B97" s="44" t="s">
         <v>161</v>
       </c>
       <c r="C97" s="5"/>
@@ -20257,19 +20449,19 @@
       <c r="K97" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L97" s="44" t="n">
+      <c r="L97" s="42" t="n">
         <f aca="false">K97/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M97" s="45" t="n">
+      <c r="M97" s="43" t="n">
         <f aca="false">VLOOKUP(D97,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N97" s="45" t="n">
+      <c r="N97" s="43" t="n">
         <f aca="false">M97*L97</f>
         <v>0</v>
       </c>
-      <c r="O97" s="45" t="n">
+      <c r="O97" s="43" t="n">
         <f aca="false">IF(M97=0,0,L97*MAX(R2:R8))</f>
         <v>0</v>
       </c>
@@ -20277,7 +20469,7 @@
     <row r="98" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B98" s="51"/>
       <c r="C98" s="5"/>
-      <c r="D98" s="43"/>
+      <c r="D98" s="45"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
@@ -20285,10 +20477,10 @@
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="K98" s="41"/>
-      <c r="L98" s="44"/>
-      <c r="M98" s="45"/>
-      <c r="N98" s="45"/>
-      <c r="O98" s="45"/>
+      <c r="L98" s="42"/>
+      <c r="M98" s="43"/>
+      <c r="N98" s="43"/>
+      <c r="O98" s="43"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="31" t="s">
@@ -20303,10 +20495,10 @@
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
       <c r="K99" s="41"/>
-      <c r="L99" s="44"/>
-      <c r="M99" s="45"/>
-      <c r="N99" s="45"/>
-      <c r="O99" s="45"/>
+      <c r="L99" s="42"/>
+      <c r="M99" s="43"/>
+      <c r="N99" s="43"/>
+      <c r="O99" s="43"/>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B100" s="52"/>
@@ -20319,17 +20511,17 @@
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
       <c r="K100" s="41"/>
-      <c r="L100" s="44"/>
-      <c r="M100" s="45"/>
-      <c r="N100" s="45"/>
-      <c r="O100" s="45"/>
+      <c r="L100" s="42"/>
+      <c r="M100" s="43"/>
+      <c r="N100" s="43"/>
+      <c r="O100" s="43"/>
     </row>
     <row r="101" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="37" t="n">
         <f aca="false">A97+1</f>
         <v>39</v>
       </c>
-      <c r="B101" s="42" t="s">
+      <c r="B101" s="44" t="s">
         <v>162</v>
       </c>
       <c r="C101" s="5"/>
@@ -20351,28 +20543,28 @@
       <c r="K101" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="L101" s="44" t="n">
+      <c r="L101" s="42" t="n">
         <f aca="false">K101/K117</f>
         <v>0.8</v>
       </c>
-      <c r="M101" s="45" t="n">
+      <c r="M101" s="43" t="n">
         <f aca="false">VLOOKUP(D101,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N101" s="45" t="n">
+      <c r="N101" s="43" t="n">
         <f aca="false">M101*L101</f>
         <v>0</v>
       </c>
-      <c r="O101" s="45" t="n">
+      <c r="O101" s="43" t="n">
         <f aca="false">IF(M101=0,0,L101*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="37"/>
-      <c r="B102" s="42"/>
+      <c r="B102" s="44"/>
       <c r="C102" s="5"/>
-      <c r="D102" s="43"/>
+      <c r="D102" s="45"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
@@ -20380,17 +20572,17 @@
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
       <c r="K102" s="41"/>
-      <c r="L102" s="44"/>
-      <c r="M102" s="45"/>
-      <c r="N102" s="45"/>
-      <c r="O102" s="45"/>
+      <c r="L102" s="42"/>
+      <c r="M102" s="43"/>
+      <c r="N102" s="43"/>
+      <c r="O102" s="43"/>
     </row>
     <row r="103" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="37" t="n">
         <f aca="false">A101+1</f>
         <v>40</v>
       </c>
-      <c r="B103" s="42" t="s">
+      <c r="B103" s="44" t="s">
         <v>163</v>
       </c>
       <c r="C103" s="5"/>
@@ -20412,28 +20604,28 @@
       <c r="K103" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L103" s="44" t="n">
+      <c r="L103" s="42" t="n">
         <f aca="false">K103/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M103" s="45" t="n">
+      <c r="M103" s="43" t="n">
         <f aca="false">VLOOKUP(D103,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N103" s="45" t="n">
+      <c r="N103" s="43" t="n">
         <f aca="false">M103*L103</f>
         <v>0</v>
       </c>
-      <c r="O103" s="45" t="n">
+      <c r="O103" s="43" t="n">
         <f aca="false">IF(M103=0,0,L103*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="37"/>
-      <c r="B104" s="42"/>
+      <c r="B104" s="44"/>
       <c r="C104" s="5"/>
-      <c r="D104" s="43"/>
+      <c r="D104" s="45"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
@@ -20441,17 +20633,17 @@
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
       <c r="K104" s="41"/>
-      <c r="L104" s="44"/>
-      <c r="M104" s="45"/>
-      <c r="N104" s="45"/>
-      <c r="O104" s="45"/>
+      <c r="L104" s="42"/>
+      <c r="M104" s="43"/>
+      <c r="N104" s="43"/>
+      <c r="O104" s="43"/>
     </row>
     <row r="105" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="37" t="n">
         <f aca="false">A103+1</f>
         <v>41</v>
       </c>
-      <c r="B105" s="42" t="s">
+      <c r="B105" s="44" t="s">
         <v>164</v>
       </c>
       <c r="C105" s="5"/>
@@ -20473,28 +20665,28 @@
       <c r="K105" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L105" s="44" t="n">
+      <c r="L105" s="42" t="n">
         <f aca="false">K105/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M105" s="45" t="n">
+      <c r="M105" s="43" t="n">
         <f aca="false">VLOOKUP(D105,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N105" s="45" t="n">
+      <c r="N105" s="43" t="n">
         <f aca="false">M105*L105</f>
         <v>0</v>
       </c>
-      <c r="O105" s="45" t="n">
+      <c r="O105" s="43" t="n">
         <f aca="false">IF(M105=0,0,L105*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="37"/>
-      <c r="B106" s="42"/>
+      <c r="B106" s="44"/>
       <c r="C106" s="5"/>
-      <c r="D106" s="43"/>
+      <c r="D106" s="45"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
@@ -20502,17 +20694,17 @@
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
       <c r="K106" s="41"/>
-      <c r="L106" s="44"/>
-      <c r="M106" s="45"/>
-      <c r="N106" s="45"/>
-      <c r="O106" s="45"/>
+      <c r="L106" s="42"/>
+      <c r="M106" s="43"/>
+      <c r="N106" s="43"/>
+      <c r="O106" s="43"/>
     </row>
     <row r="107" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="37" t="n">
         <f aca="false">A105+1</f>
         <v>42</v>
       </c>
-      <c r="B107" s="42" t="s">
+      <c r="B107" s="44" t="s">
         <v>165</v>
       </c>
       <c r="C107" s="5"/>
@@ -20534,19 +20726,19 @@
       <c r="K107" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="L107" s="44" t="n">
+      <c r="L107" s="42" t="n">
         <f aca="false">K107/K117</f>
         <v>0.4</v>
       </c>
-      <c r="M107" s="45" t="n">
+      <c r="M107" s="43" t="n">
         <f aca="false">VLOOKUP(D107,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N107" s="45" t="n">
+      <c r="N107" s="43" t="n">
         <f aca="false">M107*L107</f>
         <v>0</v>
       </c>
-      <c r="O107" s="45" t="n">
+      <c r="O107" s="43" t="n">
         <f aca="false">IF(M107=0,0,L107*MAX(R2:R8))</f>
         <v>0</v>
       </c>
@@ -20554,7 +20746,7 @@
     <row r="108" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B108" s="51"/>
       <c r="C108" s="5"/>
-      <c r="D108" s="43"/>
+      <c r="D108" s="45"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
@@ -20562,10 +20754,10 @@
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="41"/>
-      <c r="L108" s="44"/>
-      <c r="M108" s="45"/>
-      <c r="N108" s="45"/>
-      <c r="O108" s="45"/>
+      <c r="L108" s="42"/>
+      <c r="M108" s="43"/>
+      <c r="N108" s="43"/>
+      <c r="O108" s="43"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="31" t="s">
@@ -20580,10 +20772,10 @@
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="41"/>
-      <c r="L109" s="44"/>
-      <c r="M109" s="45"/>
-      <c r="N109" s="45"/>
-      <c r="O109" s="45"/>
+      <c r="L109" s="42"/>
+      <c r="M109" s="43"/>
+      <c r="N109" s="43"/>
+      <c r="O109" s="43"/>
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B110" s="52"/>
@@ -20596,17 +20788,17 @@
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="41"/>
-      <c r="L110" s="44"/>
-      <c r="M110" s="45"/>
-      <c r="N110" s="45"/>
-      <c r="O110" s="45"/>
+      <c r="L110" s="42"/>
+      <c r="M110" s="43"/>
+      <c r="N110" s="43"/>
+      <c r="O110" s="43"/>
     </row>
     <row r="111" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="37" t="n">
         <f aca="false">A107+1</f>
         <v>43</v>
       </c>
-      <c r="B111" s="42" t="s">
+      <c r="B111" s="44" t="s">
         <v>166</v>
       </c>
       <c r="C111" s="19"/>
@@ -20658,7 +20850,7 @@
     </row>
     <row r="112" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="37"/>
-      <c r="B112" s="42"/>
+      <c r="B112" s="44"/>
       <c r="C112" s="19"/>
       <c r="D112" s="58"/>
       <c r="E112" s="19"/>
@@ -20689,7 +20881,7 @@
         <f aca="false">A111+1</f>
         <v>44</v>
       </c>
-      <c r="B113" s="42" t="s">
+      <c r="B113" s="44" t="s">
         <v>167</v>
       </c>
       <c r="C113" s="19"/>
@@ -20741,7 +20933,7 @@
     </row>
     <row r="114" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="37"/>
-      <c r="B114" s="42"/>
+      <c r="B114" s="44"/>
       <c r="C114" s="19"/>
       <c r="D114" s="58"/>
       <c r="E114" s="19"/>
@@ -20772,7 +20964,7 @@
         <f aca="false">A113+1</f>
         <v>45</v>
       </c>
-      <c r="B115" s="42" t="s">
+      <c r="B115" s="44" t="s">
         <v>168</v>
       </c>
       <c r="C115" s="19"/>
@@ -20825,7 +21017,7 @@
     <row r="116" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B116" s="60"/>
       <c r="C116" s="5"/>
-      <c r="D116" s="43"/>
+      <c r="D116" s="45"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
@@ -31549,7 +31741,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{7B3D91AD-E31F-49D0-B9D1-692EA080AB35}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{837F68D1-5257-4A90-8ABC-DCF93CDDE26F}">
             <xm:f>"Enter score"</xm:f>
             <x14:dxf>
               <fill>
@@ -31581,7 +31773,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -36232,7 +36424,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{ED9FC6BA-D857-437D-9EC6-B87D939A90BF}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{F7B08D75-9DF3-41B6-A769-E290ABAD9098}">
             <xm:f>"Enter score"</xm:f>
             <x14:dxf>
               <fill>
@@ -36264,7 +36456,7 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/P1/Usability-review-Lambus.xlsx
+++ b/P1/Usability-review-Lambus.xlsx
@@ -883,12 +883,6 @@
     <t xml:space="preserve">N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">Las características y la funcionalidad cumplen con las metas y objetivos comunes del usuario.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación debería de poder permitir asignar una hora a las distintas  paradas/eventos del viaje. Por ahora solo se permite asignarle una fecha.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Las características y la funcionalidad son compatibles con los flujos de trabajo deseados por los usuarios.</t>
   </si>
   <si>
@@ -899,6 +893,12 @@
   </si>
   <si>
     <t xml:space="preserve">El acceso a la funcionalidad de gestión y organización de viajes está fácilmente accesible a un solo toque en la pantalla principal de la aplicación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las características y la funcionalidad cumplen con las metas y objetivos comunes del usuario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación debería de poder permitir asignar una hora a las distintas  paradas/eventos del viaje. Por ahora solo se permite asignarle una fecha.</t>
   </si>
   <si>
     <t xml:space="preserve">Los usuarios reciben un apoyo adecuado según su nivel de experiencia (por ejemplo, atajos para usuarios expertos, ayuda e instrucciones para usuarios novatos).</t>
@@ -916,6 +916,12 @@
     <t xml:space="preserve">Homepage / starting page</t>
   </si>
   <si>
+    <t xml:space="preserve">El diseño de la página de inicio es clara y ordenada con suficiente "espacio en blanco".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño bonito, con botones fácilmente accesibles y con un tamaño acorde a su relevancia. El tema de la aplicación se ajusta acorde al del dispositivo.</t>
+  </si>
+  <si>
     <t xml:space="preserve">La página de inicio proporciona una instantánea clara y una descripción general del contenido, las características y la funcionalidad disponible.</t>
   </si>
   <si>
@@ -928,12 +934,6 @@
     <t xml:space="preserve">Los botones de la página principal no disponen de un label que indique su funcionalidad así que para  un usuario novato, saber a donde acceder para conseguir su objetivo puede ser frustrante.</t>
   </si>
   <si>
-    <t xml:space="preserve">El diseño de la página de inicio es clara y ordenada con suficiente "espacio en blanco".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diseño bonito, con botones fácilmente accesibles y con un tamaño acorde a su relevancia. El tema de la aplicación se ajusta acorde al del dispositivo.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Navigation</t>
   </si>
   <si>
@@ -941,6 +941,18 @@
   </si>
   <si>
     <t xml:space="preserve">La aplicación  se puede obtener fácilmente desde la Play Store  y App Store. El resultado aparece el primero  y posee una página cuidada en la tienda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La estructura del sitio o la aplicación es clara, fácil de entender y aborda objetivos comunes del usuario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La estructura  de  la aplicación es clara, dando prioridad visualmente a los objetivos comunes del usuario como la creación de viajes,  gestión de gastos o planning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los usuarios pueden volver fácilmente a la página de inicio o a un punto de inicio relevante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generalmente se permite volver al inicio pulsando el botón correspondiente en el menú, pero hay determinados submenús que ocultan ese botón de inicio. De forma, que la vuelta al inicio en algunos casos no se muestra de forma directa</t>
   </si>
   <si>
     <t xml:space="preserve">El esquema de navegación (por ejemplo, el menú) es fácil de encontrar, intuitivo y consistente.</t>
@@ -955,16 +967,10 @@
     <t xml:space="preserve">Ciertos campos de la aplicación como los viajes o documentos permiten ser ordenados por criterios como la fecha de creación entre otros pero otros campos como el historial de gastos no ofrece esa posibilidad.</t>
   </si>
   <si>
-    <t xml:space="preserve">La estructura del sitio o la aplicación es clara, fácil de entender y aborda objetivos comunes del usuario.</t>
+    <t xml:space="preserve">La ubicación actual está claramente indicada (por ejemplo, ruta de navegación, elemento de menú resaltado).</t>
   </si>
   <si>
-    <t xml:space="preserve">La estructura  de  la aplicación es clara, dando prioridad visualmente a los objetivos comunes del usuario como la creación de viajes,  gestión de gastos o planning.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los enlaces son claros, descriptivos y están bien etiquetados.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No hay enlaces, todo se hace a través de menús y opciones. </t>
+    <t xml:space="preserve">La aplicación no indica en qué menú te encuentras actualmente más allá de resaltar el  icono ligeramente.</t>
   </si>
   <si>
     <t xml:space="preserve">Las funciones estándar del navegador (por ejemplo, 'atrás', 'adelante', 'marcador') son compatibles.</t>
@@ -973,16 +979,10 @@
     <t xml:space="preserve">Es una aplicación, no una página web que se visualice en un navegador</t>
   </si>
   <si>
-    <t xml:space="preserve">La ubicación actual está claramente indicada (por ejemplo, ruta de navegación, elemento de menú resaltado).</t>
+    <t xml:space="preserve">Los enlaces son claros, descriptivos y están bien etiquetados.</t>
   </si>
   <si>
-    <t xml:space="preserve">La aplicación no indica en qué menú te encuentras actualmente más allá de resaltar el  icono ligeramente.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los usuarios pueden volver fácilmente a la página de inicio o a un punto de inicio relevante.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generalmente se permite volver al inicio pulsando el botón correspondiente en el menú, pero hay determinados submenús que ocultan ese botón de inicio. De forma, que la vuelta al inicio en algunos casos no se muestra de forma directa</t>
+    <t xml:space="preserve">No hay enlaces, todo se hace a través de menús y opciones. </t>
   </si>
   <si>
     <t xml:space="preserve">Se proporciona un mapa del sitio o índice claro y bien estructurado (cuando sea necesario)</t>
@@ -994,10 +994,10 @@
     <t xml:space="preserve">Search</t>
   </si>
   <si>
-    <t xml:space="preserve">Una función de búsqueda consistente, fácil de encontrar y fácil de usar está disponible en todas partes (cuando sea conveniente)</t>
+    <t xml:space="preserve">El servicio de búsqueda se ocupa de las búsquedas comunes (por ejemplo, muestra la mayoría de resultados populares), faltas de ortografía y abreviaturas.</t>
   </si>
   <si>
-    <t xml:space="preserve">No hay una opción de búsqueda general, sólo para determinadas funcionalidades concretas (como buscar paradas o  buscar planificaciones de viajes de otros usuarios de la aplicación)</t>
+    <t xml:space="preserve">Muestra los resultados más populares y es capaz de corregir errores ortográficos, pero no en todos los casos (véase torre de pizza).</t>
   </si>
   <si>
     <t xml:space="preserve">La interfaz de búsqueda es adecuada para cumplir los objetivos del usuario (por ejemplo, parámetros múltiples, resultados priorizados, filtrado de resultados de búsqueda)</t>
@@ -1006,19 +1006,31 @@
     <t xml:space="preserve">La búsqueda puede ser filtrada según los gustos del usuario (preferencia por festivales, comida, museos…), pero no se permite filtrar según varios parámetros simultáneamente. Aunque sí prioriza los más populares.</t>
   </si>
   <si>
-    <t xml:space="preserve">El servicio de búsqueda se ocupa de las búsquedas comunes (por ejemplo, muestra la mayoría de resultados populares), faltas de ortografía y abreviaturas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muestra los resultados más populares y es capaz de corregir errores ortográficos, pero no en todos los casos (véase torre de pizza).</t>
-  </si>
-  <si>
     <t xml:space="preserve">Los resultados de búsqueda son relevantes, exhaustivos, precisos y se muestran bien</t>
   </si>
   <si>
     <t xml:space="preserve">Los resultados son relativamente relevantes, siempre y cuando la aplicación conozca lo que se está buscando, cosa que por desgracia no sucede siempre.</t>
   </si>
   <si>
+    <t xml:space="preserve">Una función de búsqueda consistente, fácil de encontrar y fácil de usar está disponible en todas partes (cuando sea conveniente)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No hay una opción de búsqueda general, sólo para determinadas funcionalidades concretas (como buscar paradas o  buscar planificaciones de viajes de otros usuarios de la aplicación)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Control &amp; feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los usuarios pueden enviar comentarios (por ejemplo, por correo electrónico o mediante un formulario de comentarios / contacto en línea)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se proporcina un correo electrónico de contacto y se dispone de un chat en línea con el soporte de la aplicación, aunque éste útilmo no es eficiente debido a los largos tiempos de respuesta desde que se envía el mensaje.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los usuarios pueden fácilmente deshacer, volver atrás y cambiar o cancelar acciones; o al menos tienen la oportunidad de confirmar una acción antes de cometer (por ejemplo, antes de realizar un pedido)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se tiene opción a eliminar en la aplicación (como notas, viajes ya creados, paradas), pero no a deshacer cambios hechos.</t>
   </si>
   <si>
     <t xml:space="preserve">Se proporciona una respuesta rápida y apropiada (por ejemplo, después de una acción exitosa o no exitosa).
@@ -1028,19 +1040,13 @@
     <t xml:space="preserve">En las funciones principales de la aplicación (como crear un nuevo viaje o añadir gastos) no se informa del éxito de una acción, pero sí que informa de ello en opciones secundarias (como crear notas). No es consistente.</t>
   </si>
   <si>
-    <t xml:space="preserve">Los usuarios pueden fácilmente deshacer, volver atrás y cambiar o cancelar acciones; o al menos tienen la oportunidad de confirmar una acción antes de cometer (por ejemplo, antes de realizar un pedido)</t>
+    <t xml:space="preserve">Forms</t>
   </si>
   <si>
-    <t xml:space="preserve">Se tiene opción a eliminar en la aplicación (como notas, viajes ya creados, paradas), pero no a deshacer cambios hechos.</t>
+    <t xml:space="preserve">Se utilizan los campos de entrada apropiados (por ejemplo, el calendario para la selección de la fecha, el menú desplegable para la selección) y se indican los formatos requeridos</t>
   </si>
   <si>
-    <t xml:space="preserve">Los usuarios pueden enviar comentarios (por ejemplo, por correo electrónico o mediante un formulario de comentarios / contacto en línea)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se proporcina un correo electrónico de contacto y se dispone de un chat en línea con el soporte de la aplicación, aunque éste útilmo no es eficiente debido a los largos tiempos de respuesta desde que se envía el mensaje.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forms</t>
+    <t xml:space="preserve">Para introducir fechas se utiliza un calendario, para los gastos un teclado numérico, para la elección de paradas utiliza un mapa.</t>
   </si>
   <si>
     <t xml:space="preserve">Los formularios y los procesos complejos se dividen en pasos y secciones fácilmente comprensibles. Cuando se utiliza un proceso, hay un indicador de progreso con números claros o etapas con nombre.</t>
@@ -1049,10 +1055,10 @@
     <t xml:space="preserve">Se distiguien claramente los pasos a seguir de los procesos principales a realizar en la aplicación, como añadir un gasto o un nuevo viaje.</t>
   </si>
   <si>
-    <t xml:space="preserve">Se solicita una cantidad mínima de información y, cuando se proporciona la justificación necesaria para solicitar información (por ejemplo, fecha de nacimiento, número de teléfono)</t>
+    <t xml:space="preserve">Se proporcionan ayuda e instrucciones (como ejemplos, información requerida) donde sea necesario. </t>
   </si>
   <si>
-    <t xml:space="preserve">No comprendemos el significado de este campo</t>
+    <t xml:space="preserve">Se indica qué introducir en cada campo de los formularios, pero no se proporcionan ejemplos.</t>
   </si>
   <si>
     <t xml:space="preserve">Los campos de formulario requeridos y opcionales están claramente indicados</t>
@@ -1061,25 +1067,19 @@
     <t xml:space="preserve">No da opción a tener campos opcionales, todo lo que implica la creación de un nuevo viaje en la aplicación es obligatorio</t>
   </si>
   <si>
-    <t xml:space="preserve">Se utilizan los campos de entrada apropiados (por ejemplo, el calendario para la selección de la fecha, el menú desplegable para la selección) y se indican los formatos requeridos</t>
+    <t xml:space="preserve">Se solicita una cantidad mínima de información y, cuando se proporciona la justificación necesaria para solicitar información (por ejemplo, fecha de nacimiento, número de teléfono)</t>
   </si>
   <si>
-    <t xml:space="preserve">Para introducir fechas se utiliza un calendario, para los gastos un teclado numérico, para la elección de paradas utiliza un mapa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se proporcionan ayuda e instrucciones (como ejemplos, información requerida) donde sea necesario. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se indica qué introducir en cada campo de los formularios, pero no se proporcionan ejemplos.</t>
+    <t xml:space="preserve">No comprendemos el significado de este campo</t>
   </si>
   <si>
     <t xml:space="preserve">Errors</t>
   </si>
   <si>
-    <t xml:space="preserve">Los errores son claros, fácilmente identificables y aparecen en la ubicación apropiada (por ejemplo, adyacente al campo de entrada de datos, adyacente al formulario, etc.).</t>
+    <t xml:space="preserve">Los errores de usuario comunes (por ejemplo, campos faltantes, formatos no válidos, selecciones no válidas) se han tenido en cuenta y, en la medida de lo posible, se han prevenido.</t>
   </si>
   <si>
-    <t xml:space="preserve">En la mayoría de casos no se muestra un mensaje de error (como hacer una búsqueda de lugares del mundo o enviar mensajes sin conexión a internet ). Aunque sí muestra mensajes de error a la hora de importar un mapa o viaje de otro usuario.</t>
+    <t xml:space="preserve">Se han prevenido no permitiendo al usuario continuar el proceso (véase crear un viaje sin definir un periodo de fechas).</t>
   </si>
   <si>
     <t xml:space="preserve">Los mensajes de error son concisos, están escritos en un lenguaje fácil de entender y describen qué ocurrió y qué acción es necesaria</t>
@@ -1088,10 +1088,10 @@
     <t xml:space="preserve">Los errores que se informan dan una explicación pobre al respecto, por ejemplo cuando se quiere importar un viaje de otro usuario sin conexión no se indica que el error producido ha sido por esto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Los errores de usuario comunes (por ejemplo, campos faltantes, formatos no válidos, selecciones no válidas) se han tenido en cuenta y, en la medida de lo posible, se han prevenido.</t>
+    <t xml:space="preserve">Los errores son claros, fácilmente identificables y aparecen en la ubicación apropiada (por ejemplo, adyacente al campo de entrada de datos, adyacente al formulario, etc.).</t>
   </si>
   <si>
-    <t xml:space="preserve">Se han prevenido no permitiendo al usuario continuar el proceso (véase crear un viaje sin definir un periodo de fechas).</t>
+    <t xml:space="preserve">En la mayoría de casos no se muestra un mensaje de error (como hacer una búsqueda de lugares del mundo o enviar mensajes sin conexión a internet ). Aunque sí muestra mensajes de error a la hora de importar un mapa o viaje de otro usuario.</t>
   </si>
   <si>
     <t xml:space="preserve">Los usuarios pueden recuperarse fácilmente (es decir, no tienen que comenzar de nuevo) de los errores</t>
@@ -1101,6 +1101,24 @@
   </si>
   <si>
     <t xml:space="preserve">Content &amp; text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El texto y el contenido son legibles y escaneables, con buena tipografía y contraste visual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación utiliza una tipografía clara y legible en color blanco sobre fondo negro (modo nocturno) o color negro sobre fondo blanco (modo diurno).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El lenguaje, la terminología y el tono utilizados son apropiados y son fácilmente comprensibles para el público objetivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El lenguaje utilizado en la aplicación es correcto, bien redactado y fácil de entender por la mayoría de los usuarios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los términos, el idioma y el tono utilizados son consistentes (por ejemplo, el mismo término se usa en todo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hay una serie de términos definidos que se utilizan consistentemente en todas las partes de la aplicación (como viaje, paradas o actividades). La traducción al castellano es parcial, hay aspectos de la aplicación que no están traducidos (como importar un viaje)</t>
   </si>
   <si>
     <t xml:space="preserve">El contenido disponible (por ejemplo, texto, imágenes, video) es apropiado y suficientemente relevante, y detallado para cumplir con los objetivos del usuario</t>
@@ -1115,25 +1133,13 @@
     <t xml:space="preserve">No ofrece enlaces a contenido externo de relevancia, sólo ofrece información propia de la aplicación.</t>
   </si>
   <si>
-    <t xml:space="preserve">El lenguaje, la terminología y el tono utilizados son apropiados y son fácilmente comprensibles para el público objetivo</t>
+    <t xml:space="preserve">Help</t>
   </si>
   <si>
-    <t xml:space="preserve">El lenguaje utilizado en la aplicación es correcto, bien redactado y fácil de entender por la mayoría de los usuarios.</t>
+    <t xml:space="preserve">Los usuarios pueden obtener más ayuda fácilmente (por ejemplo, teléfono o dirección de correo electrónico)</t>
   </si>
   <si>
-    <t xml:space="preserve">Los términos, el idioma y el tono utilizados son consistentes (por ejemplo, el mismo término se usa en todo)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hay una serie de términos definidos que se utilizan consistentemente en todas las partes de la aplicación (como viaje, paradas o actividades). La traducción al castellano es parcial, hay aspectos de la aplicación que no están traducidos (como importar un viaje)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El texto y el contenido son legibles y escaneables, con buena tipografía y contraste visual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La aplicación utiliza una tipografía clara y legible en color blanco sobre fondo negro (modo nocturno) o color negro sobre fondo blanco (modo diurno).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Help</t>
+    <t xml:space="preserve">El servicio de atención al cliente por el chat online es poco eficiente (se tarda en responder), aunque sí se aporta un correo electrónico de contacto.</t>
   </si>
   <si>
     <t xml:space="preserve">Se proporciona ayuda en línea y contextual y es adecuada para la base de usuarios (por ejemplo, está escrita en un lenguaje fácil de entender y solo usa términos reconocidos). </t>
@@ -1154,13 +1160,13 @@
     <t xml:space="preserve">No, el usuario ha de abandonar lo que estaba haciendo para acceder al menú específico de ayuda</t>
   </si>
   <si>
-    <t xml:space="preserve">Los usuarios pueden obtener más ayuda fácilmente (por ejemplo, teléfono o dirección de correo electrónico)</t>
+    <t xml:space="preserve">Performance</t>
   </si>
   <si>
-    <t xml:space="preserve">El servicio de atención al cliente por el chat online es poco eficiente (se tarda en responder), aunque sí se aporta un correo electrónico de contacto.</t>
+    <t xml:space="preserve">Se admiten posibles configuraciones de usuario (por ejemplo, navegadores, resoluciones, especificaciones de computadora)</t>
   </si>
   <si>
-    <t xml:space="preserve">Performance</t>
+    <t xml:space="preserve">Para diferentes versiones de Android y tamaños de pantalla la aplicación se adapta correctamente.</t>
   </si>
   <si>
     <t xml:space="preserve">El rendimiento del sitio o la aplicación no inhibe la experiencia del usuario (por ejemplo, descargas lentas de páginas, retrasos prolongados)</t>
@@ -1173,12 +1179,6 @@
   </si>
   <si>
     <t xml:space="preserve">No hemos experimentado errores relevantes durante el uso de la aplicación.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se admiten posibles configuraciones de usuario (por ejemplo, navegadores, resoluciones, especificaciones de computadora)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para diferentes versiones de Android y tamaños de pantalla la aplicación se adapta correctamente.</t>
   </si>
   <si>
     <t xml:space="preserve">Overall usability score (out of 100) *</t>
@@ -2841,7 +2841,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="26">
+  <cellStyleXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2865,6 +2865,15 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
@@ -3047,20 +3056,20 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -3252,19 +3261,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="15">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="ExtConditionalStyle_1 3" xfId="20"/>
+    <cellStyle name="ExtConditionalStyle_1 6" xfId="20"/>
     <cellStyle name="ExtConditionalStyle_1 1" xfId="21"/>
     <cellStyle name="ExtConditionalStyle_1 2" xfId="22"/>
-    <cellStyle name="ExtConditionalStyle_1 4" xfId="23"/>
-    <cellStyle name="ExtConditionalStyle_1 5" xfId="24"/>
-    <cellStyle name="ExtConditionalStyle_1" xfId="25"/>
+    <cellStyle name="ExtConditionalStyle_1 3" xfId="23"/>
+    <cellStyle name="ExtConditionalStyle_1 4" xfId="24"/>
+    <cellStyle name="ExtConditionalStyle_1 5" xfId="25"/>
+    <cellStyle name="ExtConditionalStyle_1 7" xfId="26"/>
+    <cellStyle name="ExtConditionalStyle_1 8" xfId="27"/>
+    <cellStyle name="ExtConditionalStyle_1" xfId="28"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -3280,9 +3292,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>304200</xdr:colOff>
+      <xdr:colOff>303840</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>304560</xdr:rowOff>
+      <xdr:rowOff>304200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3296,7 +3308,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="828720"/>
-          <a:ext cx="304200" cy="304200"/>
+          <a:ext cx="303840" cy="303840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3322,9 +3334,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>304200</xdr:colOff>
+      <xdr:colOff>303840</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>304200</xdr:rowOff>
+      <xdr:rowOff>303840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3338,7 +3350,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="828360"/>
-          <a:ext cx="304200" cy="304200"/>
+          <a:ext cx="303840" cy="303840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3360,11 +3372,11 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B108" activeCellId="0" sqref="B108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.29"/>
@@ -3628,7 +3640,7 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="e">
@@ -3647,35 +3659,15 @@
       <c r="K9" s="41" t="n">
         <v>5</v>
       </c>
-      <c r="L9" s="42" t="n">
-        <f aca="false">K9/K117</f>
-        <v>1</v>
-      </c>
-      <c r="M9" s="43" t="n">
-        <f aca="false">VLOOKUP(D9,Q1:R9,2,FALSE())</f>
-        <v>4</v>
-      </c>
-      <c r="N9" s="43" t="n">
-        <f aca="false">M9*L9</f>
-        <v>4</v>
-      </c>
-      <c r="O9" s="43" t="n">
-        <f aca="false">IF(M9=0,0,L9*MAX(R2:R8))</f>
-        <v>5</v>
-      </c>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="37"/>
-      <c r="B10" s="44"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="45"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -3683,10 +3675,10 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="41"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
       <c r="P10" s="46"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
@@ -3724,19 +3716,19 @@
       <c r="K11" s="41" t="n">
         <v>5</v>
       </c>
-      <c r="L11" s="42" t="n">
+      <c r="L11" s="44" t="n">
         <f aca="false">K11/K117</f>
         <v>1</v>
       </c>
-      <c r="M11" s="43" t="n">
-        <f aca="false">VLOOKUP(D11,Q1:R9,2,FALSE())</f>
+      <c r="M11" s="45" t="n">
+        <f aca="false">VLOOKUP(D9,Q1:R9,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="N11" s="43" t="n">
+      <c r="N11" s="45" t="n">
         <f aca="false">M11*L11</f>
         <v>5</v>
       </c>
-      <c r="O11" s="43" t="n">
+      <c r="O11" s="45" t="n">
         <f aca="false">IF(M11=0,0,L11*MAX(R2:R8))</f>
         <v>5</v>
       </c>
@@ -3748,9 +3740,9 @@
     </row>
     <row r="12" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="37"/>
-      <c r="B12" s="44"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="45"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -3758,10 +3750,10 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="41"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
@@ -3780,7 +3772,7 @@
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="e">
@@ -3799,19 +3791,19 @@
       <c r="K13" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="L13" s="42" t="n">
+      <c r="L13" s="44" t="n">
         <f aca="false">K13/K117</f>
         <v>0.8</v>
       </c>
-      <c r="M13" s="43" t="n">
-        <f aca="false">VLOOKUP(D13,Q1:R9,2,FALSE())</f>
+      <c r="M13" s="45" t="n">
+        <f aca="false">VLOOKUP(D11,Q1:R9,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="N13" s="43" t="n">
+      <c r="N13" s="45" t="n">
         <f aca="false">M13*L13</f>
         <v>4</v>
       </c>
-      <c r="O13" s="43" t="n">
+      <c r="O13" s="45" t="n">
         <f aca="false">IF(M13=0,0,L13*MAX(R2:R8))</f>
         <v>4</v>
       </c>
@@ -3825,9 +3817,9 @@
     </row>
     <row r="14" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="37"/>
-      <c r="B14" s="44"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="45"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -3835,11 +3827,11 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="41"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="S14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="S14" s="42"/>
     </row>
     <row r="15" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="37" t="n">
@@ -3874,11 +3866,11 @@
         <f aca="false">K15/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M15" s="43" t="n">
+      <c r="M15" s="45" t="n">
         <f aca="false">VLOOKUP(D15,Q1:R9,2,FALSE())</f>
         <v>2</v>
       </c>
-      <c r="N15" s="43" t="n">
+      <c r="N15" s="45" t="n">
         <f aca="false">M15*L15</f>
         <v>1.2</v>
       </c>
@@ -3892,9 +3884,9 @@
     </row>
     <row r="16" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="37"/>
-      <c r="B16" s="44"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="45"/>
+      <c r="D16" s="43"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -3902,11 +3894,11 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="41"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="S16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="S16" s="42"/>
       <c r="T16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3938,29 +3930,29 @@
       <c r="K17" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L17" s="42" t="n">
+      <c r="L17" s="44" t="n">
         <f aca="false">K17/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M17" s="43" t="n">
+      <c r="M17" s="45" t="n">
         <f aca="false">VLOOKUP(D17,Q1:R9,2,FALSE())</f>
         <v>2</v>
       </c>
-      <c r="N17" s="43" t="n">
+      <c r="N17" s="45" t="n">
         <f aca="false">M17*L17</f>
         <v>1.2</v>
       </c>
-      <c r="O17" s="43" t="n">
+      <c r="O17" s="45" t="n">
         <f aca="false">IF(M17=0,0,L17*MAX(R2:R8))</f>
         <v>3</v>
       </c>
-      <c r="S17" s="44"/>
+      <c r="S17" s="42"/>
       <c r="T17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="51"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="45"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -3968,11 +3960,11 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="41"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="S18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="S18" s="42"/>
       <c r="T18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3980,7 +3972,7 @@
         <v>29</v>
       </c>
       <c r="C19" s="35"/>
-      <c r="D19" s="45"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -3988,15 +3980,15 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="41"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="52"/>
       <c r="C20" s="35"/>
-      <c r="D20" s="45"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -4004,10 +3996,10 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="41"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
     </row>
     <row r="21" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="37" t="n">
@@ -4019,17 +4011,11 @@
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="39" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="5" t="e">
-        <f aca="false">#REF!*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G21" s="5" t="e">
-        <f aca="false">IF(#REF!&gt;=0,10*#REF!,0)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="40" t="s">
         <v>31</v>
@@ -4038,28 +4024,12 @@
       <c r="K21" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L21" s="42" t="n">
-        <f aca="false">K21/K117</f>
-        <v>0.6</v>
-      </c>
-      <c r="M21" s="43" t="n">
-        <f aca="false">VLOOKUP(D21,Q1:R9,2,FALSE())</f>
-        <v>3</v>
-      </c>
-      <c r="N21" s="43" t="n">
-        <f aca="false">M21*L21</f>
-        <v>1.8</v>
-      </c>
-      <c r="O21" s="43" t="n">
-        <f aca="false">IF(M21=0,0,L21*MAX(R2:R8))</f>
-        <v>3</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="37"/>
-      <c r="B22" s="44"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="45"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -4068,12 +4038,12 @@
       <c r="J22" s="5"/>
       <c r="K22" s="48"/>
       <c r="L22" s="49"/>
-      <c r="M22" s="43"/>
+      <c r="M22" s="45"/>
       <c r="N22" s="53"/>
       <c r="O22" s="53"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
     </row>
     <row r="23" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="37" t="n">
@@ -4085,7 +4055,7 @@
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5" t="e">
@@ -4104,30 +4074,30 @@
       <c r="K23" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="L23" s="42" t="n">
+      <c r="L23" s="44" t="n">
         <f aca="false">K23/K117</f>
         <v>0.8</v>
       </c>
-      <c r="M23" s="43" t="n">
-        <f aca="false">VLOOKUP(D23,Q1:R9,2,FALSE())</f>
+      <c r="M23" s="45" t="n">
+        <f aca="false">VLOOKUP(D25,Q1:R9,2,FALSE())</f>
         <v>2</v>
       </c>
-      <c r="N23" s="43" t="n">
+      <c r="N23" s="45" t="n">
         <f aca="false">M23*L23</f>
         <v>1.6</v>
       </c>
-      <c r="O23" s="43" t="n">
+      <c r="O23" s="45" t="n">
         <f aca="false">IF(M23=0,0,L23*MAX(R2:R8))</f>
         <v>4</v>
       </c>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
     </row>
     <row r="24" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="37"/>
-      <c r="B24" s="44"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="45"/>
+      <c r="D24" s="43"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -4135,12 +4105,12 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="41"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="37" t="n">
@@ -4152,11 +4122,17 @@
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="39" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="F25" s="5" t="e">
+        <f aca="false">#REF!*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G25" s="5" t="e">
+        <f aca="false">IF(#REF!&gt;=0,10*#REF!,0)</f>
+        <v>#REF!</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="40" t="s">
         <v>35</v>
@@ -4165,29 +4141,29 @@
       <c r="K25" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L25" s="42" t="n">
+      <c r="L25" s="44" t="n">
         <f aca="false">K25/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M25" s="43" t="n">
-        <f aca="false">VLOOKUP(D25,Q1:R9,2,FALSE())</f>
+      <c r="M25" s="45" t="n">
+        <f aca="false">VLOOKUP(D21,Q1:R9,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="N25" s="43" t="n">
+      <c r="N25" s="45" t="n">
         <f aca="false">M25*L25</f>
         <v>3</v>
       </c>
-      <c r="O25" s="43" t="n">
+      <c r="O25" s="45" t="n">
         <f aca="false">IF(M25=0,0,L25*MAX(R2:R8))</f>
         <v>3</v>
       </c>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
     </row>
     <row r="26" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="51"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="45"/>
+      <c r="D26" s="43"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -4195,13 +4171,13 @@
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="41"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="31" t="s">
@@ -4216,13 +4192,13 @@
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="41"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="52"/>
@@ -4235,13 +4211,13 @@
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="41"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="44"/>
-      <c r="S28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
     </row>
     <row r="29" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="37" t="n">
@@ -4272,31 +4248,31 @@
       <c r="K29" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="L29" s="42" t="n">
+      <c r="L29" s="44" t="n">
         <f aca="false">K29/K117</f>
         <v>0.4</v>
       </c>
-      <c r="M29" s="43" t="n">
+      <c r="M29" s="45" t="n">
         <f aca="false">VLOOKUP(D29,Q1:R9,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="N29" s="43" t="n">
+      <c r="N29" s="45" t="n">
         <f aca="false">M29*L29</f>
         <v>2</v>
       </c>
-      <c r="O29" s="43" t="n">
+      <c r="O29" s="45" t="n">
         <f aca="false">IF(M29=0,0,L29*MAX(R2:R8))</f>
         <v>2</v>
       </c>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
     </row>
     <row r="30" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="37"/>
-      <c r="B30" s="44"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="45"/>
+      <c r="D30" s="43"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -4305,7 +4281,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="48"/>
       <c r="L30" s="49"/>
-      <c r="M30" s="43"/>
+      <c r="M30" s="45"/>
       <c r="N30" s="55"/>
       <c r="O30" s="53"/>
       <c r="P30" s="13"/>
@@ -4323,7 +4299,7 @@
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5" t="e">
@@ -4342,28 +4318,12 @@
       <c r="K31" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="L31" s="42" t="n">
-        <f aca="false">K31/K117</f>
-        <v>0.8</v>
-      </c>
-      <c r="M31" s="43" t="n">
-        <f aca="false">VLOOKUP(D31,Q1:R9,2,FALSE())</f>
-        <v>4</v>
-      </c>
-      <c r="N31" s="43" t="n">
-        <f aca="false">M31*L31</f>
-        <v>3.2</v>
-      </c>
-      <c r="O31" s="43" t="n">
-        <f aca="false">IF(M31=0,0,L31*MAX(R2:R8))</f>
-        <v>4</v>
-      </c>
     </row>
     <row r="32" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="37"/>
-      <c r="B32" s="44"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="45"/>
+      <c r="D32" s="43"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
@@ -4371,10 +4331,10 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="41"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
     </row>
     <row r="33" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="37" t="n">
@@ -4386,11 +4346,17 @@
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="39" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
+      <c r="F33" s="5" t="e">
+        <f aca="false">#REF!*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G33" s="5" t="e">
+        <f aca="false">IF(#REF!&gt;=0,10*#REF!,0)</f>
+        <v>#REF!</v>
+      </c>
       <c r="H33" s="5"/>
       <c r="I33" s="40" t="s">
         <v>42</v>
@@ -4399,28 +4365,12 @@
       <c r="K33" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L33" s="42" t="n">
-        <f aca="false">K33/K117</f>
-        <v>0.6</v>
-      </c>
-      <c r="M33" s="43" t="n">
-        <f aca="false">VLOOKUP(D33,Q1:R9,2,FALSE())</f>
-        <v>3</v>
-      </c>
-      <c r="N33" s="43" t="n">
-        <f aca="false">M33*L33</f>
-        <v>1.8</v>
-      </c>
-      <c r="O33" s="43" t="n">
-        <f aca="false">IF(M33=0,0,L33*MAX(R2:R8))</f>
-        <v>3</v>
-      </c>
     </row>
     <row r="34" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="37"/>
-      <c r="B34" s="44"/>
+      <c r="B34" s="42"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="45"/>
+      <c r="D34" s="43"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -4428,10 +4378,10 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="41"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
     </row>
     <row r="35" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="37" t="n">
@@ -4443,7 +4393,7 @@
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5" t="e">
@@ -4462,28 +4412,28 @@
       <c r="K35" s="41" t="n">
         <v>5</v>
       </c>
-      <c r="L35" s="42" t="n">
+      <c r="L35" s="44" t="n">
         <f aca="false">K35/K117</f>
         <v>1</v>
       </c>
-      <c r="M35" s="43" t="n">
-        <f aca="false">VLOOKUP(D35,Q1:R9,2,FALSE())</f>
+      <c r="M35" s="45" t="n">
+        <f aca="false">VLOOKUP(D31,Q1:R9,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="N35" s="43" t="n">
+      <c r="N35" s="45" t="n">
         <f aca="false">M35*L35</f>
         <v>5</v>
       </c>
-      <c r="O35" s="43" t="n">
+      <c r="O35" s="45" t="n">
         <f aca="false">IF(M35=0,0,L35*MAX(R2:R8))</f>
         <v>5</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="37"/>
-      <c r="B36" s="44"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="45"/>
+      <c r="D36" s="43"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -4491,10 +4441,10 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="41"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
     </row>
     <row r="37" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="37" t="n">
@@ -4506,17 +4456,11 @@
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="39" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E37" s="5"/>
-      <c r="F37" s="5" t="e">
-        <f aca="false">#REF!*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G37" s="5" t="e">
-        <f aca="false">IF(#REF!&gt;=0,10*#REF!,0)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="40" t="s">
         <v>46</v>
@@ -4525,28 +4469,28 @@
       <c r="K37" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L37" s="42" t="n">
+      <c r="L37" s="44" t="n">
         <f aca="false">K37/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M37" s="43" t="n">
-        <f aca="false">VLOOKUP(D37,Q1:R9,2,FALSE())</f>
+      <c r="M37" s="45" t="n">
+        <f aca="false">VLOOKUP(D43,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N37" s="43" t="n">
+      <c r="N37" s="45" t="n">
         <f aca="false">M37*L37</f>
         <v>0</v>
       </c>
-      <c r="O37" s="43" t="n">
+      <c r="O37" s="45" t="n">
         <f aca="false">IF(M37=0,0,L37*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="37"/>
-      <c r="B38" s="44"/>
+      <c r="B38" s="42"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="45"/>
+      <c r="D38" s="43"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
@@ -4554,10 +4498,10 @@
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="41"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
     </row>
     <row r="39" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="37" t="n">
@@ -4569,7 +4513,7 @@
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="39" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5" t="e">
@@ -4588,31 +4532,31 @@
       <c r="K39" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="L39" s="42" t="n">
+      <c r="L39" s="44" t="n">
         <f aca="false">K39/K117</f>
         <v>0.8</v>
       </c>
-      <c r="M39" s="43" t="n">
-        <f aca="false">VLOOKUP(D39,Q1:R9,2,FALSE())</f>
+      <c r="M39" s="45" t="n">
+        <f aca="false">VLOOKUP(D41,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N39" s="43" t="n">
+      <c r="N39" s="45" t="n">
         <f aca="false">M39*L39</f>
         <v>0</v>
       </c>
-      <c r="O39" s="43" t="n">
+      <c r="O39" s="45" t="n">
         <f aca="false">IF(M39=0,0,L39*MAX(R2:R8))</f>
         <v>0</v>
       </c>
-      <c r="Q39" s="44"/>
-      <c r="R39" s="44"/>
-      <c r="S39" s="44"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="42"/>
     </row>
     <row r="40" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="37"/>
-      <c r="B40" s="44"/>
+      <c r="B40" s="42"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="45"/>
+      <c r="D40" s="43"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
@@ -4621,7 +4565,7 @@
       <c r="J40" s="5"/>
       <c r="K40" s="48"/>
       <c r="L40" s="49"/>
-      <c r="M40" s="43"/>
+      <c r="M40" s="45"/>
       <c r="N40" s="55"/>
       <c r="O40" s="53"/>
       <c r="P40" s="13"/>
@@ -4639,7 +4583,7 @@
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="39" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5" t="e">
@@ -4655,31 +4599,12 @@
         <v>50</v>
       </c>
       <c r="J41" s="5"/>
-      <c r="K41" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="L41" s="42" t="n">
-        <f aca="false">K41/K117</f>
-        <v>0.4</v>
-      </c>
-      <c r="M41" s="43" t="n">
-        <f aca="false">VLOOKUP(D41,Q1:R9,2,FALSE())</f>
-        <v>2</v>
-      </c>
-      <c r="N41" s="43" t="n">
-        <f aca="false">M41*L41</f>
-        <v>0.8</v>
-      </c>
-      <c r="O41" s="43" t="n">
-        <f aca="false">IF(M41=0,0,L41*MAX(R2:R8))</f>
-        <v>2</v>
-      </c>
     </row>
     <row r="42" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="37"/>
-      <c r="B42" s="44"/>
+      <c r="B42" s="42"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="45"/>
+      <c r="D42" s="43"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
@@ -4687,10 +4612,10 @@
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="41"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="43"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="45"/>
     </row>
     <row r="43" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="37" t="n">
@@ -4702,7 +4627,7 @@
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="39" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5" t="e">
@@ -4721,28 +4646,28 @@
       <c r="K43" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="L43" s="42" t="n">
+      <c r="L43" s="44" t="n">
         <f aca="false">K43/K117</f>
         <v>0.4</v>
       </c>
-      <c r="M43" s="43" t="n">
-        <f aca="false">VLOOKUP(D43,Q1:R9,2,FALSE())</f>
+      <c r="M43" s="45" t="n">
+        <f aca="false">VLOOKUP(D33,Q1:R9,2,FALSE())</f>
         <v>4</v>
       </c>
-      <c r="N43" s="43" t="n">
+      <c r="N43" s="45" t="n">
         <f aca="false">M43*L43</f>
         <v>1.6</v>
       </c>
-      <c r="O43" s="43" t="n">
+      <c r="O43" s="45" t="n">
         <f aca="false">IF(M43=0,0,L43*MAX(R2:R8))</f>
         <v>2</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="37"/>
-      <c r="B44" s="44"/>
+      <c r="B44" s="42"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="45"/>
+      <c r="D44" s="43"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -4750,10 +4675,10 @@
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="41"/>
-      <c r="L44" s="42"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="43"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="45"/>
+      <c r="N44" s="45"/>
+      <c r="O44" s="45"/>
     </row>
     <row r="45" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="37" t="n">
@@ -4784,19 +4709,19 @@
       <c r="K45" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="L45" s="42" t="n">
+      <c r="L45" s="44" t="n">
         <f aca="false">K45/K117</f>
         <v>0.2</v>
       </c>
-      <c r="M45" s="43" t="n">
+      <c r="M45" s="45" t="n">
         <f aca="false">VLOOKUP(D45,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N45" s="43" t="n">
+      <c r="N45" s="45" t="n">
         <f aca="false">M45*L45</f>
         <v>0</v>
       </c>
-      <c r="O45" s="43" t="n">
+      <c r="O45" s="45" t="n">
         <f aca="false">IF(M45=0,0,L45*MAX(R2:R8))</f>
         <v>0</v>
       </c>
@@ -4804,7 +4729,7 @@
     <row r="46" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="51"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="45"/>
+      <c r="D46" s="43"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -4812,10 +4737,10 @@
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="41"/>
-      <c r="L46" s="42"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="43"/>
-      <c r="O46" s="43"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="45"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="45"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="31" t="s">
@@ -4830,10 +4755,10 @@
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="41"/>
-      <c r="L47" s="42"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="43"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="45"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="45"/>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="52"/>
@@ -4846,10 +4771,10 @@
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="41"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="43"/>
-      <c r="N48" s="43"/>
-      <c r="O48" s="43"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
     </row>
     <row r="49" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="37" t="n">
@@ -4861,7 +4786,7 @@
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="39" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5" t="e">
@@ -4877,31 +4802,12 @@
         <v>57</v>
       </c>
       <c r="J49" s="5"/>
-      <c r="K49" s="41" t="n">
-        <v>4</v>
-      </c>
-      <c r="L49" s="42" t="n">
-        <f aca="false">K49/K117</f>
-        <v>0.8</v>
-      </c>
-      <c r="M49" s="43" t="n">
-        <f aca="false">VLOOKUP(D49,Q1:R9,2,FALSE())</f>
-        <v>2</v>
-      </c>
-      <c r="N49" s="43" t="n">
-        <f aca="false">M49*L49</f>
-        <v>1.6</v>
-      </c>
-      <c r="O49" s="43" t="n">
-        <f aca="false">IF(M49=0,0,L49*MAX(R2:R8))</f>
-        <v>4</v>
-      </c>
     </row>
     <row r="50" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="37"/>
-      <c r="B50" s="44"/>
+      <c r="B50" s="42"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="45"/>
+      <c r="D50" s="43"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
@@ -4909,10 +4815,10 @@
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="41"/>
-      <c r="L50" s="42"/>
-      <c r="M50" s="43"/>
-      <c r="N50" s="43"/>
-      <c r="O50" s="43"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="45"/>
+      <c r="N50" s="45"/>
+      <c r="O50" s="45"/>
     </row>
     <row r="51" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="37" t="n">
@@ -4943,28 +4849,28 @@
       <c r="K51" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="L51" s="42" t="n">
+      <c r="L51" s="44" t="n">
         <f aca="false">K51/K117</f>
         <v>0.8</v>
       </c>
-      <c r="M51" s="43" t="n">
+      <c r="M51" s="45" t="n">
         <f aca="false">VLOOKUP(D51,Q1:R9,2,FALSE())</f>
         <v>3</v>
       </c>
-      <c r="N51" s="43" t="n">
+      <c r="N51" s="45" t="n">
         <f aca="false">M51*L51</f>
         <v>2.4</v>
       </c>
-      <c r="O51" s="43" t="n">
+      <c r="O51" s="45" t="n">
         <f aca="false">IF(M51=0,0,L51*MAX(R2:R8))</f>
         <v>4</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="37"/>
-      <c r="B52" s="44"/>
+      <c r="B52" s="42"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="45"/>
+      <c r="D52" s="43"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
@@ -4972,10 +4878,10 @@
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="41"/>
-      <c r="L52" s="42"/>
-      <c r="M52" s="43"/>
-      <c r="N52" s="43"/>
-      <c r="O52" s="43"/>
+      <c r="L52" s="44"/>
+      <c r="M52" s="45"/>
+      <c r="N52" s="45"/>
+      <c r="O52" s="45"/>
     </row>
     <row r="53" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="37" t="n">
@@ -4987,7 +4893,7 @@
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="39" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5" t="e">
@@ -5006,28 +4912,28 @@
       <c r="K53" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="L53" s="42" t="n">
+      <c r="L53" s="44" t="n">
         <f aca="false">K53/K117</f>
         <v>0.4</v>
       </c>
-      <c r="M53" s="43" t="n">
-        <f aca="false">VLOOKUP(D53,Q1:R9,2,FALSE())</f>
+      <c r="M53" s="45" t="n">
+        <f aca="false">VLOOKUP(D49,Q1:R9,2,FALSE())</f>
         <v>4</v>
       </c>
-      <c r="N53" s="43" t="n">
+      <c r="N53" s="45" t="n">
         <f aca="false">M53*L53</f>
         <v>1.6</v>
       </c>
-      <c r="O53" s="43" t="n">
+      <c r="O53" s="45" t="n">
         <f aca="false">IF(M53=0,0,L53*MAX(R2:R8))</f>
         <v>2</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="37"/>
-      <c r="B54" s="44"/>
+      <c r="B54" s="42"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="45"/>
+      <c r="D54" s="43"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
@@ -5035,10 +4941,10 @@
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="41"/>
-      <c r="L54" s="42"/>
-      <c r="M54" s="43"/>
-      <c r="N54" s="43"/>
-      <c r="O54" s="43"/>
+      <c r="L54" s="44"/>
+      <c r="M54" s="45"/>
+      <c r="N54" s="45"/>
+      <c r="O54" s="45"/>
     </row>
     <row r="55" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="37" t="n">
@@ -5050,7 +4956,7 @@
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5" t="e">
@@ -5069,19 +4975,19 @@
       <c r="K55" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="L55" s="42" t="n">
+      <c r="L55" s="44" t="n">
         <f aca="false">K55/K117</f>
         <v>0.8</v>
       </c>
-      <c r="M55" s="43" t="n">
-        <f aca="false">VLOOKUP(D55,Q1:R9,2,FALSE())</f>
+      <c r="M55" s="45" t="n">
+        <f aca="false">VLOOKUP(D53,Q1:R9,2,FALSE())</f>
         <v>3</v>
       </c>
-      <c r="N55" s="43" t="n">
+      <c r="N55" s="45" t="n">
         <f aca="false">M55*L55</f>
         <v>2.4</v>
       </c>
-      <c r="O55" s="43" t="n">
+      <c r="O55" s="45" t="n">
         <f aca="false">IF(M55=0,0,L55*MAX(R2:R8))</f>
         <v>4</v>
       </c>
@@ -5089,7 +4995,7 @@
     <row r="56" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="51"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="45"/>
+      <c r="D56" s="43"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
@@ -5097,10 +5003,10 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="41"/>
-      <c r="L56" s="42"/>
-      <c r="M56" s="43"/>
-      <c r="N56" s="43"/>
-      <c r="O56" s="43"/>
+      <c r="L56" s="44"/>
+      <c r="M56" s="45"/>
+      <c r="N56" s="45"/>
+      <c r="O56" s="45"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="31" t="s">
@@ -5115,10 +5021,10 @@
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="41"/>
-      <c r="L57" s="42"/>
-      <c r="M57" s="43"/>
-      <c r="N57" s="43"/>
-      <c r="O57" s="43"/>
+      <c r="L57" s="44"/>
+      <c r="M57" s="45"/>
+      <c r="N57" s="45"/>
+      <c r="O57" s="45"/>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="52"/>
@@ -5131,10 +5037,10 @@
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="41"/>
-      <c r="L58" s="42"/>
-      <c r="M58" s="43"/>
-      <c r="N58" s="43"/>
-      <c r="O58" s="43"/>
+      <c r="L58" s="44"/>
+      <c r="M58" s="45"/>
+      <c r="N58" s="45"/>
+      <c r="O58" s="45"/>
     </row>
     <row r="59" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="37" t="n">
@@ -5146,7 +5052,7 @@
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="39" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5" t="e">
@@ -5165,28 +5071,12 @@
       <c r="K59" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="L59" s="42" t="n">
-        <f aca="false">K59/K117</f>
-        <v>0.8</v>
-      </c>
-      <c r="M59" s="43" t="n">
-        <f aca="false">VLOOKUP(D59,Q1:R9,2,FALSE())</f>
-        <v>1</v>
-      </c>
-      <c r="N59" s="43" t="n">
-        <f aca="false">M59*L59</f>
-        <v>0.8</v>
-      </c>
-      <c r="O59" s="43" t="n">
-        <f aca="false">IF(M59=0,0,L59*MAX(R2:R8))</f>
-        <v>4</v>
-      </c>
     </row>
     <row r="60" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="37"/>
-      <c r="B60" s="44"/>
+      <c r="B60" s="42"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="45"/>
+      <c r="D60" s="43"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -5194,10 +5084,10 @@
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="41"/>
-      <c r="L60" s="42"/>
-      <c r="M60" s="43"/>
-      <c r="N60" s="43"/>
-      <c r="O60" s="43"/>
+      <c r="L60" s="44"/>
+      <c r="M60" s="45"/>
+      <c r="N60" s="45"/>
+      <c r="O60" s="45"/>
     </row>
     <row r="61" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="37" t="n">
@@ -5228,28 +5118,28 @@
       <c r="K61" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L61" s="42" t="n">
+      <c r="L61" s="44" t="n">
         <f aca="false">K61/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M61" s="43" t="n">
+      <c r="M61" s="45" t="n">
         <f aca="false">VLOOKUP(D61,Q1:R9,2,FALSE())</f>
         <v>1</v>
       </c>
-      <c r="N61" s="43" t="n">
+      <c r="N61" s="45" t="n">
         <f aca="false">M61*L61</f>
         <v>0.6</v>
       </c>
-      <c r="O61" s="43" t="n">
+      <c r="O61" s="45" t="n">
         <f aca="false">IF(M61=0,0,L61*MAX(R2:R8))</f>
         <v>3</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="37"/>
-      <c r="B62" s="44"/>
+      <c r="B62" s="42"/>
       <c r="C62" s="5"/>
-      <c r="D62" s="45"/>
+      <c r="D62" s="43"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
@@ -5257,10 +5147,10 @@
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="41"/>
-      <c r="L62" s="42"/>
-      <c r="M62" s="43"/>
-      <c r="N62" s="43"/>
-      <c r="O62" s="43"/>
+      <c r="L62" s="44"/>
+      <c r="M62" s="45"/>
+      <c r="N62" s="45"/>
+      <c r="O62" s="45"/>
     </row>
     <row r="63" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="37" t="n">
@@ -5272,7 +5162,7 @@
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="39" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5" t="e">
@@ -5291,19 +5181,19 @@
       <c r="K63" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="L63" s="42" t="n">
+      <c r="L63" s="44" t="n">
         <f aca="false">K63/K117</f>
         <v>0.2</v>
       </c>
-      <c r="M63" s="43" t="n">
-        <f aca="false">VLOOKUP(D63,Q1:R9,2,FALSE())</f>
+      <c r="M63" s="45" t="n">
+        <f aca="false">VLOOKUP(D59,Q1:R9,2,FALSE())</f>
         <v>3</v>
       </c>
-      <c r="N63" s="43" t="n">
+      <c r="N63" s="45" t="n">
         <f aca="false">M63*L63</f>
         <v>0.6</v>
       </c>
-      <c r="O63" s="43" t="n">
+      <c r="O63" s="45" t="n">
         <f aca="false">IF(M63=0,0,L63*MAX(R2:R8))</f>
         <v>1</v>
       </c>
@@ -5311,7 +5201,7 @@
     <row r="64" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="26"/>
       <c r="C64" s="5"/>
-      <c r="D64" s="45"/>
+      <c r="D64" s="43"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
@@ -5319,10 +5209,10 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="41"/>
-      <c r="L64" s="42"/>
-      <c r="M64" s="43"/>
-      <c r="N64" s="43"/>
-      <c r="O64" s="43"/>
+      <c r="L64" s="44"/>
+      <c r="M64" s="45"/>
+      <c r="N64" s="45"/>
+      <c r="O64" s="45"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="31" t="s">
@@ -5337,10 +5227,10 @@
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="41"/>
-      <c r="L65" s="42"/>
-      <c r="M65" s="43"/>
-      <c r="N65" s="43"/>
-      <c r="O65" s="43"/>
+      <c r="L65" s="44"/>
+      <c r="M65" s="45"/>
+      <c r="N65" s="45"/>
+      <c r="O65" s="45"/>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="52"/>
@@ -5353,10 +5243,10 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="41"/>
-      <c r="L66" s="42"/>
-      <c r="M66" s="43"/>
-      <c r="N66" s="43"/>
-      <c r="O66" s="43"/>
+      <c r="L66" s="44"/>
+      <c r="M66" s="45"/>
+      <c r="N66" s="45"/>
+      <c r="O66" s="45"/>
     </row>
     <row r="67" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="37" t="n">
@@ -5368,7 +5258,7 @@
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5" t="e">
@@ -5387,28 +5277,28 @@
       <c r="K67" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L67" s="42" t="n">
+      <c r="L67" s="44" t="n">
         <f aca="false">K67/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M67" s="43" t="n">
-        <f aca="false">VLOOKUP(D67,Q1:R9,2,FALSE())</f>
+      <c r="M67" s="45" t="n">
+        <f aca="false">VLOOKUP(D69,Q1:R9,2,FALSE())</f>
         <v>4</v>
       </c>
-      <c r="N67" s="43" t="n">
+      <c r="N67" s="45" t="n">
         <f aca="false">M67*L67</f>
         <v>2.4</v>
       </c>
-      <c r="O67" s="43" t="n">
+      <c r="O67" s="45" t="n">
         <f aca="false">IF(M67=0,0,L67*MAX(R2:R8))</f>
         <v>3</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="37"/>
-      <c r="B68" s="44"/>
+      <c r="B68" s="42"/>
       <c r="C68" s="5"/>
-      <c r="D68" s="45"/>
+      <c r="D68" s="43"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
@@ -5416,10 +5306,10 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="41"/>
-      <c r="L68" s="42"/>
-      <c r="M68" s="43"/>
-      <c r="N68" s="43"/>
-      <c r="O68" s="43"/>
+      <c r="L68" s="44"/>
+      <c r="M68" s="45"/>
+      <c r="N68" s="45"/>
+      <c r="O68" s="45"/>
     </row>
     <row r="69" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="37" t="n">
@@ -5431,7 +5321,7 @@
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="39" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5" t="e">
@@ -5450,28 +5340,16 @@
       <c r="K69" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="L69" s="42" t="n">
+      <c r="L69" s="44" t="n">
         <f aca="false">K69/K117</f>
         <v>0.4</v>
       </c>
-      <c r="M69" s="43" t="n">
-        <f aca="false">VLOOKUP(D69,Q1:R9,2,FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="N69" s="43" t="n">
-        <f aca="false">M69*L69</f>
-        <v>0</v>
-      </c>
-      <c r="O69" s="43" t="n">
-        <f aca="false">IF(M69=0,0,L69*MAX(R2:R8))</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="70" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="37"/>
-      <c r="B70" s="44"/>
+      <c r="B70" s="42"/>
       <c r="C70" s="5"/>
-      <c r="D70" s="45"/>
+      <c r="D70" s="43"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
@@ -5479,10 +5357,10 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="41"/>
-      <c r="L70" s="42"/>
-      <c r="M70" s="43"/>
-      <c r="N70" s="43"/>
-      <c r="O70" s="43"/>
+      <c r="L70" s="44"/>
+      <c r="M70" s="45"/>
+      <c r="N70" s="45"/>
+      <c r="O70" s="45"/>
     </row>
     <row r="71" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="37" t="n">
@@ -5494,7 +5372,7 @@
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5" t="e">
@@ -5513,28 +5391,28 @@
       <c r="K71" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="L71" s="42" t="n">
+      <c r="L71" s="44" t="n">
         <f aca="false">K71/K117</f>
         <v>0.4</v>
       </c>
-      <c r="M71" s="43" t="n">
-        <f aca="false">VLOOKUP(D71,Q1:R9,2,FALSE())</f>
+      <c r="M71" s="45" t="n">
+        <f aca="false">VLOOKUP(D73,Q1:R9,2,FALSE())</f>
         <v>2</v>
       </c>
-      <c r="N71" s="43" t="n">
+      <c r="N71" s="45" t="n">
         <f aca="false">M71*L71</f>
         <v>0.8</v>
       </c>
-      <c r="O71" s="43" t="n">
+      <c r="O71" s="45" t="n">
         <f aca="false">IF(M71=0,0,L71*MAX(R2:R8))</f>
         <v>2</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="37"/>
-      <c r="B72" s="44"/>
+      <c r="B72" s="42"/>
       <c r="C72" s="5"/>
-      <c r="D72" s="45"/>
+      <c r="D72" s="43"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
@@ -5542,10 +5420,10 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="41"/>
-      <c r="L72" s="42"/>
-      <c r="M72" s="43"/>
-      <c r="N72" s="43"/>
-      <c r="O72" s="43"/>
+      <c r="L72" s="44"/>
+      <c r="M72" s="45"/>
+      <c r="N72" s="45"/>
+      <c r="O72" s="45"/>
     </row>
     <row r="73" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="37" t="n">
@@ -5557,7 +5435,7 @@
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="39" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5" t="e">
@@ -5576,28 +5454,28 @@
       <c r="K73" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L73" s="42" t="n">
+      <c r="L73" s="44" t="n">
         <f aca="false">K73/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M73" s="43" t="n">
-        <f aca="false">VLOOKUP(D73,Q1:R9,2,FALSE())</f>
+      <c r="M73" s="45" t="n">
+        <f aca="false">VLOOKUP(D67,Q1:R9,2,FALSE())</f>
         <v>5</v>
       </c>
-      <c r="N73" s="43" t="n">
+      <c r="N73" s="45" t="n">
         <f aca="false">M73*L73</f>
         <v>3</v>
       </c>
-      <c r="O73" s="43" t="n">
+      <c r="O73" s="45" t="n">
         <f aca="false">IF(M73=0,0,L73*MAX(R2:R8))</f>
         <v>3</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="37"/>
-      <c r="B74" s="44"/>
+      <c r="B74" s="42"/>
       <c r="C74" s="5"/>
-      <c r="D74" s="45"/>
+      <c r="D74" s="43"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
@@ -5605,10 +5483,10 @@
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="41"/>
-      <c r="L74" s="42"/>
-      <c r="M74" s="43"/>
-      <c r="N74" s="43"/>
-      <c r="O74" s="43"/>
+      <c r="L74" s="44"/>
+      <c r="M74" s="45"/>
+      <c r="N74" s="45"/>
+      <c r="O74" s="45"/>
     </row>
     <row r="75" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="37" t="n">
@@ -5620,7 +5498,7 @@
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="39" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5" t="e">
@@ -5639,19 +5517,19 @@
       <c r="K75" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L75" s="42" t="n">
+      <c r="L75" s="44" t="n">
         <f aca="false">K75/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M75" s="43" t="n">
-        <f aca="false">VLOOKUP(D75,Q1:R9,2,FALSE())</f>
+      <c r="M75" s="45" t="n">
+        <f aca="false">VLOOKUP(D71,Q1:R9,2,FALSE())</f>
         <v>3</v>
       </c>
-      <c r="N75" s="43" t="n">
+      <c r="N75" s="45" t="n">
         <f aca="false">M75*L75</f>
         <v>1.8</v>
       </c>
-      <c r="O75" s="43" t="n">
+      <c r="O75" s="45" t="n">
         <f aca="false">IF(M75=0,0,L75*MAX(R2:R8))</f>
         <v>3</v>
       </c>
@@ -5659,7 +5537,7 @@
     <row r="76" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="51"/>
       <c r="C76" s="5"/>
-      <c r="D76" s="45"/>
+      <c r="D76" s="43"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
@@ -5667,10 +5545,10 @@
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="41"/>
-      <c r="L76" s="42"/>
-      <c r="M76" s="43"/>
-      <c r="N76" s="43"/>
-      <c r="O76" s="43"/>
+      <c r="L76" s="44"/>
+      <c r="M76" s="45"/>
+      <c r="N76" s="45"/>
+      <c r="O76" s="45"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="31" t="s">
@@ -5685,10 +5563,10 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="41"/>
-      <c r="L77" s="42"/>
-      <c r="M77" s="43"/>
-      <c r="N77" s="43"/>
-      <c r="O77" s="43"/>
+      <c r="L77" s="44"/>
+      <c r="M77" s="45"/>
+      <c r="N77" s="45"/>
+      <c r="O77" s="45"/>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="52"/>
@@ -5701,10 +5579,10 @@
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="41"/>
-      <c r="L78" s="42"/>
-      <c r="M78" s="43"/>
-      <c r="N78" s="43"/>
-      <c r="O78" s="43"/>
+      <c r="L78" s="44"/>
+      <c r="M78" s="45"/>
+      <c r="N78" s="45"/>
+      <c r="O78" s="45"/>
     </row>
     <row r="79" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="37" t="n">
@@ -5716,7 +5594,7 @@
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5" t="e">
@@ -5732,31 +5610,12 @@
         <v>84</v>
       </c>
       <c r="J79" s="5"/>
-      <c r="K79" s="41" t="n">
-        <v>4</v>
-      </c>
-      <c r="L79" s="42" t="n">
-        <f aca="false">K79/K117</f>
-        <v>0.8</v>
-      </c>
-      <c r="M79" s="43" t="n">
-        <f aca="false">VLOOKUP(D79,Q1:R9,2,FALSE())</f>
-        <v>2</v>
-      </c>
-      <c r="N79" s="43" t="n">
-        <f aca="false">M79*L79</f>
-        <v>1.6</v>
-      </c>
-      <c r="O79" s="43" t="n">
-        <f aca="false">IF(M79=0,0,L79*MAX(R2:R8))</f>
-        <v>4</v>
-      </c>
     </row>
     <row r="80" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="37"/>
-      <c r="B80" s="44"/>
+      <c r="B80" s="42"/>
       <c r="C80" s="5"/>
-      <c r="D80" s="45"/>
+      <c r="D80" s="43"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
@@ -5764,10 +5623,10 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="41"/>
-      <c r="L80" s="42"/>
-      <c r="M80" s="43"/>
-      <c r="N80" s="43"/>
-      <c r="O80" s="43"/>
+      <c r="L80" s="44"/>
+      <c r="M80" s="45"/>
+      <c r="N80" s="45"/>
+      <c r="O80" s="45"/>
     </row>
     <row r="81" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="37" t="n">
@@ -5798,28 +5657,28 @@
       <c r="K81" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L81" s="42" t="n">
+      <c r="L81" s="44" t="n">
         <f aca="false">K81/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M81" s="43" t="n">
+      <c r="M81" s="45" t="n">
         <f aca="false">VLOOKUP(D81,Q1:R9,2,FALSE())</f>
         <v>2</v>
       </c>
-      <c r="N81" s="43" t="n">
+      <c r="N81" s="45" t="n">
         <f aca="false">M81*L81</f>
         <v>1.2</v>
       </c>
-      <c r="O81" s="43" t="n">
+      <c r="O81" s="45" t="n">
         <f aca="false">IF(M81=0,0,L81*MAX(R2:R8))</f>
         <v>3</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="37"/>
-      <c r="B82" s="44"/>
+      <c r="B82" s="42"/>
       <c r="C82" s="5"/>
-      <c r="D82" s="45"/>
+      <c r="D82" s="43"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
@@ -5827,10 +5686,10 @@
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="41"/>
-      <c r="L82" s="42"/>
-      <c r="M82" s="43"/>
-      <c r="N82" s="43"/>
-      <c r="O82" s="43"/>
+      <c r="L82" s="44"/>
+      <c r="M82" s="45"/>
+      <c r="N82" s="45"/>
+      <c r="O82" s="45"/>
     </row>
     <row r="83" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="37" t="n">
@@ -5842,7 +5701,7 @@
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5" t="e">
@@ -5861,28 +5720,28 @@
       <c r="K83" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L83" s="42" t="n">
+      <c r="L83" s="44" t="n">
         <f aca="false">K83/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M83" s="43" t="n">
-        <f aca="false">VLOOKUP(D83,Q1:R9,2,FALSE())</f>
+      <c r="M83" s="45" t="n">
+        <f aca="false">VLOOKUP(D79,Q1:R9,2,FALSE())</f>
         <v>3</v>
       </c>
-      <c r="N83" s="43" t="n">
+      <c r="N83" s="45" t="n">
         <f aca="false">M83*L83</f>
         <v>1.8</v>
       </c>
-      <c r="O83" s="43" t="n">
+      <c r="O83" s="45" t="n">
         <f aca="false">IF(M83=0,0,L83*MAX(R2:R8))</f>
         <v>3</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="37"/>
-      <c r="B84" s="44"/>
+      <c r="B84" s="42"/>
       <c r="C84" s="5"/>
-      <c r="D84" s="45"/>
+      <c r="D84" s="43"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
@@ -5890,10 +5749,10 @@
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="41"/>
-      <c r="L84" s="42"/>
-      <c r="M84" s="43"/>
-      <c r="N84" s="43"/>
-      <c r="O84" s="43"/>
+      <c r="L84" s="44"/>
+      <c r="M84" s="45"/>
+      <c r="N84" s="45"/>
+      <c r="O84" s="45"/>
     </row>
     <row r="85" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="37" t="n">
@@ -5924,19 +5783,19 @@
       <c r="K85" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L85" s="42" t="n">
+      <c r="L85" s="44" t="n">
         <f aca="false">K85/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M85" s="43" t="n">
+      <c r="M85" s="45" t="n">
         <f aca="false">VLOOKUP(D85,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N85" s="43" t="n">
+      <c r="N85" s="45" t="n">
         <f aca="false">M85*L85</f>
         <v>0</v>
       </c>
-      <c r="O85" s="43" t="n">
+      <c r="O85" s="45" t="n">
         <f aca="false">IF(M85=0,0,L85*MAX(R2:R8))</f>
         <v>0</v>
       </c>
@@ -5944,7 +5803,7 @@
     <row r="86" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B86" s="51"/>
       <c r="C86" s="5"/>
-      <c r="D86" s="45"/>
+      <c r="D86" s="43"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
@@ -5952,10 +5811,10 @@
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="41"/>
-      <c r="L86" s="42"/>
-      <c r="M86" s="43"/>
-      <c r="N86" s="43"/>
-      <c r="O86" s="43"/>
+      <c r="L86" s="44"/>
+      <c r="M86" s="45"/>
+      <c r="N86" s="45"/>
+      <c r="O86" s="45"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="31" t="s">
@@ -5970,10 +5829,10 @@
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
       <c r="K87" s="41"/>
-      <c r="L87" s="42"/>
-      <c r="M87" s="43"/>
-      <c r="N87" s="43"/>
-      <c r="O87" s="43"/>
+      <c r="L87" s="44"/>
+      <c r="M87" s="45"/>
+      <c r="N87" s="45"/>
+      <c r="O87" s="45"/>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B88" s="52"/>
@@ -5986,10 +5845,10 @@
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
       <c r="K88" s="41"/>
-      <c r="L88" s="42"/>
-      <c r="M88" s="43"/>
-      <c r="N88" s="43"/>
-      <c r="O88" s="43"/>
+      <c r="L88" s="44"/>
+      <c r="M88" s="45"/>
+      <c r="N88" s="45"/>
+      <c r="O88" s="45"/>
     </row>
     <row r="89" customFormat="false" ht="47.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="37" t="n">
@@ -6001,7 +5860,7 @@
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="39" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5" t="e">
@@ -6020,28 +5879,28 @@
       <c r="K89" s="41" t="n">
         <v>5</v>
       </c>
-      <c r="L89" s="42" t="n">
+      <c r="L89" s="44" t="n">
         <f aca="false">K89/K117</f>
         <v>1</v>
       </c>
-      <c r="M89" s="43" t="n">
-        <f aca="false">VLOOKUP(D89,Q1:R9,2,FALSE())</f>
+      <c r="M89" s="45" t="n">
+        <f aca="false">VLOOKUP(D95,Q1:R9,2,FALSE())</f>
         <v>3</v>
       </c>
-      <c r="N89" s="43" t="n">
+      <c r="N89" s="45" t="n">
         <f aca="false">M89*L89</f>
         <v>3</v>
       </c>
-      <c r="O89" s="43" t="n">
+      <c r="O89" s="45" t="n">
         <f aca="false">IF(M89=0,0,L89*MAX(R2:R8))</f>
         <v>5</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="37"/>
-      <c r="B90" s="44"/>
+      <c r="B90" s="42"/>
       <c r="C90" s="5"/>
-      <c r="D90" s="45"/>
+      <c r="D90" s="43"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
@@ -6049,10 +5908,10 @@
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
       <c r="K90" s="41"/>
-      <c r="L90" s="42"/>
-      <c r="M90" s="43"/>
-      <c r="N90" s="43"/>
-      <c r="O90" s="43"/>
+      <c r="L90" s="44"/>
+      <c r="M90" s="45"/>
+      <c r="N90" s="45"/>
+      <c r="O90" s="45"/>
     </row>
     <row r="91" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="37" t="n">
@@ -6064,7 +5923,7 @@
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="39" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5" t="e">
@@ -6083,28 +5942,28 @@
       <c r="K91" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="L91" s="42" t="n">
+      <c r="L91" s="44" t="n">
         <f aca="false">K91/K117</f>
         <v>0.4</v>
       </c>
-      <c r="M91" s="43" t="n">
-        <f aca="false">VLOOKUP(D91,Q1:R9,2,FALSE())</f>
+      <c r="M91" s="45" t="n">
+        <f aca="false">VLOOKUP(D97,Q1:R9,2,FALSE())</f>
         <v>1</v>
       </c>
-      <c r="N91" s="43" t="n">
+      <c r="N91" s="45" t="n">
         <f aca="false">M91*L91</f>
         <v>0.4</v>
       </c>
-      <c r="O91" s="43" t="n">
+      <c r="O91" s="45" t="n">
         <f aca="false">IF(M91=0,0,L91*MAX(R2:R8))</f>
         <v>2</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="37"/>
-      <c r="B92" s="44"/>
+      <c r="B92" s="42"/>
       <c r="C92" s="5"/>
-      <c r="D92" s="45"/>
+      <c r="D92" s="43"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
@@ -6112,10 +5971,10 @@
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="K92" s="41"/>
-      <c r="L92" s="42"/>
-      <c r="M92" s="43"/>
-      <c r="N92" s="43"/>
-      <c r="O92" s="43"/>
+      <c r="L92" s="44"/>
+      <c r="M92" s="45"/>
+      <c r="N92" s="45"/>
+      <c r="O92" s="45"/>
     </row>
     <row r="93" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="37" t="n">
@@ -6146,28 +6005,28 @@
       <c r="K93" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="L93" s="42" t="n">
+      <c r="L93" s="44" t="n">
         <f aca="false">K93/K117</f>
         <v>0.8</v>
       </c>
-      <c r="M93" s="43" t="n">
-        <f aca="false">VLOOKUP(D93,Q1:R9,2,FALSE())</f>
+      <c r="M93" s="45" t="n">
+        <f aca="false">VLOOKUP(D91,Q1:R9,2,FALSE())</f>
         <v>4</v>
       </c>
-      <c r="N93" s="43" t="n">
+      <c r="N93" s="45" t="n">
         <f aca="false">M93*L93</f>
         <v>3.2</v>
       </c>
-      <c r="O93" s="43" t="n">
+      <c r="O93" s="45" t="n">
         <f aca="false">IF(M93=0,0,L93*MAX(R2:R8))</f>
         <v>4</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="37"/>
-      <c r="B94" s="44"/>
+      <c r="B94" s="42"/>
       <c r="C94" s="5"/>
-      <c r="D94" s="45"/>
+      <c r="D94" s="43"/>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
@@ -6175,10 +6034,10 @@
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
       <c r="K94" s="41"/>
-      <c r="L94" s="42"/>
-      <c r="M94" s="43"/>
-      <c r="N94" s="43"/>
-      <c r="O94" s="43"/>
+      <c r="L94" s="44"/>
+      <c r="M94" s="45"/>
+      <c r="N94" s="45"/>
+      <c r="O94" s="45"/>
     </row>
     <row r="95" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="37" t="n">
@@ -6190,7 +6049,7 @@
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="39" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5" t="e">
@@ -6209,28 +6068,28 @@
       <c r="K95" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L95" s="42" t="n">
+      <c r="L95" s="44" t="n">
         <f aca="false">K95/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M95" s="43" t="n">
-        <f aca="false">VLOOKUP(D95,Q1:R9,2,FALSE())</f>
+      <c r="M95" s="45" t="n">
+        <f aca="false">VLOOKUP(D93,Q1:R9,2,FALSE())</f>
         <v>4</v>
       </c>
-      <c r="N95" s="43" t="n">
+      <c r="N95" s="45" t="n">
         <f aca="false">M95*L95</f>
         <v>2.4</v>
       </c>
-      <c r="O95" s="43" t="n">
+      <c r="O95" s="45" t="n">
         <f aca="false">IF(M95=0,0,L95*MAX(R2:R8))</f>
         <v>3</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="37"/>
-      <c r="B96" s="44"/>
+      <c r="B96" s="42"/>
       <c r="C96" s="5"/>
-      <c r="D96" s="45"/>
+      <c r="D96" s="43"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
@@ -6238,10 +6097,10 @@
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
       <c r="K96" s="41"/>
-      <c r="L96" s="42"/>
-      <c r="M96" s="43"/>
-      <c r="N96" s="43"/>
-      <c r="O96" s="43"/>
+      <c r="L96" s="44"/>
+      <c r="M96" s="45"/>
+      <c r="N96" s="45"/>
+      <c r="O96" s="45"/>
     </row>
     <row r="97" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="37" t="n">
@@ -6253,7 +6112,7 @@
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="39" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5" t="e">
@@ -6269,30 +6128,11 @@
         <v>101</v>
       </c>
       <c r="J97" s="5"/>
-      <c r="K97" s="41" t="n">
-        <v>3</v>
-      </c>
-      <c r="L97" s="42" t="n">
-        <f aca="false">K97/K117</f>
-        <v>0.6</v>
-      </c>
-      <c r="M97" s="43" t="n">
-        <f aca="false">VLOOKUP(D97,Q1:R9,2,FALSE())</f>
-        <v>5</v>
-      </c>
-      <c r="N97" s="43" t="n">
-        <f aca="false">M97*L97</f>
-        <v>3</v>
-      </c>
-      <c r="O97" s="43" t="n">
-        <f aca="false">IF(M97=0,0,L97*MAX(R2:R8))</f>
-        <v>3</v>
-      </c>
     </row>
     <row r="98" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B98" s="51"/>
       <c r="C98" s="5"/>
-      <c r="D98" s="45"/>
+      <c r="D98" s="43"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
@@ -6300,10 +6140,10 @@
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="K98" s="41"/>
-      <c r="L98" s="42"/>
-      <c r="M98" s="43"/>
-      <c r="N98" s="43"/>
-      <c r="O98" s="43"/>
+      <c r="L98" s="44"/>
+      <c r="M98" s="45"/>
+      <c r="N98" s="45"/>
+      <c r="O98" s="45"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="31" t="s">
@@ -6318,10 +6158,10 @@
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
       <c r="K99" s="41"/>
-      <c r="L99" s="42"/>
-      <c r="M99" s="43"/>
-      <c r="N99" s="43"/>
-      <c r="O99" s="43"/>
+      <c r="L99" s="44"/>
+      <c r="M99" s="45"/>
+      <c r="N99" s="45"/>
+      <c r="O99" s="45"/>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B100" s="52"/>
@@ -6334,10 +6174,10 @@
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
       <c r="K100" s="41"/>
-      <c r="L100" s="42"/>
-      <c r="M100" s="43"/>
-      <c r="N100" s="43"/>
-      <c r="O100" s="43"/>
+      <c r="L100" s="44"/>
+      <c r="M100" s="45"/>
+      <c r="N100" s="45"/>
+      <c r="O100" s="45"/>
     </row>
     <row r="101" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="37" t="n">
@@ -6368,28 +6208,28 @@
       <c r="K101" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="L101" s="42" t="n">
+      <c r="L101" s="44" t="n">
         <f aca="false">K101/K117</f>
         <v>0.8</v>
       </c>
-      <c r="M101" s="43" t="n">
-        <f aca="false">VLOOKUP(D101,Q1:R9,2,FALSE())</f>
+      <c r="M101" s="45" t="n">
+        <f aca="false">VLOOKUP(D103,Q1:R9,2,FALSE())</f>
         <v>3</v>
       </c>
-      <c r="N101" s="43" t="n">
+      <c r="N101" s="45" t="n">
         <f aca="false">M101*L101</f>
         <v>2.4</v>
       </c>
-      <c r="O101" s="43" t="n">
+      <c r="O101" s="45" t="n">
         <f aca="false">IF(M101=0,0,L101*MAX(R2:R8))</f>
         <v>4</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="37"/>
-      <c r="B102" s="44"/>
+      <c r="B102" s="42"/>
       <c r="C102" s="5"/>
-      <c r="D102" s="45"/>
+      <c r="D102" s="43"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
@@ -6397,10 +6237,10 @@
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
       <c r="K102" s="41"/>
-      <c r="L102" s="42"/>
-      <c r="M102" s="43"/>
-      <c r="N102" s="43"/>
-      <c r="O102" s="43"/>
+      <c r="L102" s="44"/>
+      <c r="M102" s="45"/>
+      <c r="N102" s="45"/>
+      <c r="O102" s="45"/>
     </row>
     <row r="103" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="37" t="n">
@@ -6412,7 +6252,7 @@
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5" t="e">
@@ -6431,28 +6271,28 @@
       <c r="K103" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L103" s="42" t="n">
+      <c r="L103" s="44" t="n">
         <f aca="false">K103/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M103" s="43" t="n">
-        <f aca="false">VLOOKUP(D103,Q1:R9,2,FALSE())</f>
+      <c r="M103" s="45" t="n">
+        <f aca="false">VLOOKUP(D105,Q1:R9,2,FALSE())</f>
         <v>2</v>
       </c>
-      <c r="N103" s="43" t="n">
+      <c r="N103" s="45" t="n">
         <f aca="false">M103*L103</f>
         <v>1.2</v>
       </c>
-      <c r="O103" s="43" t="n">
+      <c r="O103" s="45" t="n">
         <f aca="false">IF(M103=0,0,L103*MAX(R2:R8))</f>
         <v>3</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="37"/>
-      <c r="B104" s="44"/>
+      <c r="B104" s="42"/>
       <c r="C104" s="5"/>
-      <c r="D104" s="45"/>
+      <c r="D104" s="43"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
@@ -6460,10 +6300,10 @@
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
       <c r="K104" s="41"/>
-      <c r="L104" s="42"/>
-      <c r="M104" s="43"/>
-      <c r="N104" s="43"/>
-      <c r="O104" s="43"/>
+      <c r="L104" s="44"/>
+      <c r="M104" s="45"/>
+      <c r="N104" s="45"/>
+      <c r="O104" s="45"/>
     </row>
     <row r="105" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="37" t="n">
@@ -6475,7 +6315,7 @@
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="39" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5" t="e">
@@ -6494,28 +6334,28 @@
       <c r="K105" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L105" s="42" t="n">
+      <c r="L105" s="44" t="n">
         <f aca="false">K105/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M105" s="43" t="n">
-        <f aca="false">VLOOKUP(D105,Q1:R9,2,FALSE())</f>
+      <c r="M105" s="45" t="n">
+        <f aca="false">VLOOKUP(D107,Q1:R9,2,FALSE())</f>
         <v>1</v>
       </c>
-      <c r="N105" s="43" t="n">
+      <c r="N105" s="45" t="n">
         <f aca="false">M105*L105</f>
         <v>0.6</v>
       </c>
-      <c r="O105" s="43" t="n">
+      <c r="O105" s="45" t="n">
         <f aca="false">IF(M105=0,0,L105*MAX(R2:R8))</f>
         <v>3</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="37"/>
-      <c r="B106" s="44"/>
+      <c r="B106" s="42"/>
       <c r="C106" s="5"/>
-      <c r="D106" s="45"/>
+      <c r="D106" s="43"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
@@ -6523,10 +6363,10 @@
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
       <c r="K106" s="41"/>
-      <c r="L106" s="42"/>
-      <c r="M106" s="43"/>
-      <c r="N106" s="43"/>
-      <c r="O106" s="43"/>
+      <c r="L106" s="44"/>
+      <c r="M106" s="45"/>
+      <c r="N106" s="45"/>
+      <c r="O106" s="45"/>
     </row>
     <row r="107" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="37" t="n">
@@ -6538,7 +6378,7 @@
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="39" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5" t="e">
@@ -6554,30 +6394,11 @@
         <v>110</v>
       </c>
       <c r="J107" s="5"/>
-      <c r="K107" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="L107" s="42" t="n">
-        <f aca="false">K107/K117</f>
-        <v>0.4</v>
-      </c>
-      <c r="M107" s="43" t="n">
-        <f aca="false">VLOOKUP(D107,Q1:R9,2,FALSE())</f>
-        <v>3</v>
-      </c>
-      <c r="N107" s="43" t="n">
-        <f aca="false">M107*L107</f>
-        <v>1.2</v>
-      </c>
-      <c r="O107" s="43" t="n">
-        <f aca="false">IF(M107=0,0,L107*MAX(R2:R8))</f>
-        <v>2</v>
-      </c>
     </row>
     <row r="108" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B108" s="51"/>
       <c r="C108" s="5"/>
-      <c r="D108" s="45"/>
+      <c r="D108" s="43"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
@@ -6585,10 +6406,10 @@
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="41"/>
-      <c r="L108" s="42"/>
-      <c r="M108" s="43"/>
-      <c r="N108" s="43"/>
-      <c r="O108" s="43"/>
+      <c r="L108" s="44"/>
+      <c r="M108" s="45"/>
+      <c r="N108" s="45"/>
+      <c r="O108" s="45"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="31" t="s">
@@ -6603,10 +6424,10 @@
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="41"/>
-      <c r="L109" s="42"/>
-      <c r="M109" s="43"/>
-      <c r="N109" s="43"/>
-      <c r="O109" s="43"/>
+      <c r="L109" s="44"/>
+      <c r="M109" s="45"/>
+      <c r="N109" s="45"/>
+      <c r="O109" s="45"/>
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B110" s="52"/>
@@ -6619,10 +6440,10 @@
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="41"/>
-      <c r="L110" s="42"/>
-      <c r="M110" s="43"/>
-      <c r="N110" s="43"/>
-      <c r="O110" s="43"/>
+      <c r="L110" s="44"/>
+      <c r="M110" s="45"/>
+      <c r="N110" s="45"/>
+      <c r="O110" s="45"/>
     </row>
     <row r="111" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="37" t="n">
@@ -6634,7 +6455,7 @@
       </c>
       <c r="C111" s="19"/>
       <c r="D111" s="39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E111" s="19"/>
       <c r="F111" s="19" t="e">
@@ -6658,7 +6479,7 @@
         <v>0.8</v>
       </c>
       <c r="M111" s="57" t="n">
-        <f aca="false">VLOOKUP(D111,Q1:R9,2,FALSE())</f>
+        <f aca="false">VLOOKUP(D113,Q1:R9,2,FALSE())</f>
         <v>4</v>
       </c>
       <c r="N111" s="57" t="n">
@@ -6683,7 +6504,7 @@
     </row>
     <row r="112" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="37"/>
-      <c r="B112" s="44"/>
+      <c r="B112" s="42"/>
       <c r="C112" s="19"/>
       <c r="D112" s="58"/>
       <c r="E112" s="19"/>
@@ -6718,8 +6539,8 @@
         <v>114</v>
       </c>
       <c r="C113" s="19"/>
-      <c r="D113" s="59" t="s">
-        <v>18</v>
+      <c r="D113" s="39" t="s">
+        <v>11</v>
       </c>
       <c r="E113" s="19"/>
       <c r="F113" s="19" t="e">
@@ -6735,28 +6556,6 @@
         <v>115</v>
       </c>
       <c r="J113" s="19"/>
-      <c r="K113" s="28" t="n">
-        <v>4</v>
-      </c>
-      <c r="L113" s="56" t="n">
-        <f aca="false">K113/K117</f>
-        <v>0.8</v>
-      </c>
-      <c r="M113" s="57" t="n">
-        <f aca="false">VLOOKUP(D113,Q1:R9,2,FALSE())</f>
-        <v>0</v>
-      </c>
-      <c r="N113" s="57" t="n">
-        <f aca="false">M113*L113</f>
-        <v>0</v>
-      </c>
-      <c r="O113" s="57" t="n">
-        <f aca="false">IF(M113=0,0,L113*MAX(R2:R8))</f>
-        <v>0</v>
-      </c>
-      <c r="P113" s="19"/>
-      <c r="Q113" s="19"/>
-      <c r="R113" s="19"/>
       <c r="S113" s="19"/>
       <c r="T113" s="19"/>
       <c r="U113" s="19"/>
@@ -6768,7 +6567,7 @@
     </row>
     <row r="114" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="37"/>
-      <c r="B114" s="44"/>
+      <c r="B114" s="42"/>
       <c r="C114" s="19"/>
       <c r="D114" s="58"/>
       <c r="E114" s="19"/>
@@ -6803,8 +6602,8 @@
         <v>116</v>
       </c>
       <c r="C115" s="19"/>
-      <c r="D115" s="39" t="s">
-        <v>12</v>
+      <c r="D115" s="59" t="s">
+        <v>18</v>
       </c>
       <c r="E115" s="19"/>
       <c r="F115" s="19" t="e">
@@ -6828,7 +6627,7 @@
         <v>0.6</v>
       </c>
       <c r="M115" s="57" t="n">
-        <f aca="false">VLOOKUP(D115,Q1:R9,2,FALSE())</f>
+        <f aca="false">VLOOKUP(D111,Q1:R9,2,FALSE())</f>
         <v>5</v>
       </c>
       <c r="N115" s="57" t="n">
@@ -6854,7 +6653,7 @@
     <row r="116" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B116" s="60"/>
       <c r="C116" s="5"/>
-      <c r="D116" s="45"/>
+      <c r="D116" s="43"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
@@ -6875,7 +6674,7 @@
       <c r="C117" s="65"/>
       <c r="D117" s="66" t="n">
         <f aca="false">IF(ISERR((N117/O117)*100),"",(N117/O117)*100)</f>
-        <v>64.8818897637795</v>
+        <v>67.3118279569893</v>
       </c>
       <c r="E117" s="67"/>
       <c r="F117" s="67"/>
@@ -6890,7 +6689,7 @@
       </c>
       <c r="J117" s="6" t="n">
         <f aca="false">IF(D117="",0,D117)</f>
-        <v>64.8818897637795</v>
+        <v>67.3118279569893</v>
       </c>
       <c r="K117" s="61" t="n">
         <f aca="false">MAX(K9:K115)</f>
@@ -6900,11 +6699,11 @@
       <c r="M117" s="61"/>
       <c r="N117" s="62" t="n">
         <f aca="false">SUM(N9:N115)</f>
-        <v>82.4</v>
+        <v>62.6</v>
       </c>
       <c r="O117" s="62" t="n">
         <f aca="false">SUM(O9:O115)</f>
-        <v>127</v>
+        <v>93</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17590,7 +17389,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{BCAC7D8D-8010-43A0-9324-53FB781CFA87}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{AECE3580-D77C-44A5-8DCA-5CDBA0C07F9C}">
             <xm:f>"Enter score"</xm:f>
             <x14:dxf>
               <fill>
@@ -17607,7 +17406,7 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D111 D113 D115 D105 D107 D101 D103 D89 D91 D93 D95 D97 D79 D81 D83 D85 D69 D71 D73 D75 D67 D63 D59 D61 D49 D51 D53 D55 D29 D35 D37 D39 D41 D43 D45 D31:D33 D21 D23:D25 D17 D9 D11 D13 D15</xm:sqref>
+          <xm:sqref>D81 D85 D61 D51 D29 D45 D31:D33 D23:D25 D17 D15 D9 D11 D13 D21 D35 D43 D41 D39 D37 D49 D53 D55 D59 D63 D69 D67 D73 D71 D75 D79 D83 D97 D91 D93 D95 D89 D107 D105 D103 D101 D113 D111 D115</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -17626,7 +17425,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.29"/>
@@ -17907,19 +17706,19 @@
       <c r="K9" s="41" t="n">
         <v>5</v>
       </c>
-      <c r="L9" s="42" t="n">
+      <c r="L9" s="44" t="n">
         <f aca="false">K9/K117</f>
         <v>1</v>
       </c>
-      <c r="M9" s="43" t="n">
+      <c r="M9" s="45" t="n">
         <f aca="false">VLOOKUP(D9,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N9" s="43" t="n">
+      <c r="N9" s="45" t="n">
         <f aca="false">M9*L9</f>
         <v>0</v>
       </c>
-      <c r="O9" s="43" t="n">
+      <c r="O9" s="45" t="n">
         <f aca="false">IF(M9=0,0,L9*MAX(R2:R8))</f>
         <v>0</v>
       </c>
@@ -17935,7 +17734,7 @@
       <c r="A10" s="37"/>
       <c r="B10" s="38"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="45"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -17943,10 +17742,10 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="41"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
       <c r="P10" s="46"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
@@ -17982,19 +17781,19 @@
       <c r="K11" s="41" t="n">
         <v>5</v>
       </c>
-      <c r="L11" s="42" t="n">
+      <c r="L11" s="44" t="n">
         <f aca="false">K11/K117</f>
         <v>1</v>
       </c>
-      <c r="M11" s="43" t="n">
+      <c r="M11" s="45" t="n">
         <f aca="false">VLOOKUP(D11,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N11" s="43" t="n">
+      <c r="N11" s="45" t="n">
         <f aca="false">M11*L11</f>
         <v>0</v>
       </c>
-      <c r="O11" s="43" t="n">
+      <c r="O11" s="45" t="n">
         <f aca="false">IF(M11=0,0,L11*MAX(R2:R8))</f>
         <v>0</v>
       </c>
@@ -18008,7 +17807,7 @@
       <c r="A12" s="37"/>
       <c r="B12" s="38"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="45"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -18016,10 +17815,10 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="41"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
@@ -18055,19 +17854,19 @@
       <c r="K13" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="L13" s="42" t="n">
+      <c r="L13" s="44" t="n">
         <f aca="false">K13/K117</f>
         <v>0.8</v>
       </c>
-      <c r="M13" s="43" t="n">
+      <c r="M13" s="45" t="n">
         <f aca="false">VLOOKUP(D13,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N13" s="43" t="n">
+      <c r="N13" s="45" t="n">
         <f aca="false">M13*L13</f>
         <v>0</v>
       </c>
-      <c r="O13" s="43" t="n">
+      <c r="O13" s="45" t="n">
         <f aca="false">IF(M13=0,0,L13*MAX(R2:R8))</f>
         <v>0</v>
       </c>
@@ -18083,7 +17882,7 @@
       <c r="A14" s="37"/>
       <c r="B14" s="38"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="45"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -18091,11 +17890,11 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="41"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="S14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="S14" s="42"/>
     </row>
     <row r="15" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="37" t="n">
@@ -18128,11 +17927,11 @@
         <f aca="false">K15/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M15" s="43" t="n">
+      <c r="M15" s="45" t="n">
         <f aca="false">VLOOKUP(D15,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N15" s="43" t="n">
+      <c r="N15" s="45" t="n">
         <f aca="false">M15*L15</f>
         <v>0</v>
       </c>
@@ -18148,7 +17947,7 @@
       <c r="A16" s="37"/>
       <c r="B16" s="38"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="45"/>
+      <c r="D16" s="43"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -18156,11 +17955,11 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="41"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="S16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="S16" s="42"/>
       <c r="T16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18190,29 +17989,29 @@
       <c r="K17" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L17" s="42" t="n">
+      <c r="L17" s="44" t="n">
         <f aca="false">K17/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M17" s="43" t="n">
+      <c r="M17" s="45" t="n">
         <f aca="false">VLOOKUP(D17,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N17" s="43" t="n">
+      <c r="N17" s="45" t="n">
         <f aca="false">M17*L17</f>
         <v>0</v>
       </c>
-      <c r="O17" s="43" t="n">
+      <c r="O17" s="45" t="n">
         <f aca="false">IF(M17=0,0,L17*MAX(R2:R8))</f>
         <v>0</v>
       </c>
-      <c r="S17" s="44"/>
+      <c r="S17" s="42"/>
       <c r="T17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="82"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="45"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -18220,11 +18019,11 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="41"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="S18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="S18" s="42"/>
       <c r="T18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18232,7 +18031,7 @@
         <v>29</v>
       </c>
       <c r="C19" s="35"/>
-      <c r="D19" s="45"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -18240,15 +18039,15 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="41"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="52"/>
       <c r="C20" s="35"/>
-      <c r="D20" s="45"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -18256,10 +18055,10 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="41"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
     </row>
     <row r="21" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="37" t="n">
@@ -18288,19 +18087,19 @@
       <c r="K21" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L21" s="42" t="n">
+      <c r="L21" s="44" t="n">
         <f aca="false">K21/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M21" s="43" t="n">
+      <c r="M21" s="45" t="n">
         <f aca="false">VLOOKUP(D21,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N21" s="43" t="n">
+      <c r="N21" s="45" t="n">
         <f aca="false">M21*L21</f>
         <v>0</v>
       </c>
-      <c r="O21" s="43" t="n">
+      <c r="O21" s="45" t="n">
         <f aca="false">IF(M21=0,0,L21*MAX(R2:R8))</f>
         <v>0</v>
       </c>
@@ -18309,7 +18108,7 @@
       <c r="A22" s="37"/>
       <c r="B22" s="38"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="45"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -18318,12 +18117,12 @@
       <c r="J22" s="5"/>
       <c r="K22" s="48"/>
       <c r="L22" s="49"/>
-      <c r="M22" s="43"/>
+      <c r="M22" s="45"/>
       <c r="N22" s="53"/>
       <c r="O22" s="53"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
     </row>
     <row r="23" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="37" t="n">
@@ -18352,30 +18151,30 @@
       <c r="K23" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="L23" s="42" t="n">
+      <c r="L23" s="44" t="n">
         <f aca="false">K23/K117</f>
         <v>0.8</v>
       </c>
-      <c r="M23" s="43" t="n">
+      <c r="M23" s="45" t="n">
         <f aca="false">VLOOKUP(D23,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N23" s="43" t="n">
+      <c r="N23" s="45" t="n">
         <f aca="false">M23*L23</f>
         <v>0</v>
       </c>
-      <c r="O23" s="43" t="n">
+      <c r="O23" s="45" t="n">
         <f aca="false">IF(M23=0,0,L23*MAX(R2:R8))</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
     </row>
     <row r="24" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="37"/>
       <c r="B24" s="38"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="45"/>
+      <c r="D24" s="43"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -18383,12 +18182,12 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="41"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
     </row>
     <row r="25" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="37" t="n">
@@ -18411,29 +18210,29 @@
       <c r="K25" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L25" s="42" t="n">
+      <c r="L25" s="44" t="n">
         <f aca="false">K25/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M25" s="43" t="n">
+      <c r="M25" s="45" t="n">
         <f aca="false">VLOOKUP(D25,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N25" s="43" t="n">
+      <c r="N25" s="45" t="n">
         <f aca="false">M25*L25</f>
         <v>0</v>
       </c>
-      <c r="O25" s="43" t="n">
+      <c r="O25" s="45" t="n">
         <f aca="false">IF(M25=0,0,L25*MAX(R2:R8))</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
     </row>
     <row r="26" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="51"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="45"/>
+      <c r="D26" s="43"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -18441,13 +18240,13 @@
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="41"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="31" t="s">
@@ -18462,13 +18261,13 @@
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="41"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="52"/>
@@ -18481,20 +18280,20 @@
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="41"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="44"/>
-      <c r="S28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
     </row>
     <row r="29" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="37" t="n">
         <f aca="false">A25+1</f>
         <v>9</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="42" t="s">
         <v>132</v>
       </c>
       <c r="C29" s="5"/>
@@ -18516,31 +18315,31 @@
       <c r="K29" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="L29" s="42" t="n">
+      <c r="L29" s="44" t="n">
         <f aca="false">K29/K117</f>
         <v>0.4</v>
       </c>
-      <c r="M29" s="43" t="n">
+      <c r="M29" s="45" t="n">
         <f aca="false">VLOOKUP(D29,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N29" s="43" t="n">
+      <c r="N29" s="45" t="n">
         <f aca="false">M29*L29</f>
         <v>0</v>
       </c>
-      <c r="O29" s="43" t="n">
+      <c r="O29" s="45" t="n">
         <f aca="false">IF(M29=0,0,L29*MAX(R2:R8))</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
     </row>
     <row r="30" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="37"/>
-      <c r="B30" s="44"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="45"/>
+      <c r="D30" s="43"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -18549,7 +18348,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="48"/>
       <c r="L30" s="49"/>
-      <c r="M30" s="43"/>
+      <c r="M30" s="45"/>
       <c r="N30" s="55"/>
       <c r="O30" s="53"/>
       <c r="P30" s="13"/>
@@ -18562,7 +18361,7 @@
         <f aca="false">A29+1</f>
         <v>10</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="42" t="s">
         <v>133</v>
       </c>
       <c r="C31" s="5"/>
@@ -18584,28 +18383,28 @@
       <c r="K31" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="L31" s="42" t="n">
+      <c r="L31" s="44" t="n">
         <f aca="false">K31/K117</f>
         <v>0.8</v>
       </c>
-      <c r="M31" s="43" t="n">
+      <c r="M31" s="45" t="n">
         <f aca="false">VLOOKUP(D31,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N31" s="43" t="n">
+      <c r="N31" s="45" t="n">
         <f aca="false">M31*L31</f>
         <v>0</v>
       </c>
-      <c r="O31" s="43" t="n">
+      <c r="O31" s="45" t="n">
         <f aca="false">IF(M31=0,0,L31*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="37"/>
-      <c r="B32" s="44"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="45"/>
+      <c r="D32" s="43"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
@@ -18613,17 +18412,17 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="41"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
     </row>
     <row r="33" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="37" t="n">
         <f aca="false">A31+1</f>
         <v>11</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="42" t="s">
         <v>134</v>
       </c>
       <c r="C33" s="5"/>
@@ -18639,28 +18438,28 @@
       <c r="K33" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L33" s="42" t="n">
+      <c r="L33" s="44" t="n">
         <f aca="false">K33/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M33" s="43" t="n">
+      <c r="M33" s="45" t="n">
         <f aca="false">VLOOKUP(D33,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N33" s="43" t="n">
+      <c r="N33" s="45" t="n">
         <f aca="false">M33*L33</f>
         <v>0</v>
       </c>
-      <c r="O33" s="43" t="n">
+      <c r="O33" s="45" t="n">
         <f aca="false">IF(M33=0,0,L33*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="37"/>
-      <c r="B34" s="44"/>
+      <c r="B34" s="42"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="45"/>
+      <c r="D34" s="43"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -18668,17 +18467,17 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="41"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
     </row>
     <row r="35" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="37" t="n">
         <f aca="false">A33+1</f>
         <v>12</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="42" t="s">
         <v>135</v>
       </c>
       <c r="C35" s="5"/>
@@ -18700,28 +18499,28 @@
       <c r="K35" s="41" t="n">
         <v>5</v>
       </c>
-      <c r="L35" s="42" t="n">
+      <c r="L35" s="44" t="n">
         <f aca="false">K35/K117</f>
         <v>1</v>
       </c>
-      <c r="M35" s="43" t="n">
+      <c r="M35" s="45" t="n">
         <f aca="false">VLOOKUP(D35,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N35" s="43" t="n">
+      <c r="N35" s="45" t="n">
         <f aca="false">M35*L35</f>
         <v>0</v>
       </c>
-      <c r="O35" s="43" t="n">
+      <c r="O35" s="45" t="n">
         <f aca="false">IF(M35=0,0,L35*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="37"/>
-      <c r="B36" s="44"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="45"/>
+      <c r="D36" s="43"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -18729,17 +18528,17 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="41"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
     </row>
     <row r="37" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="37" t="n">
         <f aca="false">A35+1</f>
         <v>13</v>
       </c>
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="42" t="s">
         <v>136</v>
       </c>
       <c r="C37" s="5"/>
@@ -18761,28 +18560,28 @@
       <c r="K37" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L37" s="42" t="n">
+      <c r="L37" s="44" t="n">
         <f aca="false">K37/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M37" s="43" t="n">
+      <c r="M37" s="45" t="n">
         <f aca="false">VLOOKUP(D37,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N37" s="43" t="n">
+      <c r="N37" s="45" t="n">
         <f aca="false">M37*L37</f>
         <v>0</v>
       </c>
-      <c r="O37" s="43" t="n">
+      <c r="O37" s="45" t="n">
         <f aca="false">IF(M37=0,0,L37*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="37"/>
-      <c r="B38" s="44"/>
+      <c r="B38" s="42"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="45"/>
+      <c r="D38" s="43"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
@@ -18790,17 +18589,17 @@
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="41"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
     </row>
     <row r="39" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="37" t="n">
         <f aca="false">A37+1</f>
         <v>14</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="42" t="s">
         <v>137</v>
       </c>
       <c r="C39" s="5"/>
@@ -18822,31 +18621,31 @@
       <c r="K39" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="L39" s="42" t="n">
+      <c r="L39" s="44" t="n">
         <f aca="false">K39/K117</f>
         <v>0.8</v>
       </c>
-      <c r="M39" s="43" t="n">
+      <c r="M39" s="45" t="n">
         <f aca="false">VLOOKUP(D39,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N39" s="43" t="n">
+      <c r="N39" s="45" t="n">
         <f aca="false">M39*L39</f>
         <v>0</v>
       </c>
-      <c r="O39" s="43" t="n">
+      <c r="O39" s="45" t="n">
         <f aca="false">IF(M39=0,0,L39*MAX(R2:R8))</f>
         <v>0</v>
       </c>
-      <c r="Q39" s="44"/>
-      <c r="R39" s="44"/>
-      <c r="S39" s="44"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="42"/>
     </row>
     <row r="40" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="37"/>
-      <c r="B40" s="44"/>
+      <c r="B40" s="42"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="45"/>
+      <c r="D40" s="43"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
@@ -18855,7 +18654,7 @@
       <c r="J40" s="5"/>
       <c r="K40" s="48"/>
       <c r="L40" s="49"/>
-      <c r="M40" s="43"/>
+      <c r="M40" s="45"/>
       <c r="N40" s="55"/>
       <c r="O40" s="53"/>
       <c r="P40" s="13"/>
@@ -18868,7 +18667,7 @@
         <f aca="false">A39+1</f>
         <v>15</v>
       </c>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="42" t="s">
         <v>138</v>
       </c>
       <c r="C41" s="5"/>
@@ -18890,28 +18689,28 @@
       <c r="K41" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="L41" s="42" t="n">
+      <c r="L41" s="44" t="n">
         <f aca="false">K41/K117</f>
         <v>0.4</v>
       </c>
-      <c r="M41" s="43" t="n">
+      <c r="M41" s="45" t="n">
         <f aca="false">VLOOKUP(D41,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N41" s="43" t="n">
+      <c r="N41" s="45" t="n">
         <f aca="false">M41*L41</f>
         <v>0</v>
       </c>
-      <c r="O41" s="43" t="n">
+      <c r="O41" s="45" t="n">
         <f aca="false">IF(M41=0,0,L41*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="37"/>
-      <c r="B42" s="44"/>
+      <c r="B42" s="42"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="45"/>
+      <c r="D42" s="43"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
@@ -18919,17 +18718,17 @@
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="41"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="43"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="45"/>
     </row>
     <row r="43" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="37" t="n">
         <f aca="false">A41+1</f>
         <v>16</v>
       </c>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="42" t="s">
         <v>139</v>
       </c>
       <c r="C43" s="5"/>
@@ -18951,28 +18750,28 @@
       <c r="K43" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="L43" s="42" t="n">
+      <c r="L43" s="44" t="n">
         <f aca="false">K43/K117</f>
         <v>0.4</v>
       </c>
-      <c r="M43" s="43" t="n">
+      <c r="M43" s="45" t="n">
         <f aca="false">VLOOKUP(D43,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N43" s="43" t="n">
+      <c r="N43" s="45" t="n">
         <f aca="false">M43*L43</f>
         <v>0</v>
       </c>
-      <c r="O43" s="43" t="n">
+      <c r="O43" s="45" t="n">
         <f aca="false">IF(M43=0,0,L43*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="37"/>
-      <c r="B44" s="44"/>
+      <c r="B44" s="42"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="45"/>
+      <c r="D44" s="43"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -18980,17 +18779,17 @@
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="41"/>
-      <c r="L44" s="42"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="43"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="45"/>
+      <c r="N44" s="45"/>
+      <c r="O44" s="45"/>
     </row>
     <row r="45" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="37" t="n">
         <f aca="false">A43+1</f>
         <v>17</v>
       </c>
-      <c r="B45" s="44" t="s">
+      <c r="B45" s="42" t="s">
         <v>140</v>
       </c>
       <c r="C45" s="5"/>
@@ -19012,19 +18811,19 @@
       <c r="K45" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="L45" s="42" t="n">
+      <c r="L45" s="44" t="n">
         <f aca="false">K45/K117</f>
         <v>0.2</v>
       </c>
-      <c r="M45" s="43" t="n">
+      <c r="M45" s="45" t="n">
         <f aca="false">VLOOKUP(D45,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N45" s="43" t="n">
+      <c r="N45" s="45" t="n">
         <f aca="false">M45*L45</f>
         <v>0</v>
       </c>
-      <c r="O45" s="43" t="n">
+      <c r="O45" s="45" t="n">
         <f aca="false">IF(M45=0,0,L45*MAX(R2:R8))</f>
         <v>0</v>
       </c>
@@ -19032,7 +18831,7 @@
     <row r="46" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="51"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="45"/>
+      <c r="D46" s="43"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -19040,10 +18839,10 @@
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="41"/>
-      <c r="L46" s="42"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="43"/>
-      <c r="O46" s="43"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="45"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="45"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="31" t="s">
@@ -19058,10 +18857,10 @@
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="41"/>
-      <c r="L47" s="42"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="43"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="45"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="45"/>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="52"/>
@@ -19074,17 +18873,17 @@
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="41"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="43"/>
-      <c r="N48" s="43"/>
-      <c r="O48" s="43"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
     </row>
     <row r="49" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="37" t="n">
         <f aca="false">A45+1</f>
         <v>18</v>
       </c>
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="42" t="s">
         <v>141</v>
       </c>
       <c r="C49" s="5"/>
@@ -19106,28 +18905,28 @@
       <c r="K49" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="L49" s="42" t="n">
+      <c r="L49" s="44" t="n">
         <f aca="false">K49/K117</f>
         <v>0.8</v>
       </c>
-      <c r="M49" s="43" t="n">
+      <c r="M49" s="45" t="n">
         <f aca="false">VLOOKUP(D49,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N49" s="43" t="n">
+      <c r="N49" s="45" t="n">
         <f aca="false">M49*L49</f>
         <v>0</v>
       </c>
-      <c r="O49" s="43" t="n">
+      <c r="O49" s="45" t="n">
         <f aca="false">IF(M49=0,0,L49*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="37"/>
-      <c r="B50" s="44"/>
+      <c r="B50" s="42"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="45"/>
+      <c r="D50" s="43"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
@@ -19135,17 +18934,17 @@
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="41"/>
-      <c r="L50" s="42"/>
-      <c r="M50" s="43"/>
-      <c r="N50" s="43"/>
-      <c r="O50" s="43"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="45"/>
+      <c r="N50" s="45"/>
+      <c r="O50" s="45"/>
     </row>
     <row r="51" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="37" t="n">
         <f aca="false">A49+1</f>
         <v>19</v>
       </c>
-      <c r="B51" s="44" t="s">
+      <c r="B51" s="42" t="s">
         <v>142</v>
       </c>
       <c r="C51" s="5"/>
@@ -19167,28 +18966,28 @@
       <c r="K51" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="L51" s="42" t="n">
+      <c r="L51" s="44" t="n">
         <f aca="false">K51/K117</f>
         <v>0.8</v>
       </c>
-      <c r="M51" s="43" t="n">
+      <c r="M51" s="45" t="n">
         <f aca="false">VLOOKUP(D51,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N51" s="43" t="n">
+      <c r="N51" s="45" t="n">
         <f aca="false">M51*L51</f>
         <v>0</v>
       </c>
-      <c r="O51" s="43" t="n">
+      <c r="O51" s="45" t="n">
         <f aca="false">IF(M51=0,0,L51*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="37"/>
-      <c r="B52" s="44"/>
+      <c r="B52" s="42"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="45"/>
+      <c r="D52" s="43"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
@@ -19196,17 +18995,17 @@
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="41"/>
-      <c r="L52" s="42"/>
-      <c r="M52" s="43"/>
-      <c r="N52" s="43"/>
-      <c r="O52" s="43"/>
+      <c r="L52" s="44"/>
+      <c r="M52" s="45"/>
+      <c r="N52" s="45"/>
+      <c r="O52" s="45"/>
     </row>
     <row r="53" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="37" t="n">
         <f aca="false">A51+1</f>
         <v>20</v>
       </c>
-      <c r="B53" s="44" t="s">
+      <c r="B53" s="42" t="s">
         <v>143</v>
       </c>
       <c r="C53" s="5"/>
@@ -19228,28 +19027,28 @@
       <c r="K53" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="L53" s="42" t="n">
+      <c r="L53" s="44" t="n">
         <f aca="false">K53/K117</f>
         <v>0.4</v>
       </c>
-      <c r="M53" s="43" t="n">
+      <c r="M53" s="45" t="n">
         <f aca="false">VLOOKUP(D53,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N53" s="43" t="n">
+      <c r="N53" s="45" t="n">
         <f aca="false">M53*L53</f>
         <v>0</v>
       </c>
-      <c r="O53" s="43" t="n">
+      <c r="O53" s="45" t="n">
         <f aca="false">IF(M53=0,0,L53*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="37"/>
-      <c r="B54" s="44"/>
+      <c r="B54" s="42"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="45"/>
+      <c r="D54" s="43"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
@@ -19257,17 +19056,17 @@
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="41"/>
-      <c r="L54" s="42"/>
-      <c r="M54" s="43"/>
-      <c r="N54" s="43"/>
-      <c r="O54" s="43"/>
+      <c r="L54" s="44"/>
+      <c r="M54" s="45"/>
+      <c r="N54" s="45"/>
+      <c r="O54" s="45"/>
     </row>
     <row r="55" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="37" t="n">
         <f aca="false">A53+1</f>
         <v>21</v>
       </c>
-      <c r="B55" s="44" t="s">
+      <c r="B55" s="42" t="s">
         <v>144</v>
       </c>
       <c r="C55" s="5"/>
@@ -19289,19 +19088,19 @@
       <c r="K55" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="L55" s="42" t="n">
+      <c r="L55" s="44" t="n">
         <f aca="false">K55/K117</f>
         <v>0.8</v>
       </c>
-      <c r="M55" s="43" t="n">
+      <c r="M55" s="45" t="n">
         <f aca="false">VLOOKUP(D55,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N55" s="43" t="n">
+      <c r="N55" s="45" t="n">
         <f aca="false">M55*L55</f>
         <v>0</v>
       </c>
-      <c r="O55" s="43" t="n">
+      <c r="O55" s="45" t="n">
         <f aca="false">IF(M55=0,0,L55*MAX(R2:R8))</f>
         <v>0</v>
       </c>
@@ -19309,7 +19108,7 @@
     <row r="56" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="51"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="45"/>
+      <c r="D56" s="43"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
@@ -19317,10 +19116,10 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="41"/>
-      <c r="L56" s="42"/>
-      <c r="M56" s="43"/>
-      <c r="N56" s="43"/>
-      <c r="O56" s="43"/>
+      <c r="L56" s="44"/>
+      <c r="M56" s="45"/>
+      <c r="N56" s="45"/>
+      <c r="O56" s="45"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="31" t="s">
@@ -19335,10 +19134,10 @@
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="41"/>
-      <c r="L57" s="42"/>
-      <c r="M57" s="43"/>
-      <c r="N57" s="43"/>
-      <c r="O57" s="43"/>
+      <c r="L57" s="44"/>
+      <c r="M57" s="45"/>
+      <c r="N57" s="45"/>
+      <c r="O57" s="45"/>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="52"/>
@@ -19351,17 +19150,17 @@
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="41"/>
-      <c r="L58" s="42"/>
-      <c r="M58" s="43"/>
-      <c r="N58" s="43"/>
-      <c r="O58" s="43"/>
+      <c r="L58" s="44"/>
+      <c r="M58" s="45"/>
+      <c r="N58" s="45"/>
+      <c r="O58" s="45"/>
     </row>
     <row r="59" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="37" t="n">
         <f aca="false">A55+1</f>
         <v>22</v>
       </c>
-      <c r="B59" s="44" t="s">
+      <c r="B59" s="42" t="s">
         <v>145</v>
       </c>
       <c r="C59" s="5"/>
@@ -19383,28 +19182,28 @@
       <c r="K59" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="L59" s="42" t="n">
+      <c r="L59" s="44" t="n">
         <f aca="false">K59/K117</f>
         <v>0.8</v>
       </c>
-      <c r="M59" s="43" t="n">
+      <c r="M59" s="45" t="n">
         <f aca="false">VLOOKUP(D59,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N59" s="43" t="n">
+      <c r="N59" s="45" t="n">
         <f aca="false">M59*L59</f>
         <v>0</v>
       </c>
-      <c r="O59" s="43" t="n">
+      <c r="O59" s="45" t="n">
         <f aca="false">IF(M59=0,0,L59*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="37"/>
-      <c r="B60" s="44"/>
+      <c r="B60" s="42"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="45"/>
+      <c r="D60" s="43"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -19412,17 +19211,17 @@
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="41"/>
-      <c r="L60" s="42"/>
-      <c r="M60" s="43"/>
-      <c r="N60" s="43"/>
-      <c r="O60" s="43"/>
+      <c r="L60" s="44"/>
+      <c r="M60" s="45"/>
+      <c r="N60" s="45"/>
+      <c r="O60" s="45"/>
     </row>
     <row r="61" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="37" t="n">
         <f aca="false">A59+1</f>
         <v>23</v>
       </c>
-      <c r="B61" s="44" t="s">
+      <c r="B61" s="42" t="s">
         <v>146</v>
       </c>
       <c r="C61" s="5"/>
@@ -19444,28 +19243,28 @@
       <c r="K61" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L61" s="42" t="n">
+      <c r="L61" s="44" t="n">
         <f aca="false">K61/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M61" s="43" t="n">
+      <c r="M61" s="45" t="n">
         <f aca="false">VLOOKUP(D61,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N61" s="43" t="n">
+      <c r="N61" s="45" t="n">
         <f aca="false">M61*L61</f>
         <v>0</v>
       </c>
-      <c r="O61" s="43" t="n">
+      <c r="O61" s="45" t="n">
         <f aca="false">IF(M61=0,0,L61*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="37"/>
-      <c r="B62" s="44"/>
+      <c r="B62" s="42"/>
       <c r="C62" s="5"/>
-      <c r="D62" s="45"/>
+      <c r="D62" s="43"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
@@ -19473,17 +19272,17 @@
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="41"/>
-      <c r="L62" s="42"/>
-      <c r="M62" s="43"/>
-      <c r="N62" s="43"/>
-      <c r="O62" s="43"/>
+      <c r="L62" s="44"/>
+      <c r="M62" s="45"/>
+      <c r="N62" s="45"/>
+      <c r="O62" s="45"/>
     </row>
     <row r="63" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="37" t="n">
         <f aca="false">A61+1</f>
         <v>24</v>
       </c>
-      <c r="B63" s="44" t="s">
+      <c r="B63" s="42" t="s">
         <v>147</v>
       </c>
       <c r="C63" s="5"/>
@@ -19505,19 +19304,19 @@
       <c r="K63" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="L63" s="42" t="n">
+      <c r="L63" s="44" t="n">
         <f aca="false">K63/K117</f>
         <v>0.2</v>
       </c>
-      <c r="M63" s="43" t="n">
+      <c r="M63" s="45" t="n">
         <f aca="false">VLOOKUP(D63,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N63" s="43" t="n">
+      <c r="N63" s="45" t="n">
         <f aca="false">M63*L63</f>
         <v>0</v>
       </c>
-      <c r="O63" s="43" t="n">
+      <c r="O63" s="45" t="n">
         <f aca="false">IF(M63=0,0,L63*MAX(R2:R8))</f>
         <v>0</v>
       </c>
@@ -19525,7 +19324,7 @@
     <row r="64" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="26"/>
       <c r="C64" s="5"/>
-      <c r="D64" s="45"/>
+      <c r="D64" s="43"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
@@ -19533,10 +19332,10 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="41"/>
-      <c r="L64" s="42"/>
-      <c r="M64" s="43"/>
-      <c r="N64" s="43"/>
-      <c r="O64" s="43"/>
+      <c r="L64" s="44"/>
+      <c r="M64" s="45"/>
+      <c r="N64" s="45"/>
+      <c r="O64" s="45"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="31" t="s">
@@ -19551,10 +19350,10 @@
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="41"/>
-      <c r="L65" s="42"/>
-      <c r="M65" s="43"/>
-      <c r="N65" s="43"/>
-      <c r="O65" s="43"/>
+      <c r="L65" s="44"/>
+      <c r="M65" s="45"/>
+      <c r="N65" s="45"/>
+      <c r="O65" s="45"/>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="52"/>
@@ -19567,17 +19366,17 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="41"/>
-      <c r="L66" s="42"/>
-      <c r="M66" s="43"/>
-      <c r="N66" s="43"/>
-      <c r="O66" s="43"/>
+      <c r="L66" s="44"/>
+      <c r="M66" s="45"/>
+      <c r="N66" s="45"/>
+      <c r="O66" s="45"/>
     </row>
     <row r="67" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="37" t="n">
         <f aca="false">A63+1</f>
         <v>25</v>
       </c>
-      <c r="B67" s="44" t="s">
+      <c r="B67" s="42" t="s">
         <v>148</v>
       </c>
       <c r="C67" s="5"/>
@@ -19599,28 +19398,28 @@
       <c r="K67" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L67" s="42" t="n">
+      <c r="L67" s="44" t="n">
         <f aca="false">K67/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M67" s="43" t="n">
+      <c r="M67" s="45" t="n">
         <f aca="false">VLOOKUP(D67,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N67" s="43" t="n">
+      <c r="N67" s="45" t="n">
         <f aca="false">M67*L67</f>
         <v>0</v>
       </c>
-      <c r="O67" s="43" t="n">
+      <c r="O67" s="45" t="n">
         <f aca="false">IF(M67=0,0,L67*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="37"/>
-      <c r="B68" s="44"/>
+      <c r="B68" s="42"/>
       <c r="C68" s="5"/>
-      <c r="D68" s="45"/>
+      <c r="D68" s="43"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
@@ -19628,17 +19427,17 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="41"/>
-      <c r="L68" s="42"/>
-      <c r="M68" s="43"/>
-      <c r="N68" s="43"/>
-      <c r="O68" s="43"/>
+      <c r="L68" s="44"/>
+      <c r="M68" s="45"/>
+      <c r="N68" s="45"/>
+      <c r="O68" s="45"/>
     </row>
     <row r="69" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="37" t="n">
         <f aca="false">A67+1</f>
         <v>26</v>
       </c>
-      <c r="B69" s="44" t="s">
+      <c r="B69" s="42" t="s">
         <v>149</v>
       </c>
       <c r="C69" s="5"/>
@@ -19660,28 +19459,28 @@
       <c r="K69" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="L69" s="42" t="n">
+      <c r="L69" s="44" t="n">
         <f aca="false">K69/K117</f>
         <v>0.4</v>
       </c>
-      <c r="M69" s="43" t="n">
+      <c r="M69" s="45" t="n">
         <f aca="false">VLOOKUP(D69,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N69" s="43" t="n">
+      <c r="N69" s="45" t="n">
         <f aca="false">M69*L69</f>
         <v>0</v>
       </c>
-      <c r="O69" s="43" t="n">
+      <c r="O69" s="45" t="n">
         <f aca="false">IF(M69=0,0,L69*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="37"/>
-      <c r="B70" s="44"/>
+      <c r="B70" s="42"/>
       <c r="C70" s="5"/>
-      <c r="D70" s="45"/>
+      <c r="D70" s="43"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
@@ -19689,17 +19488,17 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="41"/>
-      <c r="L70" s="42"/>
-      <c r="M70" s="43"/>
-      <c r="N70" s="43"/>
-      <c r="O70" s="43"/>
+      <c r="L70" s="44"/>
+      <c r="M70" s="45"/>
+      <c r="N70" s="45"/>
+      <c r="O70" s="45"/>
     </row>
     <row r="71" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="37" t="n">
         <f aca="false">A69+1</f>
         <v>27</v>
       </c>
-      <c r="B71" s="44" t="s">
+      <c r="B71" s="42" t="s">
         <v>150</v>
       </c>
       <c r="C71" s="5"/>
@@ -19721,28 +19520,28 @@
       <c r="K71" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="L71" s="42" t="n">
+      <c r="L71" s="44" t="n">
         <f aca="false">K71/K117</f>
         <v>0.4</v>
       </c>
-      <c r="M71" s="43" t="n">
+      <c r="M71" s="45" t="n">
         <f aca="false">VLOOKUP(D71,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N71" s="43" t="n">
+      <c r="N71" s="45" t="n">
         <f aca="false">M71*L71</f>
         <v>0</v>
       </c>
-      <c r="O71" s="43" t="n">
+      <c r="O71" s="45" t="n">
         <f aca="false">IF(M71=0,0,L71*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="37"/>
-      <c r="B72" s="44"/>
+      <c r="B72" s="42"/>
       <c r="C72" s="5"/>
-      <c r="D72" s="45"/>
+      <c r="D72" s="43"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
@@ -19750,17 +19549,17 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="41"/>
-      <c r="L72" s="42"/>
-      <c r="M72" s="43"/>
-      <c r="N72" s="43"/>
-      <c r="O72" s="43"/>
+      <c r="L72" s="44"/>
+      <c r="M72" s="45"/>
+      <c r="N72" s="45"/>
+      <c r="O72" s="45"/>
     </row>
     <row r="73" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="37" t="n">
         <f aca="false">A71+1</f>
         <v>28</v>
       </c>
-      <c r="B73" s="44" t="s">
+      <c r="B73" s="42" t="s">
         <v>151</v>
       </c>
       <c r="C73" s="5"/>
@@ -19782,28 +19581,28 @@
       <c r="K73" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L73" s="42" t="n">
+      <c r="L73" s="44" t="n">
         <f aca="false">K73/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M73" s="43" t="n">
+      <c r="M73" s="45" t="n">
         <f aca="false">VLOOKUP(D73,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N73" s="43" t="n">
+      <c r="N73" s="45" t="n">
         <f aca="false">M73*L73</f>
         <v>0</v>
       </c>
-      <c r="O73" s="43" t="n">
+      <c r="O73" s="45" t="n">
         <f aca="false">IF(M73=0,0,L73*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="37"/>
-      <c r="B74" s="44"/>
+      <c r="B74" s="42"/>
       <c r="C74" s="5"/>
-      <c r="D74" s="45"/>
+      <c r="D74" s="43"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
@@ -19811,17 +19610,17 @@
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="41"/>
-      <c r="L74" s="42"/>
-      <c r="M74" s="43"/>
-      <c r="N74" s="43"/>
-      <c r="O74" s="43"/>
+      <c r="L74" s="44"/>
+      <c r="M74" s="45"/>
+      <c r="N74" s="45"/>
+      <c r="O74" s="45"/>
     </row>
     <row r="75" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="37" t="n">
         <f aca="false">A73+1</f>
         <v>29</v>
       </c>
-      <c r="B75" s="44" t="s">
+      <c r="B75" s="42" t="s">
         <v>152</v>
       </c>
       <c r="C75" s="5"/>
@@ -19843,19 +19642,19 @@
       <c r="K75" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L75" s="42" t="n">
+      <c r="L75" s="44" t="n">
         <f aca="false">K75/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M75" s="43" t="n">
+      <c r="M75" s="45" t="n">
         <f aca="false">VLOOKUP(D75,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N75" s="43" t="n">
+      <c r="N75" s="45" t="n">
         <f aca="false">M75*L75</f>
         <v>0</v>
       </c>
-      <c r="O75" s="43" t="n">
+      <c r="O75" s="45" t="n">
         <f aca="false">IF(M75=0,0,L75*MAX(R2:R8))</f>
         <v>0</v>
       </c>
@@ -19863,7 +19662,7 @@
     <row r="76" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="51"/>
       <c r="C76" s="5"/>
-      <c r="D76" s="45"/>
+      <c r="D76" s="43"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
@@ -19871,10 +19670,10 @@
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="41"/>
-      <c r="L76" s="42"/>
-      <c r="M76" s="43"/>
-      <c r="N76" s="43"/>
-      <c r="O76" s="43"/>
+      <c r="L76" s="44"/>
+      <c r="M76" s="45"/>
+      <c r="N76" s="45"/>
+      <c r="O76" s="45"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="31" t="s">
@@ -19889,10 +19688,10 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="41"/>
-      <c r="L77" s="42"/>
-      <c r="M77" s="43"/>
-      <c r="N77" s="43"/>
-      <c r="O77" s="43"/>
+      <c r="L77" s="44"/>
+      <c r="M77" s="45"/>
+      <c r="N77" s="45"/>
+      <c r="O77" s="45"/>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="52"/>
@@ -19905,17 +19704,17 @@
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="41"/>
-      <c r="L78" s="42"/>
-      <c r="M78" s="43"/>
-      <c r="N78" s="43"/>
-      <c r="O78" s="43"/>
+      <c r="L78" s="44"/>
+      <c r="M78" s="45"/>
+      <c r="N78" s="45"/>
+      <c r="O78" s="45"/>
     </row>
     <row r="79" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="37" t="n">
         <f aca="false">A75+1</f>
         <v>30</v>
       </c>
-      <c r="B79" s="44" t="s">
+      <c r="B79" s="42" t="s">
         <v>153</v>
       </c>
       <c r="C79" s="5"/>
@@ -19937,28 +19736,28 @@
       <c r="K79" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="L79" s="42" t="n">
+      <c r="L79" s="44" t="n">
         <f aca="false">K79/K117</f>
         <v>0.8</v>
       </c>
-      <c r="M79" s="43" t="n">
+      <c r="M79" s="45" t="n">
         <f aca="false">VLOOKUP(D79,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N79" s="43" t="n">
+      <c r="N79" s="45" t="n">
         <f aca="false">M79*L79</f>
         <v>0</v>
       </c>
-      <c r="O79" s="43" t="n">
+      <c r="O79" s="45" t="n">
         <f aca="false">IF(M79=0,0,L79*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="37"/>
-      <c r="B80" s="44"/>
+      <c r="B80" s="42"/>
       <c r="C80" s="5"/>
-      <c r="D80" s="45"/>
+      <c r="D80" s="43"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
@@ -19966,17 +19765,17 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="41"/>
-      <c r="L80" s="42"/>
-      <c r="M80" s="43"/>
-      <c r="N80" s="43"/>
-      <c r="O80" s="43"/>
+      <c r="L80" s="44"/>
+      <c r="M80" s="45"/>
+      <c r="N80" s="45"/>
+      <c r="O80" s="45"/>
     </row>
     <row r="81" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="37" t="n">
         <f aca="false">A79+1</f>
         <v>31</v>
       </c>
-      <c r="B81" s="44" t="s">
+      <c r="B81" s="42" t="s">
         <v>154</v>
       </c>
       <c r="C81" s="5"/>
@@ -19998,28 +19797,28 @@
       <c r="K81" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L81" s="42" t="n">
+      <c r="L81" s="44" t="n">
         <f aca="false">K81/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M81" s="43" t="n">
+      <c r="M81" s="45" t="n">
         <f aca="false">VLOOKUP(D81,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N81" s="43" t="n">
+      <c r="N81" s="45" t="n">
         <f aca="false">M81*L81</f>
         <v>0</v>
       </c>
-      <c r="O81" s="43" t="n">
+      <c r="O81" s="45" t="n">
         <f aca="false">IF(M81=0,0,L81*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="37"/>
-      <c r="B82" s="44"/>
+      <c r="B82" s="42"/>
       <c r="C82" s="5"/>
-      <c r="D82" s="45"/>
+      <c r="D82" s="43"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
@@ -20027,17 +19826,17 @@
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="41"/>
-      <c r="L82" s="42"/>
-      <c r="M82" s="43"/>
-      <c r="N82" s="43"/>
-      <c r="O82" s="43"/>
+      <c r="L82" s="44"/>
+      <c r="M82" s="45"/>
+      <c r="N82" s="45"/>
+      <c r="O82" s="45"/>
     </row>
     <row r="83" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="37" t="n">
         <f aca="false">A81+1</f>
         <v>32</v>
       </c>
-      <c r="B83" s="44" t="s">
+      <c r="B83" s="42" t="s">
         <v>155</v>
       </c>
       <c r="C83" s="5"/>
@@ -20059,28 +19858,28 @@
       <c r="K83" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L83" s="42" t="n">
+      <c r="L83" s="44" t="n">
         <f aca="false">K83/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M83" s="43" t="n">
+      <c r="M83" s="45" t="n">
         <f aca="false">VLOOKUP(D83,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N83" s="43" t="n">
+      <c r="N83" s="45" t="n">
         <f aca="false">M83*L83</f>
         <v>0</v>
       </c>
-      <c r="O83" s="43" t="n">
+      <c r="O83" s="45" t="n">
         <f aca="false">IF(M83=0,0,L83*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="37"/>
-      <c r="B84" s="44"/>
+      <c r="B84" s="42"/>
       <c r="C84" s="5"/>
-      <c r="D84" s="45"/>
+      <c r="D84" s="43"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
@@ -20088,17 +19887,17 @@
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="41"/>
-      <c r="L84" s="42"/>
-      <c r="M84" s="43"/>
-      <c r="N84" s="43"/>
-      <c r="O84" s="43"/>
+      <c r="L84" s="44"/>
+      <c r="M84" s="45"/>
+      <c r="N84" s="45"/>
+      <c r="O84" s="45"/>
     </row>
     <row r="85" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="37" t="n">
         <f aca="false">A83+1</f>
         <v>33</v>
       </c>
-      <c r="B85" s="44" t="s">
+      <c r="B85" s="42" t="s">
         <v>156</v>
       </c>
       <c r="C85" s="5"/>
@@ -20120,19 +19919,19 @@
       <c r="K85" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L85" s="42" t="n">
+      <c r="L85" s="44" t="n">
         <f aca="false">K85/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M85" s="43" t="n">
+      <c r="M85" s="45" t="n">
         <f aca="false">VLOOKUP(D85,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N85" s="43" t="n">
+      <c r="N85" s="45" t="n">
         <f aca="false">M85*L85</f>
         <v>0</v>
       </c>
-      <c r="O85" s="43" t="n">
+      <c r="O85" s="45" t="n">
         <f aca="false">IF(M85=0,0,L85*MAX(R2:R8))</f>
         <v>0</v>
       </c>
@@ -20140,7 +19939,7 @@
     <row r="86" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B86" s="51"/>
       <c r="C86" s="5"/>
-      <c r="D86" s="45"/>
+      <c r="D86" s="43"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
@@ -20148,10 +19947,10 @@
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="41"/>
-      <c r="L86" s="42"/>
-      <c r="M86" s="43"/>
-      <c r="N86" s="43"/>
-      <c r="O86" s="43"/>
+      <c r="L86" s="44"/>
+      <c r="M86" s="45"/>
+      <c r="N86" s="45"/>
+      <c r="O86" s="45"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="31" t="s">
@@ -20166,10 +19965,10 @@
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
       <c r="K87" s="41"/>
-      <c r="L87" s="42"/>
-      <c r="M87" s="43"/>
-      <c r="N87" s="43"/>
-      <c r="O87" s="43"/>
+      <c r="L87" s="44"/>
+      <c r="M87" s="45"/>
+      <c r="N87" s="45"/>
+      <c r="O87" s="45"/>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B88" s="52"/>
@@ -20182,17 +19981,17 @@
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
       <c r="K88" s="41"/>
-      <c r="L88" s="42"/>
-      <c r="M88" s="43"/>
-      <c r="N88" s="43"/>
-      <c r="O88" s="43"/>
+      <c r="L88" s="44"/>
+      <c r="M88" s="45"/>
+      <c r="N88" s="45"/>
+      <c r="O88" s="45"/>
     </row>
     <row r="89" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="37" t="n">
         <f aca="false">A85+1</f>
         <v>34</v>
       </c>
-      <c r="B89" s="44" t="s">
+      <c r="B89" s="42" t="s">
         <v>157</v>
       </c>
       <c r="C89" s="5"/>
@@ -20214,28 +20013,28 @@
       <c r="K89" s="41" t="n">
         <v>5</v>
       </c>
-      <c r="L89" s="42" t="n">
+      <c r="L89" s="44" t="n">
         <f aca="false">K89/K117</f>
         <v>1</v>
       </c>
-      <c r="M89" s="43" t="n">
+      <c r="M89" s="45" t="n">
         <f aca="false">VLOOKUP(D89,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N89" s="43" t="n">
+      <c r="N89" s="45" t="n">
         <f aca="false">M89*L89</f>
         <v>0</v>
       </c>
-      <c r="O89" s="43" t="n">
+      <c r="O89" s="45" t="n">
         <f aca="false">IF(M89=0,0,L89*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="37"/>
-      <c r="B90" s="44"/>
+      <c r="B90" s="42"/>
       <c r="C90" s="5"/>
-      <c r="D90" s="45"/>
+      <c r="D90" s="43"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
@@ -20243,17 +20042,17 @@
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
       <c r="K90" s="41"/>
-      <c r="L90" s="42"/>
-      <c r="M90" s="43"/>
-      <c r="N90" s="43"/>
-      <c r="O90" s="43"/>
+      <c r="L90" s="44"/>
+      <c r="M90" s="45"/>
+      <c r="N90" s="45"/>
+      <c r="O90" s="45"/>
     </row>
     <row r="91" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="37" t="n">
         <f aca="false">A89+1</f>
         <v>35</v>
       </c>
-      <c r="B91" s="44" t="s">
+      <c r="B91" s="42" t="s">
         <v>158</v>
       </c>
       <c r="C91" s="5"/>
@@ -20275,28 +20074,28 @@
       <c r="K91" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="L91" s="42" t="n">
+      <c r="L91" s="44" t="n">
         <f aca="false">K91/K117</f>
         <v>0.4</v>
       </c>
-      <c r="M91" s="43" t="n">
+      <c r="M91" s="45" t="n">
         <f aca="false">VLOOKUP(D91,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N91" s="43" t="n">
+      <c r="N91" s="45" t="n">
         <f aca="false">M91*L91</f>
         <v>0</v>
       </c>
-      <c r="O91" s="43" t="n">
+      <c r="O91" s="45" t="n">
         <f aca="false">IF(M91=0,0,L91*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="37"/>
-      <c r="B92" s="44"/>
+      <c r="B92" s="42"/>
       <c r="C92" s="5"/>
-      <c r="D92" s="45"/>
+      <c r="D92" s="43"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
@@ -20304,17 +20103,17 @@
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="K92" s="41"/>
-      <c r="L92" s="42"/>
-      <c r="M92" s="43"/>
-      <c r="N92" s="43"/>
-      <c r="O92" s="43"/>
+      <c r="L92" s="44"/>
+      <c r="M92" s="45"/>
+      <c r="N92" s="45"/>
+      <c r="O92" s="45"/>
     </row>
     <row r="93" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="37" t="n">
         <f aca="false">A91+1</f>
         <v>36</v>
       </c>
-      <c r="B93" s="44" t="s">
+      <c r="B93" s="42" t="s">
         <v>159</v>
       </c>
       <c r="C93" s="5"/>
@@ -20336,28 +20135,28 @@
       <c r="K93" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="L93" s="42" t="n">
+      <c r="L93" s="44" t="n">
         <f aca="false">K93/K117</f>
         <v>0.8</v>
       </c>
-      <c r="M93" s="43" t="n">
+      <c r="M93" s="45" t="n">
         <f aca="false">VLOOKUP(D93,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N93" s="43" t="n">
+      <c r="N93" s="45" t="n">
         <f aca="false">M93*L93</f>
         <v>0</v>
       </c>
-      <c r="O93" s="43" t="n">
+      <c r="O93" s="45" t="n">
         <f aca="false">IF(M93=0,0,L93*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="37"/>
-      <c r="B94" s="44"/>
+      <c r="B94" s="42"/>
       <c r="C94" s="5"/>
-      <c r="D94" s="45"/>
+      <c r="D94" s="43"/>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
@@ -20365,17 +20164,17 @@
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
       <c r="K94" s="41"/>
-      <c r="L94" s="42"/>
-      <c r="M94" s="43"/>
-      <c r="N94" s="43"/>
-      <c r="O94" s="43"/>
+      <c r="L94" s="44"/>
+      <c r="M94" s="45"/>
+      <c r="N94" s="45"/>
+      <c r="O94" s="45"/>
     </row>
     <row r="95" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="37" t="n">
         <f aca="false">A93+1</f>
         <v>37</v>
       </c>
-      <c r="B95" s="44" t="s">
+      <c r="B95" s="42" t="s">
         <v>160</v>
       </c>
       <c r="C95" s="5"/>
@@ -20397,28 +20196,28 @@
       <c r="K95" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L95" s="42" t="n">
+      <c r="L95" s="44" t="n">
         <f aca="false">K95/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M95" s="43" t="n">
+      <c r="M95" s="45" t="n">
         <f aca="false">VLOOKUP(D95,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N95" s="43" t="n">
+      <c r="N95" s="45" t="n">
         <f aca="false">M95*L95</f>
         <v>0</v>
       </c>
-      <c r="O95" s="43" t="n">
+      <c r="O95" s="45" t="n">
         <f aca="false">IF(M95=0,0,L95*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="37"/>
-      <c r="B96" s="44"/>
+      <c r="B96" s="42"/>
       <c r="C96" s="5"/>
-      <c r="D96" s="45"/>
+      <c r="D96" s="43"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
@@ -20426,17 +20225,17 @@
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
       <c r="K96" s="41"/>
-      <c r="L96" s="42"/>
-      <c r="M96" s="43"/>
-      <c r="N96" s="43"/>
-      <c r="O96" s="43"/>
+      <c r="L96" s="44"/>
+      <c r="M96" s="45"/>
+      <c r="N96" s="45"/>
+      <c r="O96" s="45"/>
     </row>
     <row r="97" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="37" t="n">
         <f aca="false">A95+1</f>
         <v>38</v>
       </c>
-      <c r="B97" s="44" t="s">
+      <c r="B97" s="42" t="s">
         <v>161</v>
       </c>
       <c r="C97" s="5"/>
@@ -20458,19 +20257,19 @@
       <c r="K97" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L97" s="42" t="n">
+      <c r="L97" s="44" t="n">
         <f aca="false">K97/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M97" s="43" t="n">
+      <c r="M97" s="45" t="n">
         <f aca="false">VLOOKUP(D97,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N97" s="43" t="n">
+      <c r="N97" s="45" t="n">
         <f aca="false">M97*L97</f>
         <v>0</v>
       </c>
-      <c r="O97" s="43" t="n">
+      <c r="O97" s="45" t="n">
         <f aca="false">IF(M97=0,0,L97*MAX(R2:R8))</f>
         <v>0</v>
       </c>
@@ -20478,7 +20277,7 @@
     <row r="98" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B98" s="51"/>
       <c r="C98" s="5"/>
-      <c r="D98" s="45"/>
+      <c r="D98" s="43"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
@@ -20486,10 +20285,10 @@
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="K98" s="41"/>
-      <c r="L98" s="42"/>
-      <c r="M98" s="43"/>
-      <c r="N98" s="43"/>
-      <c r="O98" s="43"/>
+      <c r="L98" s="44"/>
+      <c r="M98" s="45"/>
+      <c r="N98" s="45"/>
+      <c r="O98" s="45"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="31" t="s">
@@ -20504,10 +20303,10 @@
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
       <c r="K99" s="41"/>
-      <c r="L99" s="42"/>
-      <c r="M99" s="43"/>
-      <c r="N99" s="43"/>
-      <c r="O99" s="43"/>
+      <c r="L99" s="44"/>
+      <c r="M99" s="45"/>
+      <c r="N99" s="45"/>
+      <c r="O99" s="45"/>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B100" s="52"/>
@@ -20520,17 +20319,17 @@
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
       <c r="K100" s="41"/>
-      <c r="L100" s="42"/>
-      <c r="M100" s="43"/>
-      <c r="N100" s="43"/>
-      <c r="O100" s="43"/>
+      <c r="L100" s="44"/>
+      <c r="M100" s="45"/>
+      <c r="N100" s="45"/>
+      <c r="O100" s="45"/>
     </row>
     <row r="101" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="37" t="n">
         <f aca="false">A97+1</f>
         <v>39</v>
       </c>
-      <c r="B101" s="44" t="s">
+      <c r="B101" s="42" t="s">
         <v>162</v>
       </c>
       <c r="C101" s="5"/>
@@ -20552,28 +20351,28 @@
       <c r="K101" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="L101" s="42" t="n">
+      <c r="L101" s="44" t="n">
         <f aca="false">K101/K117</f>
         <v>0.8</v>
       </c>
-      <c r="M101" s="43" t="n">
+      <c r="M101" s="45" t="n">
         <f aca="false">VLOOKUP(D101,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N101" s="43" t="n">
+      <c r="N101" s="45" t="n">
         <f aca="false">M101*L101</f>
         <v>0</v>
       </c>
-      <c r="O101" s="43" t="n">
+      <c r="O101" s="45" t="n">
         <f aca="false">IF(M101=0,0,L101*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="37"/>
-      <c r="B102" s="44"/>
+      <c r="B102" s="42"/>
       <c r="C102" s="5"/>
-      <c r="D102" s="45"/>
+      <c r="D102" s="43"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
@@ -20581,17 +20380,17 @@
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
       <c r="K102" s="41"/>
-      <c r="L102" s="42"/>
-      <c r="M102" s="43"/>
-      <c r="N102" s="43"/>
-      <c r="O102" s="43"/>
+      <c r="L102" s="44"/>
+      <c r="M102" s="45"/>
+      <c r="N102" s="45"/>
+      <c r="O102" s="45"/>
     </row>
     <row r="103" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="37" t="n">
         <f aca="false">A101+1</f>
         <v>40</v>
       </c>
-      <c r="B103" s="44" t="s">
+      <c r="B103" s="42" t="s">
         <v>163</v>
       </c>
       <c r="C103" s="5"/>
@@ -20613,28 +20412,28 @@
       <c r="K103" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L103" s="42" t="n">
+      <c r="L103" s="44" t="n">
         <f aca="false">K103/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M103" s="43" t="n">
+      <c r="M103" s="45" t="n">
         <f aca="false">VLOOKUP(D103,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N103" s="43" t="n">
+      <c r="N103" s="45" t="n">
         <f aca="false">M103*L103</f>
         <v>0</v>
       </c>
-      <c r="O103" s="43" t="n">
+      <c r="O103" s="45" t="n">
         <f aca="false">IF(M103=0,0,L103*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="37"/>
-      <c r="B104" s="44"/>
+      <c r="B104" s="42"/>
       <c r="C104" s="5"/>
-      <c r="D104" s="45"/>
+      <c r="D104" s="43"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
@@ -20642,17 +20441,17 @@
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
       <c r="K104" s="41"/>
-      <c r="L104" s="42"/>
-      <c r="M104" s="43"/>
-      <c r="N104" s="43"/>
-      <c r="O104" s="43"/>
+      <c r="L104" s="44"/>
+      <c r="M104" s="45"/>
+      <c r="N104" s="45"/>
+      <c r="O104" s="45"/>
     </row>
     <row r="105" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="37" t="n">
         <f aca="false">A103+1</f>
         <v>41</v>
       </c>
-      <c r="B105" s="44" t="s">
+      <c r="B105" s="42" t="s">
         <v>164</v>
       </c>
       <c r="C105" s="5"/>
@@ -20674,28 +20473,28 @@
       <c r="K105" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="L105" s="42" t="n">
+      <c r="L105" s="44" t="n">
         <f aca="false">K105/K117</f>
         <v>0.6</v>
       </c>
-      <c r="M105" s="43" t="n">
+      <c r="M105" s="45" t="n">
         <f aca="false">VLOOKUP(D105,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N105" s="43" t="n">
+      <c r="N105" s="45" t="n">
         <f aca="false">M105*L105</f>
         <v>0</v>
       </c>
-      <c r="O105" s="43" t="n">
+      <c r="O105" s="45" t="n">
         <f aca="false">IF(M105=0,0,L105*MAX(R2:R8))</f>
         <v>0</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="37"/>
-      <c r="B106" s="44"/>
+      <c r="B106" s="42"/>
       <c r="C106" s="5"/>
-      <c r="D106" s="45"/>
+      <c r="D106" s="43"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
@@ -20703,17 +20502,17 @@
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
       <c r="K106" s="41"/>
-      <c r="L106" s="42"/>
-      <c r="M106" s="43"/>
-      <c r="N106" s="43"/>
-      <c r="O106" s="43"/>
+      <c r="L106" s="44"/>
+      <c r="M106" s="45"/>
+      <c r="N106" s="45"/>
+      <c r="O106" s="45"/>
     </row>
     <row r="107" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="37" t="n">
         <f aca="false">A105+1</f>
         <v>42</v>
       </c>
-      <c r="B107" s="44" t="s">
+      <c r="B107" s="42" t="s">
         <v>165</v>
       </c>
       <c r="C107" s="5"/>
@@ -20735,19 +20534,19 @@
       <c r="K107" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="L107" s="42" t="n">
+      <c r="L107" s="44" t="n">
         <f aca="false">K107/K117</f>
         <v>0.4</v>
       </c>
-      <c r="M107" s="43" t="n">
+      <c r="M107" s="45" t="n">
         <f aca="false">VLOOKUP(D107,Q1:R9,2,FALSE())</f>
         <v>0</v>
       </c>
-      <c r="N107" s="43" t="n">
+      <c r="N107" s="45" t="n">
         <f aca="false">M107*L107</f>
         <v>0</v>
       </c>
-      <c r="O107" s="43" t="n">
+      <c r="O107" s="45" t="n">
         <f aca="false">IF(M107=0,0,L107*MAX(R2:R8))</f>
         <v>0</v>
       </c>
@@ -20755,7 +20554,7 @@
     <row r="108" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B108" s="51"/>
       <c r="C108" s="5"/>
-      <c r="D108" s="45"/>
+      <c r="D108" s="43"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
@@ -20763,10 +20562,10 @@
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="41"/>
-      <c r="L108" s="42"/>
-      <c r="M108" s="43"/>
-      <c r="N108" s="43"/>
-      <c r="O108" s="43"/>
+      <c r="L108" s="44"/>
+      <c r="M108" s="45"/>
+      <c r="N108" s="45"/>
+      <c r="O108" s="45"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="31" t="s">
@@ -20781,10 +20580,10 @@
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="41"/>
-      <c r="L109" s="42"/>
-      <c r="M109" s="43"/>
-      <c r="N109" s="43"/>
-      <c r="O109" s="43"/>
+      <c r="L109" s="44"/>
+      <c r="M109" s="45"/>
+      <c r="N109" s="45"/>
+      <c r="O109" s="45"/>
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B110" s="52"/>
@@ -20797,17 +20596,17 @@
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="41"/>
-      <c r="L110" s="42"/>
-      <c r="M110" s="43"/>
-      <c r="N110" s="43"/>
-      <c r="O110" s="43"/>
+      <c r="L110" s="44"/>
+      <c r="M110" s="45"/>
+      <c r="N110" s="45"/>
+      <c r="O110" s="45"/>
     </row>
     <row r="111" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="37" t="n">
         <f aca="false">A107+1</f>
         <v>43</v>
       </c>
-      <c r="B111" s="44" t="s">
+      <c r="B111" s="42" t="s">
         <v>166</v>
       </c>
       <c r="C111" s="19"/>
@@ -20859,7 +20658,7 @@
     </row>
     <row r="112" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="37"/>
-      <c r="B112" s="44"/>
+      <c r="B112" s="42"/>
       <c r="C112" s="19"/>
       <c r="D112" s="58"/>
       <c r="E112" s="19"/>
@@ -20890,7 +20689,7 @@
         <f aca="false">A111+1</f>
         <v>44</v>
       </c>
-      <c r="B113" s="44" t="s">
+      <c r="B113" s="42" t="s">
         <v>167</v>
       </c>
       <c r="C113" s="19"/>
@@ -20942,7 +20741,7 @@
     </row>
     <row r="114" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="37"/>
-      <c r="B114" s="44"/>
+      <c r="B114" s="42"/>
       <c r="C114" s="19"/>
       <c r="D114" s="58"/>
       <c r="E114" s="19"/>
@@ -20973,7 +20772,7 @@
         <f aca="false">A113+1</f>
         <v>45</v>
       </c>
-      <c r="B115" s="44" t="s">
+      <c r="B115" s="42" t="s">
         <v>168</v>
       </c>
       <c r="C115" s="19"/>
@@ -21026,7 +20825,7 @@
     <row r="116" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B116" s="60"/>
       <c r="C116" s="5"/>
-      <c r="D116" s="45"/>
+      <c r="D116" s="43"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
@@ -31750,7 +31549,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{6729E0E7-42FD-4E8C-A7E5-D266B0248347}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{7B3D91AD-E31F-49D0-B9D1-692EA080AB35}">
             <xm:f>"Enter score"</xm:f>
             <x14:dxf>
               <fill>
@@ -31786,7 +31585,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="103.58"/>
@@ -36433,7 +36232,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{728D4CDA-4372-4A74-B25F-38D4FFF588AB}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{ED9FC6BA-D857-437D-9EC6-B87D939A90BF}">
             <xm:f>"Enter score"</xm:f>
             <x14:dxf>
               <fill>
@@ -36469,7 +36268,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.57"/>
